--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HavirNAS\Documents\Tomek\pojazdy\Miata30\KnurDash\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HavirNAS\Documents\Tomek\pojazdy\Miata30\KnurDash\KnurDashGit\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E966DBEA-F423-45CE-83DF-D054F98F9F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C18BF-A9F0-45F0-9D60-C89F30B9C8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">pressure!$M$36</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">temp!$H$49</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">temp!$H$50</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
@@ -950,140 +950,143 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>temp!$B$4:$B$47</c:f>
+              <c:f>temp!$B$4:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>216</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>239</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>252</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>261</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>323</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>342</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>377</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>439</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>499</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>518</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>528</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>573</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>594</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>611</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>666</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>737</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>802</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>837</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>874</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>931</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>973</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>1020</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>1108</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>1303</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>1395</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>1600</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
@@ -1091,140 +1094,143 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>temp!$E$4:$E$47</c:f>
+              <c:f>temp!$E$4:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>159.07433058237208</c:v>
+                  <c:v>144.01247699614063</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>125.47763319102907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.23613226658466</c:v>
+                  <c:v>108.91655291479977</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>97.993589177734378</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>89.894649327124952</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>87.168485482688169</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>84.466627703579547</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>81.622511925461069</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>79.02520244509617</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>77.411794184060966</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>75.733340023153175</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>74.286551151136905</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>73.727318675192208</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>72.507008164972135</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>70.830398726074264</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>69.724270705990051</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>67.520601798136738</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>65.371796767566536</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>64.156878707749783</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>63.08759969424446</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>61.332000755326007</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>58.363483054889628</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>53.786784148048866</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>51.138705111395296</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>49.995767888660652</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>48.900394114646886</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>48.341761904105823</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>45.966465564039211</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44.928515443155298</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44.117971865634445</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>41.659502454795899</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>38.804048864842798</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>36.449927486993147</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>35.270131656675808</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34.082257595815797</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>32.359778917868567</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>31.165645239518565</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>29.897120333647258</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>27.69228033454543</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>26.255961623520534</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>23.449621292778104</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>21.694857206695026</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>18.224429212821313</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>15.303830090007168</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>7.4621182577231409</c:v>
                 </c:pt>
               </c:numCache>
@@ -1266,7 +1272,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>temp!$B$7:$B$48</c:f>
+              <c:f>temp!$B$8:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1398,7 +1404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>temp!$C$7:$C$44</c:f>
+              <c:f>temp!$C$8:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="38"/>
@@ -5230,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26896A59-DB25-45D2-BE1C-6FD458C3B096}">
   <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5274,34 +5280,34 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8">
         <f>E4</f>
-        <v>159.07433058237208</v>
+        <v>144.01247699614063</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E47" si="0">polA+polB*LN(B4)+polC*(LN(B4))^3</f>
-        <v>159.07433058237208</v>
+        <f t="shared" ref="E4:E48" si="0">polA+polB*LN(B4)+polC*(LN(B4))^3</f>
+        <v>144.01247699614063</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F16" si="1">F5+F$49</f>
+        <f>F5+F$50</f>
         <v>1.1550000000000042</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G43" si="2">E4+F4</f>
-        <v>160.22933058237209</v>
+        <f t="shared" ref="G4:G44" si="1">E4+F4</f>
+        <v>145.16747699614064</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H6" si="3">(E4-C4)^2</f>
+        <f t="shared" ref="H4:H7" si="2">(E4-C4)^2</f>
         <v>0</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5">
         <f>(E4-32)/1.8</f>
-        <v>70.596850323540039</v>
+        <v>62.229153886744797</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -5318,15 +5324,15 @@
         <v>125.47763319102907</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
+        <f>F7+F$50</f>
         <v>1.1700000000000041</v>
       </c>
       <c r="G5" s="8">
+        <f t="shared" si="1"/>
+        <v>126.64763319102907</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>126.64763319102907</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="6"/>
@@ -5338,1193 +5344,1194 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C6" s="8">
         <f>E6</f>
-        <v>101.23613226658466</v>
+        <v>108.91655291479977</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>101.23613226658466</v>
+        <v>108.91655291479977</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
+        <f>F8+F$50</f>
         <v>1.1850000000000041</v>
       </c>
       <c r="G6" s="8">
+        <f t="shared" si="1"/>
+        <v>110.10155291479977</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>102.42113226658466</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="5">
         <f>(E6-32)/1.8</f>
-        <v>38.464517925880365</v>
+        <v>42.731418285999872</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>140</v>
-      </c>
-      <c r="C7" s="3">
-        <v>91.111111111111114</v>
-      </c>
-      <c r="E7" s="33">
-        <f>polA+polB*LN(B7)+polC*(LN(B7))^3</f>
-        <v>89.894649327124952</v>
-      </c>
-      <c r="F7" s="33">
-        <f t="shared" si="1"/>
-        <v>1.200000000000004</v>
-      </c>
-      <c r="G7" s="33">
+      <c r="B7" s="6">
+        <v>110</v>
+      </c>
+      <c r="C7" s="8">
+        <f>E7</f>
+        <v>97.993589177734378</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>97.993589177734378</v>
+      </c>
+      <c r="F7" s="8">
+        <f>F8+F$50</f>
+        <v>1.1850000000000041</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="1"/>
+        <v>99.178589177734381</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>91.094649327124955</v>
-      </c>
-      <c r="H7" s="2">
-        <f>(G7-C7)^2</f>
-        <v>2.7099033200696622E-4</v>
-      </c>
-      <c r="K7" s="3">
-        <f>C7</f>
-        <v>91.111111111111114</v>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5">
+        <f>(E7-32)/1.8</f>
+        <v>36.663105098741319</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3">
-        <v>87.777777777777771</v>
+        <v>91.111111111111114</v>
       </c>
       <c r="E8" s="33">
-        <f t="shared" si="0"/>
-        <v>87.168485482688169</v>
+        <f>polA+polB*LN(B8)+polC*(LN(B8))^3</f>
+        <v>89.894649327124952</v>
       </c>
       <c r="F8" s="33">
-        <f t="shared" si="1"/>
-        <v>1.2150000000000039</v>
+        <f>F9+F$50</f>
+        <v>1.200000000000004</v>
       </c>
       <c r="G8" s="33">
-        <f t="shared" si="2"/>
-        <v>88.383485482688172</v>
+        <f t="shared" si="1"/>
+        <v>91.094649327124955</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" ref="H8:H44" si="4">(G8-C8)^2</f>
-        <v>0.36688182378782536</v>
+        <f>(G8-C8)^2</f>
+        <v>2.7099033200696622E-4</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" ref="K8:K44" si="5">C8</f>
-        <v>87.777777777777771</v>
+        <f>C8</f>
+        <v>91.111111111111114</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3">
-        <v>85.555555555555557</v>
+        <v>87.777777777777771</v>
       </c>
       <c r="E9" s="33">
         <f t="shared" si="0"/>
-        <v>84.466627703579547</v>
+        <v>87.168485482688169</v>
       </c>
       <c r="F9" s="33">
-        <f t="shared" si="1"/>
-        <v>1.2300000000000038</v>
+        <f>F10+F$50</f>
+        <v>1.2150000000000039</v>
       </c>
       <c r="G9" s="33">
-        <f t="shared" si="2"/>
-        <v>85.696627703579551</v>
+        <f t="shared" si="1"/>
+        <v>88.383485482688172</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9901350948103746E-2</v>
+        <f t="shared" ref="H9:H45" si="3">(G9-C9)^2</f>
+        <v>0.36688182378782536</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="5"/>
-        <v>85.555555555555557</v>
+        <f t="shared" ref="K9:K45" si="4">C9</f>
+        <v>87.777777777777771</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C10" s="3">
-        <v>83.333333333333329</v>
+        <v>85.555555555555557</v>
       </c>
       <c r="E10" s="33">
         <f t="shared" si="0"/>
-        <v>81.622511925461069</v>
+        <v>84.466627703579547</v>
       </c>
       <c r="F10" s="33">
-        <f t="shared" si="1"/>
-        <v>1.2450000000000037</v>
+        <f>F11+F$50</f>
+        <v>1.2300000000000038</v>
       </c>
       <c r="G10" s="33">
-        <f t="shared" si="2"/>
-        <v>82.867511925461073</v>
+        <f t="shared" si="1"/>
+        <v>85.696627703579551</v>
       </c>
       <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9901350948103746E-2</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="4"/>
-        <v>0.21698958403208987</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="5"/>
-        <v>83.333333333333329</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C11" s="3">
-        <v>81.111111111111114</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="E11" s="33">
         <f t="shared" si="0"/>
-        <v>79.02520244509617</v>
+        <v>81.622511925461069</v>
       </c>
       <c r="F11" s="33">
-        <f t="shared" si="1"/>
-        <v>1.2600000000000036</v>
+        <f>F12+F$50</f>
+        <v>1.2450000000000037</v>
       </c>
       <c r="G11" s="33">
-        <f t="shared" si="2"/>
-        <v>80.285202445096175</v>
+        <f t="shared" si="1"/>
+        <v>82.867511925461073</v>
       </c>
       <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21698958403208987</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="4"/>
-        <v>0.68212512459857655</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="5"/>
-        <v>81.111111111111114</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C12" s="3">
-        <v>78.888888888888886</v>
+        <v>81.111111111111114</v>
       </c>
       <c r="E12" s="33">
         <f t="shared" si="0"/>
-        <v>77.411794184060966</v>
+        <v>79.02520244509617</v>
       </c>
       <c r="F12" s="33">
-        <f t="shared" si="1"/>
-        <v>1.2750000000000035</v>
+        <f>F13+F$50</f>
+        <v>1.2600000000000036</v>
       </c>
       <c r="G12" s="33">
-        <f t="shared" si="2"/>
-        <v>78.686794184060972</v>
+        <f t="shared" si="1"/>
+        <v>80.285202445096175</v>
       </c>
       <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.68212512459857655</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="4"/>
-        <v>4.0842269719481697E-2</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="5"/>
-        <v>78.888888888888886</v>
+        <v>81.111111111111114</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C13" s="3">
-        <v>76.666666666666671</v>
+        <v>78.888888888888886</v>
       </c>
       <c r="E13" s="33">
         <f t="shared" si="0"/>
-        <v>75.733340023153175</v>
+        <v>77.411794184060966</v>
       </c>
       <c r="F13" s="33">
-        <f t="shared" si="1"/>
-        <v>1.2900000000000034</v>
+        <f>F14+F$50</f>
+        <v>1.2750000000000035</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="2"/>
-        <v>77.023340023153182</v>
+        <f t="shared" si="1"/>
+        <v>78.686794184060972</v>
       </c>
       <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0842269719481697E-2</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="4"/>
-        <v>0.12721588322735328</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="5"/>
-        <v>76.666666666666671</v>
+        <v>78.888888888888886</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C14" s="3">
-        <v>75.555555555555557</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="0"/>
-        <v>74.286551151136905</v>
+        <v>75.733340023153175</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" si="1"/>
-        <v>1.3050000000000033</v>
+        <f>F15+F$50</f>
+        <v>1.2900000000000034</v>
       </c>
       <c r="G14" s="33">
-        <f t="shared" si="2"/>
-        <v>75.591551151136912</v>
+        <f t="shared" si="1"/>
+        <v>77.023340023153182</v>
       </c>
       <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12721588322735328</v>
+      </c>
+      <c r="K14" s="3">
         <f t="shared" si="4"/>
-        <v>1.2956829012564404E-3</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="5"/>
-        <v>75.555555555555557</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C15" s="3">
-        <v>75</v>
+        <v>75.555555555555557</v>
       </c>
       <c r="E15" s="33">
         <f t="shared" si="0"/>
-        <v>73.727318675192208</v>
+        <v>74.286551151136905</v>
       </c>
       <c r="F15" s="33">
-        <f t="shared" si="1"/>
-        <v>1.3200000000000032</v>
+        <f>F16+F$50</f>
+        <v>1.3050000000000033</v>
       </c>
       <c r="G15" s="33">
-        <f t="shared" si="2"/>
-        <v>75.047318675192216</v>
+        <f t="shared" si="1"/>
+        <v>75.591551151136912</v>
       </c>
       <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2956829012564404E-3</v>
+      </c>
+      <c r="K15" s="3">
         <f t="shared" si="4"/>
-        <v>2.2390570219464061E-3</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="5"/>
-        <v>75</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C16" s="3">
-        <v>73.333333333333329</v>
+        <v>75</v>
       </c>
       <c r="E16" s="33">
         <f t="shared" si="0"/>
-        <v>72.507008164972135</v>
+        <v>73.727318675192208</v>
       </c>
       <c r="F16" s="33">
-        <f t="shared" si="1"/>
-        <v>1.3350000000000031</v>
+        <f>F17+F$50</f>
+        <v>1.3200000000000032</v>
       </c>
       <c r="G16" s="33">
-        <f t="shared" si="2"/>
-        <v>73.842008164972142</v>
+        <f t="shared" si="1"/>
+        <v>75.047318675192216</v>
       </c>
       <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2390570219464061E-3</v>
+      </c>
+      <c r="K16" s="3">
         <f t="shared" si="4"/>
-        <v>0.25875008434277563</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="5"/>
-        <v>73.333333333333329</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C17" s="3">
-        <v>72.222222222222214</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E17" s="33">
         <f t="shared" si="0"/>
-        <v>70.830398726074264</v>
-      </c>
-      <c r="F17" s="41">
-        <f t="shared" ref="F17:F23" si="6">F18+F$49</f>
-        <v>1.350000000000003</v>
+        <v>72.507008164972135</v>
+      </c>
+      <c r="F17" s="33">
+        <f>F18+F$50</f>
+        <v>1.3350000000000031</v>
       </c>
       <c r="G17" s="33">
-        <f t="shared" si="2"/>
-        <v>72.180398726074273</v>
+        <f t="shared" si="1"/>
+        <v>73.842008164972142</v>
       </c>
       <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25875008434277563</v>
+      </c>
+      <c r="K17" s="3">
         <f t="shared" si="4"/>
-        <v>1.7492048300368642E-3</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="5"/>
-        <v>72.222222222222214</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C18" s="3">
-        <v>71.111111111111114</v>
+        <v>72.222222222222214</v>
       </c>
       <c r="E18" s="33">
         <f t="shared" si="0"/>
-        <v>69.724270705990051</v>
+        <v>70.830398726074264</v>
       </c>
       <c r="F18" s="41">
-        <f t="shared" si="6"/>
-        <v>1.3650000000000029</v>
+        <f t="shared" ref="F18:F24" si="5">F19+F$50</f>
+        <v>1.350000000000003</v>
       </c>
       <c r="G18" s="33">
-        <f t="shared" si="2"/>
-        <v>71.08927070599006</v>
+        <f t="shared" si="1"/>
+        <v>72.180398726074273</v>
       </c>
       <c r="H18" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7492048300368642E-3</v>
+      </c>
+      <c r="K18" s="3">
         <f t="shared" si="4"/>
-        <v>4.7700329585176695E-4</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="5"/>
-        <v>71.111111111111114</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C19" s="3">
-        <v>68.888888888888886</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="E19" s="33">
         <f t="shared" si="0"/>
-        <v>67.520601798136738</v>
+        <v>69.724270705990051</v>
       </c>
       <c r="F19" s="41">
-        <f t="shared" si="6"/>
-        <v>1.3800000000000028</v>
+        <f t="shared" si="5"/>
+        <v>1.3650000000000029</v>
       </c>
       <c r="G19" s="33">
-        <f t="shared" si="2"/>
-        <v>68.900601798136748</v>
+        <f t="shared" si="1"/>
+        <v>71.08927070599006</v>
       </c>
       <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7700329585176695E-4</v>
+      </c>
+      <c r="K19" s="3">
         <f t="shared" si="4"/>
-        <v>1.371922430486525E-4</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="5"/>
-        <v>68.888888888888886</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C20" s="3">
-        <v>66.666666666666671</v>
+        <v>68.888888888888886</v>
       </c>
       <c r="E20" s="33">
         <f t="shared" si="0"/>
-        <v>65.371796767566536</v>
+        <v>67.520601798136738</v>
       </c>
       <c r="F20" s="41">
-        <f t="shared" si="6"/>
-        <v>1.3950000000000027</v>
+        <f t="shared" si="5"/>
+        <v>1.3800000000000028</v>
       </c>
       <c r="G20" s="33">
-        <f t="shared" si="2"/>
-        <v>66.766796767566532</v>
+        <f t="shared" si="1"/>
+        <v>68.900601798136748</v>
       </c>
       <c r="H20" s="2">
+        <f t="shared" si="3"/>
+        <v>1.371922430486525E-4</v>
+      </c>
+      <c r="K20" s="3">
         <f t="shared" si="4"/>
-        <v>1.0026037106216338E-2</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="5"/>
-        <v>66.666666666666671</v>
+        <v>68.888888888888886</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C21" s="3">
-        <v>65.555555555555557</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E21" s="33">
         <f t="shared" si="0"/>
-        <v>64.156878707749783</v>
+        <v>65.371796767566536</v>
       </c>
       <c r="F21" s="41">
-        <f t="shared" si="6"/>
-        <v>1.4100000000000026</v>
+        <f t="shared" si="5"/>
+        <v>1.3950000000000027</v>
       </c>
       <c r="G21" s="33">
-        <f t="shared" si="2"/>
-        <v>65.56687870774978</v>
+        <f t="shared" si="1"/>
+        <v>66.766796767566532</v>
       </c>
       <c r="H21" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0026037106216338E-2</v>
+      </c>
+      <c r="K21" s="3">
         <f t="shared" si="4"/>
-        <v>1.2821377561352649E-4</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="5"/>
-        <v>65.555555555555557</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C22" s="3">
-        <v>64.444444444444443</v>
+        <v>65.555555555555557</v>
       </c>
       <c r="E22" s="33">
         <f t="shared" si="0"/>
-        <v>63.08759969424446</v>
+        <v>64.156878707749783</v>
       </c>
       <c r="F22" s="41">
-        <f t="shared" si="6"/>
-        <v>1.4250000000000025</v>
+        <f t="shared" si="5"/>
+        <v>1.4100000000000026</v>
       </c>
       <c r="G22" s="33">
-        <f t="shared" si="2"/>
-        <v>64.512599694244457</v>
+        <f t="shared" si="1"/>
+        <v>65.56687870774978</v>
       </c>
       <c r="H22" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2821377561352649E-4</v>
+      </c>
+      <c r="K22" s="3">
         <f t="shared" si="4"/>
-        <v>4.6451380753023651E-3</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="5"/>
-        <v>64.444444444444443</v>
+        <v>65.555555555555557</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C23" s="3">
-        <v>62.777777777777779</v>
+        <v>64.444444444444443</v>
       </c>
       <c r="E23" s="33">
         <f t="shared" si="0"/>
-        <v>61.332000755326007</v>
+        <v>63.08759969424446</v>
       </c>
       <c r="F23" s="41">
-        <f t="shared" si="6"/>
-        <v>1.4400000000000024</v>
+        <f t="shared" si="5"/>
+        <v>1.4250000000000025</v>
       </c>
       <c r="G23" s="33">
-        <f t="shared" si="2"/>
-        <v>62.772000755326012</v>
+        <f t="shared" si="1"/>
+        <v>64.512599694244457</v>
       </c>
       <c r="H23" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6451380753023651E-3</v>
+      </c>
+      <c r="K23" s="3">
         <f t="shared" si="4"/>
-        <v>3.3373988408217815E-5</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="5"/>
-        <v>62.777777777777779</v>
+        <v>64.444444444444443</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="C24" s="3">
-        <v>60</v>
+        <v>62.777777777777779</v>
       </c>
       <c r="E24" s="33">
         <f t="shared" si="0"/>
-        <v>58.363483054889628</v>
+        <v>61.332000755326007</v>
       </c>
       <c r="F24" s="41">
-        <f t="shared" ref="F24:F45" si="7">F25+F$49</f>
-        <v>1.4550000000000023</v>
+        <f t="shared" si="5"/>
+        <v>1.4400000000000024</v>
       </c>
       <c r="G24" s="33">
-        <f t="shared" si="2"/>
-        <v>59.818483054889633</v>
+        <f t="shared" si="1"/>
+        <v>62.772000755326012</v>
       </c>
       <c r="H24" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3373988408217815E-5</v>
+      </c>
+      <c r="K24" s="3">
         <f t="shared" si="4"/>
-        <v>3.2948401362200022E-2</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="5"/>
-        <v>60</v>
+        <v>62.777777777777779</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="C25" s="3">
-        <v>55.555555555555557</v>
+        <v>60</v>
       </c>
       <c r="E25" s="33">
         <f t="shared" si="0"/>
-        <v>53.786784148048866</v>
+        <v>58.363483054889628</v>
       </c>
       <c r="F25" s="41">
-        <f t="shared" si="7"/>
-        <v>1.4700000000000022</v>
+        <f t="shared" ref="F25:F46" si="6">F26+F$50</f>
+        <v>1.4550000000000023</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" si="2"/>
-        <v>55.256784148048865</v>
+        <f t="shared" si="1"/>
+        <v>59.818483054889633</v>
       </c>
       <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2948401362200022E-2</v>
+      </c>
+      <c r="K25" s="3">
         <f t="shared" si="4"/>
-        <v>8.9264353943529717E-2</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="5"/>
-        <v>55.555555555555557</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="C26" s="3">
-        <v>52.777777777777779</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="E26" s="33">
         <f t="shared" si="0"/>
-        <v>51.138705111395296</v>
+        <v>53.786784148048866</v>
       </c>
       <c r="F26" s="41">
-        <f t="shared" si="7"/>
-        <v>1.4850000000000021</v>
+        <f t="shared" si="6"/>
+        <v>1.4700000000000022</v>
       </c>
       <c r="G26" s="33">
-        <f t="shared" si="2"/>
-        <v>52.623705111395296</v>
+        <f t="shared" si="1"/>
+        <v>55.256784148048865</v>
       </c>
       <c r="H26" s="2">
+        <f t="shared" si="3"/>
+        <v>8.9264353943529717E-2</v>
+      </c>
+      <c r="K26" s="3">
         <f t="shared" si="4"/>
-        <v>2.3738386526207828E-2</v>
-      </c>
-      <c r="K26" s="3">
-        <f t="shared" si="5"/>
-        <v>52.777777777777779</v>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C27" s="3">
-        <v>51.666666666666664</v>
+        <v>52.777777777777779</v>
       </c>
       <c r="E27" s="33">
         <f t="shared" si="0"/>
-        <v>49.995767888660652</v>
+        <v>51.138705111395296</v>
       </c>
       <c r="F27" s="41">
-        <f t="shared" si="7"/>
-        <v>1.500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>1.4850000000000021</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="2"/>
-        <v>51.495767888660652</v>
+        <f t="shared" si="1"/>
+        <v>52.623705111395296</v>
       </c>
       <c r="H27" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3738386526207828E-2</v>
+      </c>
+      <c r="K27" s="3">
         <f t="shared" si="4"/>
-        <v>2.9206392323948418E-2</v>
-      </c>
-      <c r="K27" s="3">
-        <f t="shared" si="5"/>
-        <v>51.666666666666664</v>
+        <v>52.777777777777779</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C28" s="3">
-        <v>50.555555555555557</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="E28" s="33">
         <f t="shared" si="0"/>
-        <v>48.900394114646886</v>
+        <v>49.995767888660652</v>
       </c>
       <c r="F28" s="41">
-        <f t="shared" si="7"/>
-        <v>1.5150000000000019</v>
+        <f t="shared" si="6"/>
+        <v>1.500000000000002</v>
       </c>
       <c r="G28" s="33">
-        <f t="shared" si="2"/>
-        <v>50.415394114646887</v>
+        <f t="shared" si="1"/>
+        <v>51.495767888660652</v>
       </c>
       <c r="H28" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9206392323948418E-2</v>
+      </c>
+      <c r="K28" s="3">
         <f t="shared" si="4"/>
-        <v>1.9645229517594717E-2</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="5"/>
-        <v>50.555555555555557</v>
+        <v>51.666666666666664</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C29" s="3">
-        <v>50</v>
+        <v>50.555555555555557</v>
       </c>
       <c r="E29" s="33">
         <f t="shared" si="0"/>
-        <v>48.341761904105823</v>
+        <v>48.900394114646886</v>
       </c>
       <c r="F29" s="41">
-        <f t="shared" si="7"/>
-        <v>1.5300000000000018</v>
+        <f t="shared" si="6"/>
+        <v>1.5150000000000019</v>
       </c>
       <c r="G29" s="33">
-        <f t="shared" si="2"/>
-        <v>49.871761904105824</v>
+        <f t="shared" si="1"/>
+        <v>50.415394114646887</v>
       </c>
       <c r="H29" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9645229517594717E-2</v>
+      </c>
+      <c r="K29" s="3">
         <f t="shared" si="4"/>
-        <v>1.6445009238563825E-2</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <v>50.555555555555557</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="C30" s="3">
-        <v>47.777777777777779</v>
+        <v>50</v>
       </c>
       <c r="E30" s="33">
         <f t="shared" si="0"/>
-        <v>45.966465564039211</v>
+        <v>48.341761904105823</v>
       </c>
       <c r="F30" s="41">
-        <f t="shared" si="7"/>
-        <v>1.5450000000000017</v>
+        <f t="shared" si="6"/>
+        <v>1.5300000000000018</v>
       </c>
       <c r="G30" s="33">
-        <f t="shared" si="2"/>
-        <v>47.511465564039213</v>
+        <f t="shared" si="1"/>
+        <v>49.871761904105824</v>
       </c>
       <c r="H30" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6445009238563825E-2</v>
+      </c>
+      <c r="K30" s="3">
         <f t="shared" si="4"/>
-        <v>7.0922195186335454E-2</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" si="5"/>
-        <v>47.777777777777779</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="C31" s="3">
-        <v>46.666666666666664</v>
+        <v>47.777777777777779</v>
       </c>
       <c r="E31" s="33">
         <f t="shared" si="0"/>
-        <v>44.928515443155298</v>
+        <v>45.966465564039211</v>
       </c>
       <c r="F31" s="41">
-        <f t="shared" si="7"/>
-        <v>1.5600000000000016</v>
+        <f t="shared" si="6"/>
+        <v>1.5450000000000017</v>
       </c>
       <c r="G31" s="33">
-        <f t="shared" si="2"/>
-        <v>46.4885154431553</v>
+        <f t="shared" si="1"/>
+        <v>47.511465564039213</v>
       </c>
       <c r="H31" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0922195186335454E-2</v>
+      </c>
+      <c r="K31" s="3">
         <f t="shared" si="4"/>
-        <v>3.1737858438595903E-2</v>
-      </c>
-      <c r="K31" s="3">
-        <f t="shared" si="5"/>
-        <v>46.666666666666664</v>
+        <v>47.777777777777779</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="C32" s="3">
-        <v>45.555555555555557</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="E32" s="33">
         <f t="shared" si="0"/>
-        <v>44.117971865634445</v>
+        <v>44.928515443155298</v>
       </c>
       <c r="F32" s="41">
-        <f t="shared" si="7"/>
-        <v>1.5750000000000015</v>
+        <f t="shared" si="6"/>
+        <v>1.5600000000000016</v>
       </c>
       <c r="G32" s="33">
-        <f t="shared" si="2"/>
-        <v>45.692971865634448</v>
+        <f t="shared" si="1"/>
+        <v>46.4885154431553</v>
       </c>
       <c r="H32" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1737858438595903E-2</v>
+      </c>
+      <c r="K32" s="3">
         <f t="shared" si="4"/>
-        <v>1.8883242275697796E-2</v>
-      </c>
-      <c r="K32" s="3">
-        <f t="shared" si="5"/>
-        <v>45.555555555555557</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>666</v>
+        <v>611</v>
       </c>
       <c r="C33" s="3">
-        <v>42.777777777777779</v>
+        <v>45.555555555555557</v>
       </c>
       <c r="E33" s="33">
         <f t="shared" si="0"/>
-        <v>41.659502454795899</v>
+        <v>44.117971865634445</v>
       </c>
       <c r="F33" s="41">
-        <f t="shared" si="7"/>
-        <v>1.5900000000000014</v>
+        <f t="shared" si="6"/>
+        <v>1.5750000000000015</v>
       </c>
       <c r="G33" s="33">
-        <f t="shared" si="2"/>
-        <v>43.249502454795902</v>
+        <f t="shared" si="1"/>
+        <v>45.692971865634448</v>
       </c>
       <c r="H33" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8883242275697796E-2</v>
+      </c>
+      <c r="K33" s="3">
         <f t="shared" si="4"/>
-        <v>0.22252417090785281</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" si="5"/>
-        <v>42.777777777777779</v>
+        <v>45.555555555555557</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>737</v>
+        <v>666</v>
       </c>
       <c r="C34" s="3">
-        <v>40</v>
+        <v>42.777777777777779</v>
       </c>
       <c r="E34" s="33">
         <f t="shared" si="0"/>
-        <v>38.804048864842798</v>
+        <v>41.659502454795899</v>
       </c>
       <c r="F34" s="41">
-        <f t="shared" si="7"/>
-        <v>1.6050000000000013</v>
+        <f t="shared" si="6"/>
+        <v>1.5900000000000014</v>
       </c>
       <c r="G34" s="33">
-        <f t="shared" si="2"/>
-        <v>40.409048864842802</v>
+        <f t="shared" si="1"/>
+        <v>43.249502454795902</v>
       </c>
       <c r="H34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.22252417090785281</v>
+      </c>
+      <c r="K34" s="3">
         <f t="shared" si="4"/>
-        <v>0.16732097382918498</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <v>42.777777777777779</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>802</v>
+        <v>737</v>
       </c>
       <c r="C35" s="3">
-        <v>37.777777777777779</v>
+        <v>40</v>
       </c>
       <c r="E35" s="33">
         <f t="shared" si="0"/>
-        <v>36.449927486993147</v>
+        <v>38.804048864842798</v>
       </c>
       <c r="F35" s="41">
-        <f t="shared" si="7"/>
-        <v>1.6200000000000012</v>
+        <f t="shared" si="6"/>
+        <v>1.6050000000000013</v>
       </c>
       <c r="G35" s="33">
-        <f t="shared" si="2"/>
-        <v>38.069927486993151</v>
+        <f t="shared" si="1"/>
+        <v>40.409048864842802</v>
       </c>
       <c r="H35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16732097382918498</v>
+      </c>
+      <c r="K35" s="3">
         <f t="shared" si="4"/>
-        <v>8.5351452594626925E-2</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="5"/>
-        <v>37.777777777777779</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>837</v>
+        <v>802</v>
       </c>
       <c r="C36" s="3">
-        <v>36.666666666666664</v>
+        <v>37.777777777777779</v>
       </c>
       <c r="E36" s="33">
         <f t="shared" si="0"/>
-        <v>35.270131656675808</v>
+        <v>36.449927486993147</v>
       </c>
       <c r="F36" s="41">
-        <f t="shared" si="7"/>
-        <v>1.6350000000000011</v>
+        <f t="shared" si="6"/>
+        <v>1.6200000000000012</v>
       </c>
       <c r="G36" s="33">
-        <f t="shared" si="2"/>
-        <v>36.905131656675806</v>
+        <f t="shared" si="1"/>
+        <v>38.069927486993151</v>
       </c>
       <c r="H36" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5351452594626925E-2</v>
+      </c>
+      <c r="K36" s="3">
         <f t="shared" si="4"/>
-        <v>5.6865551460060094E-2</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="5"/>
-        <v>36.666666666666664</v>
+        <v>37.777777777777779</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>874</v>
+        <v>837</v>
       </c>
       <c r="C37" s="3">
-        <v>35.555555555555557</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="E37" s="33">
         <f t="shared" si="0"/>
-        <v>34.082257595815797</v>
+        <v>35.270131656675808</v>
       </c>
       <c r="F37" s="41">
-        <f t="shared" si="7"/>
-        <v>1.650000000000001</v>
+        <f t="shared" si="6"/>
+        <v>1.6350000000000011</v>
       </c>
       <c r="G37" s="33">
-        <f t="shared" si="2"/>
-        <v>35.732257595815796</v>
+        <f t="shared" si="1"/>
+        <v>36.905131656675806</v>
       </c>
       <c r="H37" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6865551460060094E-2</v>
+      </c>
+      <c r="K37" s="3">
         <f t="shared" si="4"/>
-        <v>3.1223611032130911E-2</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="5"/>
-        <v>35.555555555555557</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>931</v>
+        <v>874</v>
       </c>
       <c r="C38" s="3">
-        <v>33.888888888888886</v>
+        <v>35.555555555555557</v>
       </c>
       <c r="E38" s="33">
         <f t="shared" si="0"/>
-        <v>32.359778917868567</v>
+        <v>34.082257595815797</v>
       </c>
       <c r="F38" s="41">
-        <f t="shared" si="7"/>
-        <v>1.6650000000000009</v>
+        <f t="shared" si="6"/>
+        <v>1.650000000000001</v>
       </c>
       <c r="G38" s="33">
-        <f t="shared" si="2"/>
-        <v>34.024778917868566</v>
+        <f t="shared" si="1"/>
+        <v>35.732257595815796</v>
       </c>
       <c r="H38" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1223611032130911E-2</v>
+      </c>
+      <c r="K38" s="3">
         <f t="shared" si="4"/>
-        <v>1.8466099976098466E-2</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="5"/>
-        <v>33.888888888888886</v>
+        <v>35.555555555555557</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>973</v>
+        <v>931</v>
       </c>
       <c r="C39" s="3">
-        <v>32.777777777777779</v>
+        <v>33.888888888888886</v>
       </c>
       <c r="E39" s="33">
         <f t="shared" si="0"/>
-        <v>31.165645239518565</v>
+        <v>32.359778917868567</v>
       </c>
       <c r="F39" s="41">
-        <f t="shared" si="7"/>
-        <v>1.6800000000000008</v>
+        <f t="shared" si="6"/>
+        <v>1.6650000000000009</v>
       </c>
       <c r="G39" s="33">
-        <f t="shared" si="2"/>
-        <v>32.845645239518568</v>
+        <f t="shared" si="1"/>
+        <v>34.024778917868566</v>
       </c>
       <c r="H39" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8466099976098466E-2</v>
+      </c>
+      <c r="K39" s="3">
         <f t="shared" si="4"/>
-        <v>4.6059923631374972E-3</v>
-      </c>
-      <c r="K39" s="3">
-        <f t="shared" si="5"/>
-        <v>32.777777777777779</v>
+        <v>33.888888888888886</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>1020</v>
+        <v>973</v>
       </c>
       <c r="C40" s="3">
-        <v>31.666666666666664</v>
+        <v>32.777777777777779</v>
       </c>
       <c r="E40" s="33">
         <f t="shared" si="0"/>
-        <v>29.897120333647258</v>
+        <v>31.165645239518565</v>
       </c>
       <c r="F40" s="41">
-        <f t="shared" si="7"/>
-        <v>1.6950000000000007</v>
+        <f t="shared" si="6"/>
+        <v>1.6800000000000008</v>
       </c>
       <c r="G40" s="33">
-        <f t="shared" si="2"/>
-        <v>31.592120333647259</v>
+        <f t="shared" si="1"/>
+        <v>32.845645239518568</v>
       </c>
       <c r="H40" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6059923631374972E-3</v>
+      </c>
+      <c r="K40" s="3">
         <f t="shared" si="4"/>
-        <v>5.5571557666401232E-3</v>
-      </c>
-      <c r="K40" s="3">
-        <f t="shared" si="5"/>
-        <v>31.666666666666664</v>
+        <v>32.777777777777779</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>1108</v>
+        <v>1020</v>
       </c>
       <c r="C41" s="3">
-        <v>29.444444444444443</v>
+        <v>31.666666666666664</v>
       </c>
       <c r="E41" s="33">
         <f t="shared" si="0"/>
-        <v>27.69228033454543</v>
+        <v>29.897120333647258</v>
       </c>
       <c r="F41" s="41">
-        <f t="shared" si="7"/>
-        <v>1.7100000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1.6950000000000007</v>
       </c>
       <c r="G41" s="33">
-        <f t="shared" si="2"/>
-        <v>29.402280334545431</v>
+        <f t="shared" si="1"/>
+        <v>31.592120333647259</v>
       </c>
       <c r="H41" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5571557666401232E-3</v>
+      </c>
+      <c r="K41" s="3">
         <f t="shared" si="4"/>
-        <v>1.7778121635759789E-3</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" si="5"/>
-        <v>29.444444444444443</v>
+        <v>31.666666666666664</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>1170</v>
+        <v>1108</v>
       </c>
       <c r="C42" s="3">
-        <v>28.333333333333332</v>
+        <v>29.444444444444443</v>
       </c>
       <c r="E42" s="33">
         <f t="shared" si="0"/>
-        <v>26.255961623520534</v>
+        <v>27.69228033454543</v>
       </c>
       <c r="F42" s="41">
-        <f t="shared" si="7"/>
-        <v>1.7250000000000005</v>
+        <f t="shared" si="6"/>
+        <v>1.7100000000000006</v>
       </c>
       <c r="G42" s="33">
-        <f t="shared" si="2"/>
-        <v>27.980961623520535</v>
+        <f t="shared" si="1"/>
+        <v>29.402280334545431</v>
       </c>
       <c r="H42" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7778121635759789E-3</v>
+      </c>
+      <c r="K42" s="3">
         <f t="shared" si="4"/>
-        <v>0.12416582187639384</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" si="5"/>
-        <v>28.333333333333332</v>
+        <v>29.444444444444443</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>1303</v>
+        <v>1170</v>
       </c>
       <c r="C43" s="3">
-        <v>25.555555555555554</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="E43" s="33">
         <f t="shared" si="0"/>
-        <v>23.449621292778104</v>
+        <v>26.255961623520534</v>
       </c>
       <c r="F43" s="41">
-        <f t="shared" si="7"/>
-        <v>1.7400000000000004</v>
+        <f t="shared" si="6"/>
+        <v>1.7250000000000005</v>
       </c>
       <c r="G43" s="33">
-        <f t="shared" si="2"/>
-        <v>25.189621292778106</v>
+        <f t="shared" si="1"/>
+        <v>27.980961623520535</v>
       </c>
       <c r="H43" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12416582187639384</v>
+      </c>
+      <c r="K43" s="3">
         <f t="shared" si="4"/>
-        <v>0.13390788467447373</v>
-      </c>
-      <c r="K43" s="3">
-        <f t="shared" si="5"/>
-        <v>25.555555555555554</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44">
+        <v>1303</v>
+      </c>
+      <c r="C44" s="3">
+        <v>25.555555555555554</v>
+      </c>
+      <c r="E44" s="33">
+        <f t="shared" si="0"/>
+        <v>23.449621292778104</v>
+      </c>
+      <c r="F44" s="41">
+        <f t="shared" si="6"/>
+        <v>1.7400000000000004</v>
+      </c>
+      <c r="G44" s="33">
+        <f t="shared" si="1"/>
+        <v>25.189621292778106</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13390788467447373</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="4"/>
+        <v>25.555555555555554</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>1395</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45" s="3">
         <v>23.333333333333332</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E45" s="33">
         <f t="shared" si="0"/>
         <v>21.694857206695026</v>
       </c>
-      <c r="F44" s="41">
-        <f t="shared" si="7"/>
+      <c r="F45" s="41">
+        <f t="shared" si="6"/>
         <v>1.7550000000000003</v>
       </c>
-      <c r="G44" s="33">
-        <f>E44+F44</f>
+      <c r="G45" s="33">
+        <f>E45+F45</f>
         <v>23.449857206695025</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H45" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3577813063211895E-2</v>
+      </c>
+      <c r="K45" s="3">
         <f t="shared" si="4"/>
-        <v>1.3577813063211895E-2</v>
-      </c>
-      <c r="K44" s="3">
-        <f t="shared" si="5"/>
         <v>23.333333333333332</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C45" s="5">
-        <f>E45</f>
-        <v>18.224429212821313</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="8">
-        <f t="shared" si="0"/>
-        <v>18.224429212821313</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" si="7"/>
-        <v>1.7700000000000002</v>
-      </c>
-      <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="8">E45+F45</f>
-        <v>19.994429212821313</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" ref="H8:H47" si="9">(E45-C45)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="5">
-        <f>(E45-32)/1.8</f>
-        <v>-7.653094881765937</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C46" s="5">
         <f>E46</f>
-        <v>15.303830090007168</v>
+        <v>18.224429212821313</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="8">
         <f t="shared" si="0"/>
-        <v>15.303830090007168</v>
+        <v>18.224429212821313</v>
       </c>
       <c r="F46" s="7">
-        <f>F47+F$49</f>
-        <v>1.7850000000000001</v>
+        <f t="shared" si="6"/>
+        <v>1.7700000000000002</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="8"/>
-        <v>17.088830090007168</v>
+        <f t="shared" ref="G46:G48" si="7">E46+F46</f>
+        <v>19.994429212821313</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H46:H48" si="8">(E46-C46)^2</f>
         <v>0</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="5">
         <f>(E46-32)/1.8</f>
-        <v>-9.2756499499960174</v>
+        <v>-7.653094881765937</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="C47" s="5">
         <f>E47</f>
-        <v>7.4621182577231409</v>
+        <v>15.303830090007168</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="8">
         <f t="shared" si="0"/>
-        <v>7.4621182577231409</v>
+        <v>15.303830090007168</v>
       </c>
       <c r="F47" s="7">
-        <v>1.8</v>
+        <f>F48+F$50</f>
+        <v>1.7850000000000001</v>
       </c>
       <c r="G47" s="8">
+        <f t="shared" si="7"/>
+        <v>17.088830090007168</v>
+      </c>
+      <c r="H47" s="2">
         <f t="shared" si="8"/>
-        <v>9.2621182577231416</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="5">
         <f>(E47-32)/1.8</f>
-        <v>-13.632156523487144</v>
+        <v>-9.2756499499960174</v>
       </c>
       <c r="R47">
         <v>57</v>
@@ -6534,6 +6541,35 @@
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
+        <v>2500</v>
+      </c>
+      <c r="C48" s="5">
+        <f>E48</f>
+        <v>7.4621182577231409</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>7.4621182577231409</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="7"/>
+        <v>9.2621182577231416</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="5">
+        <f>(E48-32)/1.8</f>
+        <v>-13.632156523487144</v>
+      </c>
       <c r="R48">
         <v>42</v>
       </c>
@@ -6542,13 +6578,6 @@
       </c>
     </row>
     <row r="49" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F49">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="H49" s="4">
-        <f>SUM(H7:H44)</f>
-        <v>2.9318434227459549</v>
-      </c>
       <c r="R49">
         <v>30</v>
       </c>
@@ -6557,6 +6586,13 @@
       </c>
     </row>
     <row r="50" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="H50" s="4">
+        <f>SUM(H8:H45)</f>
+        <v>2.9318434227459549</v>
+      </c>
       <c r="Q50">
         <v>21</v>
       </c>
@@ -6639,8 +6675,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H47">
-    <sortCondition ref="B7:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:H48">
+    <sortCondition ref="B8:B48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
@@ -6652,7 +6688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B5F49D-8C3A-42CF-AA09-87F9A0902ABA}">
   <dimension ref="B1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HavirNAS\Documents\Tomek\pojazdy\Miata30\KnurDash\KnurDashGit\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HavirNAS\Documents\Tomek\pojazdy\Miata30\KnurDash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C18BF-A9F0-45F0-9D60-C89F30B9C8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230D799-476D-489F-9412-E78AC20E1C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="ppolA">pressure!$G$2</definedName>
     <definedName name="ppolB">pressure!$H$2</definedName>
     <definedName name="ppolC">pressure!$I$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">pinouts!$A$1:$AH$38</definedName>
     <definedName name="PsiToBar">pressure!$B$2</definedName>
     <definedName name="Rref">Calcs!$C$13</definedName>
     <definedName name="Rsensor">Calcs!$C$14</definedName>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="144">
   <si>
     <t>Vin</t>
   </si>
@@ -529,6 +530,9 @@
   </si>
   <si>
     <t>Press</t>
+  </si>
+  <si>
+    <t>RESET BTN</t>
   </si>
 </sst>
 </file>
@@ -4645,10 +4649,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFCC8DD-5DD0-4266-935E-E84E0B0CCB9F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4875,10 +4882,15 @@
       <c r="N8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="11"/>
+      <c r="O8" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="P8">
         <f t="shared" si="1"/>
         <v>14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -5226,8 +5238,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.31" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" fitToWidth="2" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="37" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5236,7 +5251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26896A59-DB25-45D2-BE1C-6FD458C3B096}">
   <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5388,7 +5403,7 @@
         <v>97.993589177734378</v>
       </c>
       <c r="F7" s="8">
-        <f>F8+F$50</f>
+        <f t="shared" ref="F7:F17" si="3">F8+F$50</f>
         <v>1.1850000000000041</v>
       </c>
       <c r="G7" s="8">
@@ -5418,7 +5433,7 @@
         <v>89.894649327124952</v>
       </c>
       <c r="F8" s="33">
-        <f>F9+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.200000000000004</v>
       </c>
       <c r="G8" s="33">
@@ -5446,7 +5461,7 @@
         <v>87.168485482688169</v>
       </c>
       <c r="F9" s="33">
-        <f>F10+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.2150000000000039</v>
       </c>
       <c r="G9" s="33">
@@ -5454,11 +5469,11 @@
         <v>88.383485482688172</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" ref="H9:H45" si="3">(G9-C9)^2</f>
+        <f t="shared" ref="H9:H45" si="4">(G9-C9)^2</f>
         <v>0.36688182378782536</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" ref="K9:K45" si="4">C9</f>
+        <f t="shared" ref="K9:K45" si="5">C9</f>
         <v>87.777777777777771</v>
       </c>
     </row>
@@ -5474,7 +5489,7 @@
         <v>84.466627703579547</v>
       </c>
       <c r="F10" s="33">
-        <f>F11+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.2300000000000038</v>
       </c>
       <c r="G10" s="33">
@@ -5482,11 +5497,11 @@
         <v>85.696627703579551</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9901350948103746E-2</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85.555555555555557</v>
       </c>
     </row>
@@ -5502,7 +5517,7 @@
         <v>81.622511925461069</v>
       </c>
       <c r="F11" s="33">
-        <f>F12+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.2450000000000037</v>
       </c>
       <c r="G11" s="33">
@@ -5510,11 +5525,11 @@
         <v>82.867511925461073</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21698958403208987</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.333333333333329</v>
       </c>
     </row>
@@ -5530,7 +5545,7 @@
         <v>79.02520244509617</v>
       </c>
       <c r="F12" s="33">
-        <f>F13+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.2600000000000036</v>
       </c>
       <c r="G12" s="33">
@@ -5538,11 +5553,11 @@
         <v>80.285202445096175</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68212512459857655</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81.111111111111114</v>
       </c>
     </row>
@@ -5558,7 +5573,7 @@
         <v>77.411794184060966</v>
       </c>
       <c r="F13" s="33">
-        <f>F14+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.2750000000000035</v>
       </c>
       <c r="G13" s="33">
@@ -5566,11 +5581,11 @@
         <v>78.686794184060972</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0842269719481697E-2</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.888888888888886</v>
       </c>
     </row>
@@ -5586,7 +5601,7 @@
         <v>75.733340023153175</v>
       </c>
       <c r="F14" s="33">
-        <f>F15+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.2900000000000034</v>
       </c>
       <c r="G14" s="33">
@@ -5594,11 +5609,11 @@
         <v>77.023340023153182</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12721588322735328</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76.666666666666671</v>
       </c>
     </row>
@@ -5614,7 +5629,7 @@
         <v>74.286551151136905</v>
       </c>
       <c r="F15" s="33">
-        <f>F16+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.3050000000000033</v>
       </c>
       <c r="G15" s="33">
@@ -5622,11 +5637,11 @@
         <v>75.591551151136912</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2956829012564404E-3</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.555555555555557</v>
       </c>
     </row>
@@ -5642,7 +5657,7 @@
         <v>73.727318675192208</v>
       </c>
       <c r="F16" s="33">
-        <f>F17+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.3200000000000032</v>
       </c>
       <c r="G16" s="33">
@@ -5650,11 +5665,11 @@
         <v>75.047318675192216</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2390570219464061E-3</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
@@ -5670,7 +5685,7 @@
         <v>72.507008164972135</v>
       </c>
       <c r="F17" s="33">
-        <f>F18+F$50</f>
+        <f t="shared" si="3"/>
         <v>1.3350000000000031</v>
       </c>
       <c r="G17" s="33">
@@ -5678,11 +5693,11 @@
         <v>73.842008164972142</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25875008434277563</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73.333333333333329</v>
       </c>
     </row>
@@ -5698,7 +5713,7 @@
         <v>70.830398726074264</v>
       </c>
       <c r="F18" s="41">
-        <f t="shared" ref="F18:F24" si="5">F19+F$50</f>
+        <f t="shared" ref="F18:F24" si="6">F19+F$50</f>
         <v>1.350000000000003</v>
       </c>
       <c r="G18" s="33">
@@ -5706,11 +5721,11 @@
         <v>72.180398726074273</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7492048300368642E-3</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.222222222222214</v>
       </c>
     </row>
@@ -5726,19 +5741,19 @@
         <v>69.724270705990051</v>
       </c>
       <c r="F19" s="41">
+        <f t="shared" si="6"/>
+        <v>1.3650000000000029</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" si="1"/>
+        <v>71.08927070599006</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="4"/>
+        <v>4.7700329585176695E-4</v>
+      </c>
+      <c r="K19" s="3">
         <f t="shared" si="5"/>
-        <v>1.3650000000000029</v>
-      </c>
-      <c r="G19" s="33">
-        <f t="shared" si="1"/>
-        <v>71.08927070599006</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="3"/>
-        <v>4.7700329585176695E-4</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="4"/>
         <v>71.111111111111114</v>
       </c>
     </row>
@@ -5754,19 +5769,19 @@
         <v>67.520601798136738</v>
       </c>
       <c r="F20" s="41">
+        <f t="shared" si="6"/>
+        <v>1.3800000000000028</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="1"/>
+        <v>68.900601798136748</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="4"/>
+        <v>1.371922430486525E-4</v>
+      </c>
+      <c r="K20" s="3">
         <f t="shared" si="5"/>
-        <v>1.3800000000000028</v>
-      </c>
-      <c r="G20" s="33">
-        <f t="shared" si="1"/>
-        <v>68.900601798136748</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="3"/>
-        <v>1.371922430486525E-4</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="4"/>
         <v>68.888888888888886</v>
       </c>
     </row>
@@ -5782,19 +5797,19 @@
         <v>65.371796767566536</v>
       </c>
       <c r="F21" s="41">
+        <f t="shared" si="6"/>
+        <v>1.3950000000000027</v>
+      </c>
+      <c r="G21" s="33">
+        <f t="shared" si="1"/>
+        <v>66.766796767566532</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0026037106216338E-2</v>
+      </c>
+      <c r="K21" s="3">
         <f t="shared" si="5"/>
-        <v>1.3950000000000027</v>
-      </c>
-      <c r="G21" s="33">
-        <f t="shared" si="1"/>
-        <v>66.766796767566532</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0026037106216338E-2</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="4"/>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -5810,19 +5825,19 @@
         <v>64.156878707749783</v>
       </c>
       <c r="F22" s="41">
+        <f t="shared" si="6"/>
+        <v>1.4100000000000026</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" si="1"/>
+        <v>65.56687870774978</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2821377561352649E-4</v>
+      </c>
+      <c r="K22" s="3">
         <f t="shared" si="5"/>
-        <v>1.4100000000000026</v>
-      </c>
-      <c r="G22" s="33">
-        <f t="shared" si="1"/>
-        <v>65.56687870774978</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2821377561352649E-4</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="4"/>
         <v>65.555555555555557</v>
       </c>
     </row>
@@ -5838,19 +5853,19 @@
         <v>63.08759969424446</v>
       </c>
       <c r="F23" s="41">
+        <f t="shared" si="6"/>
+        <v>1.4250000000000025</v>
+      </c>
+      <c r="G23" s="33">
+        <f t="shared" si="1"/>
+        <v>64.512599694244457</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6451380753023651E-3</v>
+      </c>
+      <c r="K23" s="3">
         <f t="shared" si="5"/>
-        <v>1.4250000000000025</v>
-      </c>
-      <c r="G23" s="33">
-        <f t="shared" si="1"/>
-        <v>64.512599694244457</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6451380753023651E-3</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="4"/>
         <v>64.444444444444443</v>
       </c>
     </row>
@@ -5866,19 +5881,19 @@
         <v>61.332000755326007</v>
       </c>
       <c r="F24" s="41">
+        <f t="shared" si="6"/>
+        <v>1.4400000000000024</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" si="1"/>
+        <v>62.772000755326012</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3373988408217815E-5</v>
+      </c>
+      <c r="K24" s="3">
         <f t="shared" si="5"/>
-        <v>1.4400000000000024</v>
-      </c>
-      <c r="G24" s="33">
-        <f t="shared" si="1"/>
-        <v>62.772000755326012</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="3"/>
-        <v>3.3373988408217815E-5</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="4"/>
         <v>62.777777777777779</v>
       </c>
     </row>
@@ -5894,7 +5909,7 @@
         <v>58.363483054889628</v>
       </c>
       <c r="F25" s="41">
-        <f t="shared" ref="F25:F46" si="6">F26+F$50</f>
+        <f t="shared" ref="F25:F46" si="7">F26+F$50</f>
         <v>1.4550000000000023</v>
       </c>
       <c r="G25" s="33">
@@ -5902,11 +5917,11 @@
         <v>59.818483054889633</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2948401362200022E-2</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
     </row>
@@ -5922,7 +5937,7 @@
         <v>53.786784148048866</v>
       </c>
       <c r="F26" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4700000000000022</v>
       </c>
       <c r="G26" s="33">
@@ -5930,11 +5945,11 @@
         <v>55.256784148048865</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9264353943529717E-2</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.555555555555557</v>
       </c>
     </row>
@@ -5950,7 +5965,7 @@
         <v>51.138705111395296</v>
       </c>
       <c r="F27" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4850000000000021</v>
       </c>
       <c r="G27" s="33">
@@ -5958,11 +5973,11 @@
         <v>52.623705111395296</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3738386526207828E-2</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.777777777777779</v>
       </c>
     </row>
@@ -5978,7 +5993,7 @@
         <v>49.995767888660652</v>
       </c>
       <c r="F28" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.500000000000002</v>
       </c>
       <c r="G28" s="33">
@@ -5986,11 +6001,11 @@
         <v>51.495767888660652</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9206392323948418E-2</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.666666666666664</v>
       </c>
     </row>
@@ -6006,7 +6021,7 @@
         <v>48.900394114646886</v>
       </c>
       <c r="F29" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5150000000000019</v>
       </c>
       <c r="G29" s="33">
@@ -6014,11 +6029,11 @@
         <v>50.415394114646887</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9645229517594717E-2</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.555555555555557</v>
       </c>
     </row>
@@ -6034,7 +6049,7 @@
         <v>48.341761904105823</v>
       </c>
       <c r="F30" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5300000000000018</v>
       </c>
       <c r="G30" s="33">
@@ -6042,11 +6057,11 @@
         <v>49.871761904105824</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6445009238563825E-2</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
@@ -6062,7 +6077,7 @@
         <v>45.966465564039211</v>
       </c>
       <c r="F31" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5450000000000017</v>
       </c>
       <c r="G31" s="33">
@@ -6070,11 +6085,11 @@
         <v>47.511465564039213</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0922195186335454E-2</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.777777777777779</v>
       </c>
     </row>
@@ -6090,7 +6105,7 @@
         <v>44.928515443155298</v>
       </c>
       <c r="F32" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5600000000000016</v>
       </c>
       <c r="G32" s="33">
@@ -6098,11 +6113,11 @@
         <v>46.4885154431553</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1737858438595903E-2</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.666666666666664</v>
       </c>
     </row>
@@ -6118,7 +6133,7 @@
         <v>44.117971865634445</v>
       </c>
       <c r="F33" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5750000000000015</v>
       </c>
       <c r="G33" s="33">
@@ -6126,11 +6141,11 @@
         <v>45.692971865634448</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8883242275697796E-2</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.555555555555557</v>
       </c>
     </row>
@@ -6146,7 +6161,7 @@
         <v>41.659502454795899</v>
       </c>
       <c r="F34" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5900000000000014</v>
       </c>
       <c r="G34" s="33">
@@ -6154,11 +6169,11 @@
         <v>43.249502454795902</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22252417090785281</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.777777777777779</v>
       </c>
     </row>
@@ -6174,7 +6189,7 @@
         <v>38.804048864842798</v>
       </c>
       <c r="F35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6050000000000013</v>
       </c>
       <c r="G35" s="33">
@@ -6182,11 +6197,11 @@
         <v>40.409048864842802</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16732097382918498</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
@@ -6202,7 +6217,7 @@
         <v>36.449927486993147</v>
       </c>
       <c r="F36" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6200000000000012</v>
       </c>
       <c r="G36" s="33">
@@ -6210,11 +6225,11 @@
         <v>38.069927486993151</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5351452594626925E-2</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.777777777777779</v>
       </c>
     </row>
@@ -6230,7 +6245,7 @@
         <v>35.270131656675808</v>
       </c>
       <c r="F37" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6350000000000011</v>
       </c>
       <c r="G37" s="33">
@@ -6238,11 +6253,11 @@
         <v>36.905131656675806</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6865551460060094E-2</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
     </row>
@@ -6258,7 +6273,7 @@
         <v>34.082257595815797</v>
       </c>
       <c r="F38" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.650000000000001</v>
       </c>
       <c r="G38" s="33">
@@ -6266,11 +6281,11 @@
         <v>35.732257595815796</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1223611032130911E-2</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.555555555555557</v>
       </c>
     </row>
@@ -6286,7 +6301,7 @@
         <v>32.359778917868567</v>
       </c>
       <c r="F39" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6650000000000009</v>
       </c>
       <c r="G39" s="33">
@@ -6294,11 +6309,11 @@
         <v>34.024778917868566</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8466099976098466E-2</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.888888888888886</v>
       </c>
     </row>
@@ -6314,7 +6329,7 @@
         <v>31.165645239518565</v>
       </c>
       <c r="F40" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6800000000000008</v>
       </c>
       <c r="G40" s="33">
@@ -6322,11 +6337,11 @@
         <v>32.845645239518568</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6059923631374972E-3</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.777777777777779</v>
       </c>
     </row>
@@ -6342,7 +6357,7 @@
         <v>29.897120333647258</v>
       </c>
       <c r="F41" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6950000000000007</v>
       </c>
       <c r="G41" s="33">
@@ -6350,11 +6365,11 @@
         <v>31.592120333647259</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5571557666401232E-3</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.666666666666664</v>
       </c>
     </row>
@@ -6370,7 +6385,7 @@
         <v>27.69228033454543</v>
       </c>
       <c r="F42" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7100000000000006</v>
       </c>
       <c r="G42" s="33">
@@ -6378,11 +6393,11 @@
         <v>29.402280334545431</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7778121635759789E-3</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.444444444444443</v>
       </c>
     </row>
@@ -6398,7 +6413,7 @@
         <v>26.255961623520534</v>
       </c>
       <c r="F43" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7250000000000005</v>
       </c>
       <c r="G43" s="33">
@@ -6406,11 +6421,11 @@
         <v>27.980961623520535</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12416582187639384</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.333333333333332</v>
       </c>
     </row>
@@ -6426,7 +6441,7 @@
         <v>23.449621292778104</v>
       </c>
       <c r="F44" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7400000000000004</v>
       </c>
       <c r="G44" s="33">
@@ -6434,11 +6449,11 @@
         <v>25.189621292778106</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13390788467447373</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.555555555555554</v>
       </c>
     </row>
@@ -6454,7 +6469,7 @@
         <v>21.694857206695026</v>
       </c>
       <c r="F45" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7550000000000003</v>
       </c>
       <c r="G45" s="33">
@@ -6462,11 +6477,11 @@
         <v>23.449857206695025</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3577813063211895E-2</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.333333333333332</v>
       </c>
     </row>
@@ -6484,15 +6499,15 @@
         <v>18.224429212821313</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7700000000000002</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46:G48" si="7">E46+F46</f>
+        <f t="shared" ref="G46:G48" si="8">E46+F46</f>
         <v>19.994429212821313</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" ref="H46:H48" si="8">(E46-C46)^2</f>
+        <f t="shared" ref="H46:H48" si="9">(E46-C46)^2</f>
         <v>0</v>
       </c>
       <c r="I46" s="6"/>
@@ -6520,11 +6535,11 @@
         <v>1.7850000000000001</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.088830090007168</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I47" s="6"/>
@@ -6557,11 +6572,11 @@
         <v>1.8</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.2621182577231416</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I48" s="6"/>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -1,41 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HavirNAS\Documents\Tomek\pojazdy\Miata30\KnurDash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230D799-476D-489F-9412-E78AC20E1C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3A662F-CCD0-4CE5-9B63-876782EF8460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
-    <sheet name="pinouts" sheetId="4" r:id="rId2"/>
-    <sheet name="temp" sheetId="3" r:id="rId3"/>
-    <sheet name="pressure" sheetId="2" r:id="rId4"/>
+    <sheet name="Pinouts" sheetId="4" r:id="rId2"/>
+    <sheet name="Temp" sheetId="3" r:id="rId3"/>
+    <sheet name="Pressure" sheetId="2" r:id="rId4"/>
+    <sheet name="RotorTemp" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="polA">temp!$E$2</definedName>
-    <definedName name="polA2">temp!#REF!</definedName>
-    <definedName name="polB">temp!$F$2</definedName>
-    <definedName name="polB2">temp!#REF!</definedName>
-    <definedName name="polC">temp!$G$2</definedName>
-    <definedName name="polC2">temp!#REF!</definedName>
-    <definedName name="polD">temp!#REF!</definedName>
-    <definedName name="polE">temp!#REF!</definedName>
-    <definedName name="ppolA">pressure!$G$2</definedName>
-    <definedName name="ppolB">pressure!$H$2</definedName>
-    <definedName name="ppolC">pressure!$I$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">pinouts!$A$1:$AH$38</definedName>
-    <definedName name="PsiToBar">pressure!$B$2</definedName>
+    <definedName name="polA">Temp!$E$2</definedName>
+    <definedName name="polA2">Temp!#REF!</definedName>
+    <definedName name="polB">Temp!$F$2</definedName>
+    <definedName name="polB2">Temp!#REF!</definedName>
+    <definedName name="polC">Temp!$G$2</definedName>
+    <definedName name="polC2">Temp!#REF!</definedName>
+    <definedName name="polD">Temp!#REF!</definedName>
+    <definedName name="polE">Temp!#REF!</definedName>
+    <definedName name="ppolA">Pressure!$G$2</definedName>
+    <definedName name="ppolB">Pressure!$H$2</definedName>
+    <definedName name="ppolC">Pressure!$I$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Pinouts!$A$1:$AH$38</definedName>
+    <definedName name="PsiToBar">Pressure!$B$2</definedName>
+    <definedName name="ROTOR_A">RotorTemp!$C$14</definedName>
+    <definedName name="ROTOR_B">RotorTemp!$C$15</definedName>
     <definedName name="Rref">Calcs!$C$13</definedName>
     <definedName name="Rsensor">Calcs!$C$14</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">pressure!$G$2:$I$2</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">temp!$E$2:$G$2</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Pressure!$G$2:$I$2</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Temp!$E$2:$G$2</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
@@ -62,8 +65,8 @@
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">pressure!$M$36</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">temp!$H$50</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Pressure!$M$36</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Temp!$H$50</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
@@ -101,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="149">
   <si>
     <t>Vin</t>
   </si>
@@ -533,6 +536,21 @@
   </si>
   <si>
     <t>RESET BTN</t>
+  </si>
+  <si>
+    <t>V+</t>
+  </si>
+  <si>
+    <t>V-min</t>
+  </si>
+  <si>
+    <t>V-max</t>
+  </si>
+  <si>
+    <t>VtotalMin</t>
+  </si>
+  <si>
+    <t>VtotalMax</t>
   </si>
 </sst>
 </file>
@@ -954,7 +972,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>temp!$B$4:$B$48</c:f>
+              <c:f>Temp!$B$4:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
@@ -1098,7 +1116,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>temp!$E$4:$E$48</c:f>
+              <c:f>Temp!$E$4:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="45"/>
@@ -1276,7 +1294,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>temp!$B$8:$B$49</c:f>
+              <c:f>Temp!$B$8:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1408,7 +1426,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>temp!$C$8:$C$45</c:f>
+              <c:f>Temp!$C$8:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1775,7 +1793,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pressure!$B$5:$B$34</c:f>
+              <c:f>Pressure!$B$5:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1874,7 +1892,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pressure!$E$5:$E$34</c:f>
+              <c:f>Pressure!$E$5:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2007,7 +2025,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pressure!$B$5:$B$33</c:f>
+              <c:f>Pressure!$B$5:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2103,7 +2121,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pressure!$C$5:$C$33</c:f>
+              <c:f>Pressure!$C$5:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2393,6 +2411,443 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RotorTemp!$G$2:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RotorTemp!$H$2:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>312.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>562.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>687.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>812.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>937.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E46-46D3-A1F2-9C5DC5CD96D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="900711248"/>
+        <c:axId val="827917824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="900711248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827917824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="827917824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900711248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2434,6 +2889,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3505,6 +4000,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3863,6 +4874,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>110987</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EBBF35-5924-59C3-BD27-620160760155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4163,7 +5215,7 @@
   <dimension ref="B2:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4654,7 +5706,7 @@
   </sheetPr>
   <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -6703,8 +7755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B5F49D-8C3A-42CF-AA09-87F9A0902ABA}">
   <dimension ref="B1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7846,4 +8898,243 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66658717-C5D7-4239-91FE-70F1BC01BC7C}">
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <f>(C3/1000)*C5</f>
+        <v>0.188</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8">
+        <f>(C4/1000)*C5</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9">
+        <f>C2-C8</f>
+        <v>11.06</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>437.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10">
+        <f>C2-C7</f>
+        <v>11.811999999999999</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>687.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>-250</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>62.5</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>812.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3A662F-CCD0-4CE5-9B63-876782EF8460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E44054E-46AF-4AC1-A292-AC171036AA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
@@ -8905,7 +8905,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E44054E-46AF-4AC1-A292-AC171036AA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1563AE-3E64-4AFE-9B1C-04D65FF97EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
   <si>
     <t>Vin</t>
   </si>
@@ -551,6 +551,24 @@
   </si>
   <si>
     <t>VtotalMax</t>
+  </si>
+  <si>
+    <t>RotorTemp</t>
+  </si>
+  <si>
+    <t>1x1</t>
+  </si>
+  <si>
+    <t>3.3V RefV</t>
+  </si>
+  <si>
+    <t>1x3</t>
+  </si>
+  <si>
+    <t>BRO(-)</t>
+  </si>
+  <si>
+    <t>WHT(+)</t>
   </si>
 </sst>
 </file>
@@ -855,7 +873,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -900,6 +918,8 @@
     <xf numFmtId="1" fontId="6" fillId="13" borderId="10" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="10" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -5704,10 +5724,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q30"/>
+  <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6251,41 +6271,61 @@
       <c r="C23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="1" t="s">
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="9" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G31" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G28" s="9" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
         <v>136</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
         <v>137</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H34" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8904,7 +8944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66658717-C5D7-4239-91FE-70F1BC01BC7C}">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1563AE-3E64-4AFE-9B1C-04D65FF97EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77803A7D-E675-4970-981F-2C91615E0C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="ppolA">Pressure!$G$2</definedName>
     <definedName name="ppolB">Pressure!$H$2</definedName>
     <definedName name="ppolC">Pressure!$I$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Pinouts!$A$1:$AH$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Pinouts!$A$1:$AC$38</definedName>
     <definedName name="PsiToBar">Pressure!$B$2</definedName>
     <definedName name="ROTOR_A">RotorTemp!$C$14</definedName>
     <definedName name="ROTOR_B">RotorTemp!$C$15</definedName>
@@ -5721,13 +5721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFCC8DD-5DD0-4266-935E-E84E0B0CCB9F}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6331,9 +6328,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.31" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" fitToWidth="2" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToWidth="2" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="37" man="1"/>
+    <brk id="29" max="37" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77803A7D-E675-4970-981F-2C91615E0C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778512C1-740D-4B2E-9BAE-F521AA6D5750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="-28920" yWindow="2265" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
   <si>
     <t>Vin</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>WHT(+)</t>
+  </si>
+  <si>
+    <t>CAN CTRL SW</t>
   </si>
 </sst>
 </file>
@@ -5724,7 +5727,7 @@
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5846,11 +5849,16 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="L5" t="s">
+        <v>155</v>
+      </c>
       <c r="M5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="O5" s="23" t="s">
         <v>61</v>
       </c>
@@ -6095,12 +6103,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="N15" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>63</v>
-      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
       <c r="P15">
         <f t="shared" si="1"/>
         <v>28</v>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778512C1-740D-4B2E-9BAE-F521AA6D5750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C1B94-D05A-4BC2-B2A1-9ACA82DCF307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2265" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
   <si>
     <t>Vin</t>
   </si>
@@ -187,24 +187,6 @@
     <t>GPIO2</t>
   </si>
   <si>
-    <t>GPIO0</t>
-  </si>
-  <si>
-    <t>GPIO1</t>
-  </si>
-  <si>
-    <t>GPIO14</t>
-  </si>
-  <si>
-    <t>GPIO15</t>
-  </si>
-  <si>
-    <t>UART_TX</t>
-  </si>
-  <si>
-    <t>UART_RX</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -214,12 +196,6 @@
     <t>I2C1</t>
   </si>
   <si>
-    <t>I2C0</t>
-  </si>
-  <si>
-    <t>Alternate I2C</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -572,6 +548,24 @@
   </si>
   <si>
     <t>CAN CTRL SW</t>
+  </si>
+  <si>
+    <t>unused</t>
+  </si>
+  <si>
+    <t>CAN ctrl sw</t>
+  </si>
+  <si>
+    <t>IGN in</t>
+  </si>
+  <si>
+    <t>Global_EN</t>
+  </si>
+  <si>
+    <t>global_en</t>
+  </si>
+  <si>
+    <t>N/C</t>
   </si>
 </sst>
 </file>
@@ -638,7 +632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,8 +708,20 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -869,6 +875,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -876,7 +897,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -923,6 +944,17 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -4644,8 +4676,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>48283</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19709</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>199003</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4687,7 +4719,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>76818</xdr:colOff>
+      <xdr:colOff>76819</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>28898</xdr:rowOff>
     </xdr:to>
@@ -5369,45 +5401,45 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>2000</v>
@@ -5465,7 +5497,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>465</v>
@@ -5531,49 +5563,49 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C26" s="38">
         <f>Vin*1000-C25</f>
         <v>3148</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -5653,19 +5685,19 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C30" s="40">
         <f>polA+polB*LN(C29)+polC*(LN(C29))^3</f>
         <v>100.2536849560461</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C31" s="40">
         <f>ppolA+ppolB*C29+ppolC*C29^2</f>
@@ -5677,18 +5709,18 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -5727,7 +5759,7 @@
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5736,7 +5768,7 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.140625" customWidth="1"/>
@@ -5747,188 +5779,191 @@
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9">
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M3">
         <f>M2+2</f>
         <v>3</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P3">
         <f>P2+2</f>
         <v>4</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9">
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M21" si="0">M3+2</f>
         <v>5</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P21" si="1">P3+2</f>
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="50" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
       <c r="F6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7">
@@ -5937,64 +5972,61 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="50" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>42</v>
+      <c r="G8" s="9">
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="Q8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
+      <c r="G9" s="9">
+        <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9">
@@ -6003,20 +6035,14 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>45</v>
+      <c r="G10" s="9">
+        <v>15</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
@@ -6030,14 +6056,14 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
+        <v>148</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
@@ -6051,14 +6077,14 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
+        <v>148</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
@@ -6097,7 +6123,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
@@ -6110,7 +6136,7 @@
         <v>28</v>
       </c>
       <c r="Q15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -6127,16 +6153,16 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
@@ -6151,19 +6177,19 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
@@ -6178,19 +6204,19 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
@@ -6205,19 +6231,19 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
@@ -6232,19 +6258,19 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
@@ -6259,75 +6285,75 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G31" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G32" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -7710,10 +7736,10 @@
     </row>
     <row r="51" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M51" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q51">
         <v>9</v>
@@ -7724,7 +7750,7 @@
     </row>
     <row r="52" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L52" s="31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M52">
         <v>100</v>
@@ -7742,7 +7768,7 @@
     </row>
     <row r="53" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L53" s="31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M53">
         <v>125</v>
@@ -7760,7 +7786,7 @@
     </row>
     <row r="54" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L54" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M54">
         <v>135</v>
@@ -7772,7 +7798,7 @@
     </row>
     <row r="56" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L56" s="31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M56">
         <v>135</v>
@@ -7848,7 +7874,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -8813,13 +8839,13 @@
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="K40" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L40">
         <v>5.5</v>
@@ -8832,7 +8858,7 @@
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="K41" s="31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L41" s="3">
         <v>5</v>
@@ -8845,7 +8871,7 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="K42" s="31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L42">
         <v>1.3</v>
@@ -8858,7 +8884,7 @@
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="K43" s="31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L43">
         <v>0.8</v>
@@ -8959,12 +8985,12 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -8981,7 +9007,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -8998,7 +9024,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -9040,7 +9066,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <f>(C3/1000)*C5</f>
@@ -9055,7 +9081,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <f>(C4/1000)*C5</f>
@@ -9070,7 +9096,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <f>C2-C8</f>
@@ -9085,7 +9111,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <f>C2-C7</f>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C1B94-D05A-4BC2-B2A1-9ACA82DCF307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71332797-886D-4214-8677-7E38644246B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2265" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="28110" windowHeight="16440" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
   <si>
     <t>Vin</t>
   </si>
@@ -319,12 +319,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>vmin</t>
-  </si>
-  <si>
-    <t>vmax</t>
-  </si>
-  <si>
     <t>Imin</t>
   </si>
   <si>
@@ -566,6 +560,21 @@
   </si>
   <si>
     <t>N/C</t>
+  </si>
+  <si>
+    <t>Brake Caliper T</t>
+  </si>
+  <si>
+    <t>Imin mA</t>
+  </si>
+  <si>
+    <t>Imax mA</t>
+  </si>
+  <si>
+    <t>vmin V</t>
+  </si>
+  <si>
+    <t>vmax V</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -949,8 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -5269,8 +5277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3140C9DF-2692-47E8-B5FD-96C592C7023B}">
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -5361,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -5372,7 +5380,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>1200</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -5382,16 +5390,16 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
-        <f>Vin*Rsensor/(Rsensor+Rref)</f>
-        <v>1.24125</v>
+      <c r="C15" s="3">
+        <f>Vin*Rsensor/(Rsensor+Rref)*1000</f>
+        <v>20.333929636255217</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <f>Vout*2</f>
-        <v>2.4824999999999999</v>
+        <v>40.667859272510434</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
@@ -5410,31 +5418,31 @@
         <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -5452,31 +5460,31 @@
       </c>
       <c r="F21" s="2">
         <f>Vin/($C21+D21)*1000</f>
-        <v>1.6386138613861385</v>
+        <v>1.6336633663366336</v>
       </c>
       <c r="G21" s="2">
         <f>Vin/($C21+E21)*1000</f>
-        <v>0.73555555555555563</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="H21" s="2">
         <f>D21*F21/1000</f>
-        <v>3.2772277227722767E-2</v>
+        <v>3.2673267326732668E-2</v>
       </c>
       <c r="I21" s="2">
         <f>E21*G21/1000</f>
-        <v>1.8388888888888892</v>
+        <v>1.8333333333333335</v>
       </c>
       <c r="J21" s="4">
         <f>H21*1000</f>
-        <v>32.772277227722768</v>
+        <v>32.67326732673267</v>
       </c>
       <c r="K21" s="4">
         <f>I21*1000</f>
-        <v>1838.8888888888891</v>
+        <v>1833.3333333333335</v>
       </c>
       <c r="L21" s="34">
         <f>Vin*G21/1000</f>
-        <v>2.4346888888888891E-3</v>
+        <v>2.4199999999999998E-3</v>
       </c>
       <c r="M21">
         <f>$C21+D21</f>
@@ -5510,31 +5518,31 @@
       </c>
       <c r="F22" s="2">
         <f>Vin/($C22+D22)*1000</f>
-        <v>6.9978858350951381</v>
+        <v>6.9767441860465116</v>
       </c>
       <c r="G22" s="2">
         <f>Vin/($C22+E22)*1000</f>
-        <v>4.977443609022556</v>
+        <v>4.9624060150375939</v>
       </c>
       <c r="H22" s="2">
         <f>D22*F22/1000</f>
-        <v>5.5983086680761102E-2</v>
+        <v>5.5813953488372092E-2</v>
       </c>
       <c r="I22" s="2">
         <f>E22*G22/1000</f>
-        <v>0.9954887218045112</v>
+        <v>0.99248120300751885</v>
       </c>
       <c r="J22" s="4">
         <f>H22*1000</f>
-        <v>55.983086680761105</v>
+        <v>55.813953488372093</v>
       </c>
       <c r="K22" s="4">
         <f>I22*1000</f>
-        <v>995.48872180451121</v>
+        <v>992.48120300751884</v>
       </c>
       <c r="L22" s="34">
         <f>Vin*G22/1000</f>
-        <v>1.6475338345864659E-2</v>
+        <v>1.6375939849624061E-2</v>
       </c>
       <c r="M22">
         <f>$C22+D22</f>
@@ -5561,51 +5569,109 @@
         <v>191.62855996791015</v>
       </c>
     </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23">
+        <v>20000</v>
+      </c>
+      <c r="D23">
+        <v>122</v>
+      </c>
+      <c r="E23">
+        <v>32000</v>
+      </c>
+      <c r="F23" s="2">
+        <f>Vin/($C23+D23)*1000</f>
+        <v>0.16399960242520623</v>
+      </c>
+      <c r="G23" s="2">
+        <f>Vin/($C23+E23)*1000</f>
+        <v>6.3461538461538458E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <f>D23*F23/1000</f>
+        <v>2.0007951495875156E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <f>E23*G23/1000</f>
+        <v>2.0307692307692307</v>
+      </c>
+      <c r="J23" s="4">
+        <f>H23*1000</f>
+        <v>20.007951495875158</v>
+      </c>
+      <c r="K23" s="4">
+        <f>I23*1000</f>
+        <v>2030.7692307692307</v>
+      </c>
+      <c r="L23" s="34">
+        <f>Vin*G23/1000</f>
+        <v>2.0942307692307691E-4</v>
+      </c>
+      <c r="M23">
+        <f>$C23+D23</f>
+        <v>20122</v>
+      </c>
+      <c r="N23">
+        <f>$C23+E23</f>
+        <v>52000</v>
+      </c>
+      <c r="P23">
+        <f>2/M23</f>
+        <v>9.9393698439518936E-5</v>
+      </c>
+      <c r="Q23">
+        <f>1/P23</f>
+        <v>10061</v>
+      </c>
+    </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" s="38">
         <f>Vin*1000-C25</f>
-        <v>3148</v>
+        <v>3138</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -5637,7 +5703,7 @@
       </c>
       <c r="C28" s="38">
         <f>C26/C27</f>
-        <v>1.5740000000000001</v>
+        <v>1.569</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -5677,7 +5743,7 @@
       </c>
       <c r="C29" s="39">
         <f>C25/C28</f>
-        <v>102.92249047013976</v>
+        <v>103.25047801147228</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -5685,23 +5751,23 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="40">
         <f>polA+polB*LN(C29)+polC*(LN(C29))^3</f>
-        <v>100.2536849560461</v>
+        <v>100.14530084854968</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="40">
         <f>ppolA+ppolB*C29+ppolC*C29^2</f>
-        <v>2.6771651558268528</v>
+        <v>2.6878289098074597</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -5709,18 +5775,18 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -5758,8 +5824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFCC8DD-5DD0-4266-935E-E84E0B0CCB9F}">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5779,7 +5845,7 @@
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -5835,7 +5901,7 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
@@ -5869,7 +5935,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
@@ -5882,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -5910,13 +5976,13 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L6" t="s">
         <v>63</v>
@@ -5940,7 +6006,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="50" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
@@ -5972,7 +6038,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
@@ -6005,21 +6071,21 @@
         <v>14</v>
       </c>
       <c r="Q8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="51" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="9">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
@@ -6036,9 +6102,9 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="50" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="9">
@@ -6057,13 +6123,13 @@
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="52" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
@@ -6078,13 +6144,13 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="53" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
@@ -6153,16 +6219,16 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
@@ -6177,19 +6243,19 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
@@ -6210,13 +6276,13 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
@@ -6231,16 +6297,16 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>33</v>
@@ -6258,19 +6324,19 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
         <v>105</v>
       </c>
-      <c r="G21" t="s">
-        <v>107</v>
-      </c>
       <c r="H21" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
@@ -6285,38 +6351,38 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -6326,7 +6392,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G31" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
@@ -6337,23 +6403,23 @@
         <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6370,8 +6436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26896A59-DB25-45D2-BE1C-6FD458C3B096}">
   <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7736,10 +7802,10 @@
     </row>
     <row r="51" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q51">
         <v>9</v>
@@ -7750,7 +7816,7 @@
     </row>
     <row r="52" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L52" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M52">
         <v>100</v>
@@ -7768,7 +7834,7 @@
     </row>
     <row r="53" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L53" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M53">
         <v>125</v>
@@ -7786,7 +7852,7 @@
     </row>
     <row r="54" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L54" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M54">
         <v>135</v>
@@ -7798,7 +7864,7 @@
     </row>
     <row r="56" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L56" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M56">
         <v>135</v>
@@ -7874,7 +7940,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -8839,13 +8905,13 @@
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="K40" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L40">
         <v>5.5</v>
@@ -8858,7 +8924,7 @@
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="K41" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L41" s="3">
         <v>5</v>
@@ -8871,7 +8937,7 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="K42" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L42">
         <v>1.3</v>
@@ -8884,7 +8950,7 @@
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="K43" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L43">
         <v>0.8</v>
@@ -8972,7 +9038,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8985,12 +9051,12 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -9007,7 +9073,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -9024,7 +9090,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -9066,7 +9132,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <f>(C3/1000)*C5</f>
@@ -9081,7 +9147,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <f>(C4/1000)*C5</f>
@@ -9096,7 +9162,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <f>C2-C8</f>
@@ -9111,7 +9177,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <f>C2-C7</f>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71332797-886D-4214-8677-7E38644246B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4020AFC7-A28A-4183-8065-786F5CE8B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="28110" windowHeight="16440" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -5277,8 +5277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3140C9DF-2692-47E8-B5FD-96C592C7023B}">
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5459,27 +5459,27 @@
         <v>2500</v>
       </c>
       <c r="F21" s="2">
-        <f>Vin/($C21+D21)*1000</f>
+        <f t="shared" ref="F21:G23" si="0">Vin/($C21+D21)*1000</f>
         <v>1.6336633663366336</v>
       </c>
       <c r="G21" s="2">
-        <f>Vin/($C21+E21)*1000</f>
+        <f t="shared" si="0"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="H21" s="2">
-        <f>D21*F21/1000</f>
+        <f t="shared" ref="H21:I23" si="1">D21*F21/1000</f>
         <v>3.2673267326732668E-2</v>
       </c>
       <c r="I21" s="2">
-        <f>E21*G21/1000</f>
+        <f t="shared" si="1"/>
         <v>1.8333333333333335</v>
       </c>
       <c r="J21" s="4">
-        <f>H21*1000</f>
+        <f t="shared" ref="J21:K23" si="2">H21*1000</f>
         <v>32.67326732673267</v>
       </c>
       <c r="K21" s="4">
-        <f>I21*1000</f>
+        <f t="shared" si="2"/>
         <v>1833.3333333333335</v>
       </c>
       <c r="L21" s="34">
@@ -5487,11 +5487,11 @@
         <v>2.4199999999999998E-3</v>
       </c>
       <c r="M21">
-        <f>$C21+D21</f>
+        <f t="shared" ref="M21:N23" si="3">$C21+D21</f>
         <v>2020</v>
       </c>
       <c r="N21">
-        <f>$C21+E21</f>
+        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
       <c r="P21">
@@ -5517,27 +5517,27 @@
         <v>200</v>
       </c>
       <c r="F22" s="2">
-        <f>Vin/($C22+D22)*1000</f>
+        <f t="shared" si="0"/>
         <v>6.9767441860465116</v>
       </c>
       <c r="G22" s="2">
-        <f>Vin/($C22+E22)*1000</f>
+        <f t="shared" si="0"/>
         <v>4.9624060150375939</v>
       </c>
       <c r="H22" s="2">
-        <f>D22*F22/1000</f>
+        <f t="shared" si="1"/>
         <v>5.5813953488372092E-2</v>
       </c>
       <c r="I22" s="2">
-        <f>E22*G22/1000</f>
+        <f t="shared" si="1"/>
         <v>0.99248120300751885</v>
       </c>
       <c r="J22" s="4">
-        <f>H22*1000</f>
+        <f t="shared" si="2"/>
         <v>55.813953488372093</v>
       </c>
       <c r="K22" s="4">
-        <f>I22*1000</f>
+        <f t="shared" si="2"/>
         <v>992.48120300751884</v>
       </c>
       <c r="L22" s="34">
@@ -5545,11 +5545,11 @@
         <v>1.6375939849624061E-2</v>
       </c>
       <c r="M22">
-        <f>$C22+D22</f>
+        <f t="shared" si="3"/>
         <v>473</v>
       </c>
       <c r="N22">
-        <f>$C22+E22</f>
+        <f t="shared" si="3"/>
         <v>665</v>
       </c>
       <c r="P22">
@@ -5583,27 +5583,27 @@
         <v>32000</v>
       </c>
       <c r="F23" s="2">
-        <f>Vin/($C23+D23)*1000</f>
+        <f t="shared" si="0"/>
         <v>0.16399960242520623</v>
       </c>
       <c r="G23" s="2">
-        <f>Vin/($C23+E23)*1000</f>
+        <f t="shared" si="0"/>
         <v>6.3461538461538458E-2</v>
       </c>
       <c r="H23" s="2">
-        <f>D23*F23/1000</f>
+        <f t="shared" si="1"/>
         <v>2.0007951495875156E-2</v>
       </c>
       <c r="I23" s="2">
-        <f>E23*G23/1000</f>
+        <f t="shared" si="1"/>
         <v>2.0307692307692307</v>
       </c>
       <c r="J23" s="4">
-        <f>H23*1000</f>
+        <f t="shared" si="2"/>
         <v>20.007951495875158</v>
       </c>
       <c r="K23" s="4">
-        <f>I23*1000</f>
+        <f t="shared" si="2"/>
         <v>2030.7692307692307</v>
       </c>
       <c r="L23" s="34">
@@ -5611,11 +5611,11 @@
         <v>2.0942307692307691E-4</v>
       </c>
       <c r="M23">
-        <f>$C23+D23</f>
+        <f t="shared" si="3"/>
         <v>20122</v>
       </c>
       <c r="N23">
-        <f>$C23+E23</f>
+        <f t="shared" si="3"/>
         <v>52000</v>
       </c>
       <c r="P23">
@@ -6436,8 +6436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26896A59-DB25-45D2-BE1C-6FD458C3B096}">
   <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,7 +7889,7 @@
   <dimension ref="B1:M64"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9038,7 +9038,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4020AFC7-A28A-4183-8065-786F5CE8B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D939AE-2449-4D28-AE7D-D236980FF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
@@ -18,8 +18,13 @@
     <sheet name="Temp" sheetId="3" r:id="rId3"/>
     <sheet name="Pressure" sheetId="2" r:id="rId4"/>
     <sheet name="RotorTemp" sheetId="5" r:id="rId5"/>
+    <sheet name="CaliperTemp_NTC100K3950" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="NTC3950_A">CaliperTemp_NTC100K3950!$A$2</definedName>
+    <definedName name="NTC3950_B">CaliperTemp_NTC100K3950!$B$2</definedName>
+    <definedName name="NTC3950_C">CaliperTemp_NTC100K3950!$C$2</definedName>
+    <definedName name="NTC3950_D">CaliperTemp_NTC100K3950!$D$2</definedName>
     <definedName name="polA">Temp!$E$2</definedName>
     <definedName name="polA2">Temp!#REF!</definedName>
     <definedName name="polB">Temp!$F$2</definedName>
@@ -37,58 +42,85 @@
     <definedName name="ROTOR_B">RotorTemp!$C$15</definedName>
     <definedName name="Rref">Calcs!$C$13</definedName>
     <definedName name="Rsensor">Calcs!$C$14</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">CaliperTemp_NTC100K3950!$A$2:$D$2</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Pressure!$G$2:$I$2</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Temp!$E$2:$G$2</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">CaliperTemp_NTC100K3950!$F$4</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Pressure!$M$36</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Temp!$H$50</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="Vin">Calcs!$C$12</definedName>
@@ -104,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
   <si>
     <t>Vin</t>
   </si>
@@ -576,6 +608,9 @@
   <si>
     <t>vmax V</t>
   </si>
+  <si>
+    <t>DegC</t>
+  </si>
 </sst>
 </file>
 
@@ -906,7 +941,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -963,6 +998,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -2911,6 +2948,3299 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NTC Spec Sheet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CaliperTemp_NTC100K3950!$A$5:$A$947</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="943"/>
+                <c:pt idx="0">
+                  <c:v>32205.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31074.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28905.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25915.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24109.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23256.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22438.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21653.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20174.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19477.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18808.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18166.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16945.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16365.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15808.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15273.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14281.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13820.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13377.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12950.699999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12540</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12134.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11744.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11369.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10660</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10324.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9689.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9389.3000000000011</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8817.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8544.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8281.5999999999985</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8028.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7784</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7553.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7331.5999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7117.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6910</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6710</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6526.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6349</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6177.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6010.9000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5683.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5522.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5366.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5215.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5070</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4929.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4792.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4533.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4410</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4290.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4175.0999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4063.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3954.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3635.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3533.7999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3435.2999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3340</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3172.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3092.7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3015.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2863.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2789.2999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2717.2999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2647.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2580</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2514.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2450.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2389</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2329.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2271</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2213.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2157.7000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2103.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1951.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1813.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1731.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1694.7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1658.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1623.3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1481.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1447.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1381.2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1349.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1318.4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1288.3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1230.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1201.8999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1174.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1147.8999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1095.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1069.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1044.8999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1020.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>975.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>934.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>915.1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>854.7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>834.9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>815.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>780.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>764.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>733.8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>702.9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>687.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>672.1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>657.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>630.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>617.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>605.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>593.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>571.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>561.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>551.9</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>542.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>522.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>512.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>502.2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>492.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>473.3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>463.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>454.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>445.7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>428.4</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>411.8</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>403.8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>388.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>373.90000000000003</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>366.8</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>353.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>340.3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>334.1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>316.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>310.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>299.3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>288.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>283.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>278.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>273.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>268.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>264.2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>259.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>255.1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>250.7</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>246.4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>242.2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>226.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>222.3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>218.6</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>211.4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>207.9</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>197.8</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>194.6</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>191.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>188.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>185.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>182.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>179.4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>173.7</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>165.6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>160.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>157.9</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>153.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>150.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>148.4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>146.1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>143.9</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>139.6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>135.4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>133.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>131.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>129.5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>125.7</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>123.8</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>116.8</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>115.1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>110.2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>108.60000000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>107.1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>105.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CaliperTemp_NTC100K3950!$B$5:$B$947</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="943"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA5F-43C3-8D97-763809B5028A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Equation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CaliperTemp_NTC100K3950!$A$5:$A$3000</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2996"/>
+                <c:pt idx="0">
+                  <c:v>32205.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31074.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28905.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25915.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24109.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23256.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22438.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21653.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20174.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19477.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18808.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18166.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16945.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16365.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15808.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15273.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14281.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13820.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13377.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12950.699999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12540</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12134.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11744.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11369.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10660</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10324.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9689.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9389.3000000000011</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8817.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8544.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8281.5999999999985</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8028.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7784</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7553.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7331.5999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7117.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6910</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6710</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6526.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6349</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6177.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6010.9000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5683.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5522.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5366.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5215.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5070</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4929.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4792.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4533.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4410</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4290.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4175.0999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4063.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3954.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3635.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3533.7999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3435.2999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3340</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3172.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3092.7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3015.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2863.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2789.2999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2717.2999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2647.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2580</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2514.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2450.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2389</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2329.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2271</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2213.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2157.7000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2103.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1951.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1813.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1731.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1694.7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1658.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1623.3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1481.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1447.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1381.2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1349.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1318.4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1288.3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1230.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1201.8999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1174.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1147.8999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1095.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1069.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1044.8999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1020.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>975.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>934.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>915.1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>854.7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>834.9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>815.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>780.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>764.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>733.8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>702.9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>687.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>672.1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>657.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>630.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>617.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>605.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>593.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>571.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>561.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>551.9</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>542.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>522.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>512.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>502.2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>492.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>473.3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>463.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>454.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>445.7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>428.4</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>411.8</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>403.8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>388.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>373.90000000000003</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>366.8</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>353.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>340.3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>334.1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>316.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>310.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>299.3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>288.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>283.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>278.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>273.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>268.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>264.2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>259.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>255.1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>250.7</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>246.4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>242.2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>226.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>222.3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>218.6</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>211.4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>207.9</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>197.8</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>194.6</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>191.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>188.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>185.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>182.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>179.4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>173.7</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>165.6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>160.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>157.9</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>153.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>150.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>148.4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>146.1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>143.9</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>139.6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>135.4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>133.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>131.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>129.5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>125.7</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>123.8</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>116.8</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>115.1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>110.2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>108.60000000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>107.1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>105.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CaliperTemp_NTC100K3950!$D$5:$D$3000</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2996"/>
+                <c:pt idx="0">
+                  <c:v>52.42263514741154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.436866388510282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.447559871314979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.498297015549156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.545727522509139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.589893306045894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.630839718979075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.668610243007379</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.718148797516506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.764750045833409</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.808482520599398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.8493946864279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.887504707873347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.92760931463954</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.965186290233532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.000104808006711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.032638315126519</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.06268908130798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.111289769013496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.157623496035541</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.201778634052431</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74.24375508785073</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.283441029901752</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76.288699239726867</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77.292149861223209</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>78.29323135048179</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.292569552173603</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80.289727853003996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81.310170639729478</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.328703720134342</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83.345218396582993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.360243414781053</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.3735771983917</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86.386908567847769</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87.398426852461853</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>88.408430482536971</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>89.416995757482397</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90.423928958363206</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91.444128544065393</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92.463146850715532</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93.480560385251124</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>94.496364294271899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95.511049757081594</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.500750287438052</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97.489047356281048</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98.475421093688055</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99.461279413467224</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100.44528634122642</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>101.37792068728805</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>102.30891147406152</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>103.23868737882165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104.16721503674182</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>105.09391921362214</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106.08583894752019</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>107.0759537574659</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>108.06541855050142</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>109.05426993102722</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>110.04122458475322</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>111.02772937885103</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>112.01327703047596</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>112.99734411896122</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>113.98095899246721</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>114.96291317662755</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>115.9435601327317</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>116.92249354399922</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>117.90108502206036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>118.87818531894831</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>119.85443584463934</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>120.90185123982465</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>121.94766540516781</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>122.99351281654089</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>124.03807701671758</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>125.08214763785134</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>126.04282628040218</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>127.00219884747975</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>127.96037449085588</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>128.91751964173432</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>129.87386347055653</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>130.8775680067273</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>131.87854638019499</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>132.88110836104332</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>133.88140819031898</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>134.88116730301141</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>135.88082372137515</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>136.88091134930863</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>137.87878508910532</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>138.87659100694191</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>139.87330099238736</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>140.88931905070041</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>141.90505685284751</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>142.92133582139837</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>143.93519685500706</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>144.94941883124062</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>145.94638886517947</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>146.94281651648902</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>147.9398921589289</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>148.93445700566588</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>149.93000089787938</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>150.82770120872243</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>151.72668227211108</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>152.62134782385277</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>153.51841636273917</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>154.41213416256301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>155.40178614169258</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>156.39147189823166</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>157.37745280751579</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>158.36443755896437</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>159.35165335139726</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>160.35690557747216</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>161.35848907377084</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>162.3617751267131</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>163.36266175546154</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>164.36354568350868</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>165.37779731011474</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>166.39469731413749</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>167.40982848579102</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>168.42216684614203</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>169.43457872581735</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>170.49506478264573</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>171.55654781415842</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>172.61814163756139</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>173.67889018170803</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>174.73776469524711</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>175.71894662569923</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>176.69681820434397</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>177.67529496902932</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>178.65369752620938</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>179.62614371216313</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>180.72374899312643</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>181.81450269498248</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>182.90803121873464</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>183.99783655516725</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>185.08854963571844</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>186.07008849563792</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>187.05126232757868</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>188.03135809485079</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>189.0096162845299</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>189.98522954286869</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>191.07364033991996</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>192.15649948277445</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>193.23967817384516</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>194.31490511861139</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>195.3958840034868</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>196.38086477230439</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>197.36567314168832</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>198.34965147299238</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>199.33210037613065</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>200.31227748454427</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>201.20201381867165</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>202.08401428672562</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>202.96643336863968</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>203.84885304497703</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>204.72135267892926</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>205.72816130883137</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>206.73913005630641</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>207.74374142355262</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>208.74090024459892</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>209.74009469439</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>210.78440905531045</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>211.82067196920798</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>212.85903059922154</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>213.89895616418471</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>214.9279160882877</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>215.96895619153801</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>217.0097418610967</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>218.04958667430992</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>219.08776134711022</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>220.12349251108444</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>221.15596160459768</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>222.18430390187348</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>223.19323716235016</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>224.22491373295011</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>225.23521471815263</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>226.25280930848146</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>227.27760902237668</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>228.29346227010785</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>229.29918596958316</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>230.3103001523169</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>231.3266050101675</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>232.3478829256249</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>233.35601743014598</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>234.36785291234366</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>235.38308635650813</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>236.38233612221768</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>237.38349583145671</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>238.40603993070522</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>239.41022322046697</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>240.41505788293347</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>241.42006932084405</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>242.42475525762381</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>243.42858490628279</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>244.4309981794467</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>245.43140495024798</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>246.42918437465011</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>247.42368428664051</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>248.43862962138354</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>249.42497642681673</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>250.43130807146727</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>251.4065281733148</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>252.42760568852947</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>253.41593831500091</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>254.39658005867585</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>255.39667723344829</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>256.38833612354836</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>257.37059597457488</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>258.37220228728239</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>259.36352976944636</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>260.34352044540259</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>261.34259743663199</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>262.3293140674337</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>263.30251144472197</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>264.29436496345659</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>265.27152255104681</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>266.26738147087553</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>267.24727681681014</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>268.20987773534068</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>269.1904670636161</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>270.18967691858552</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>271.17009834356566</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>272.16902779233635</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>273.14760225338432</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>274.10427375605337</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>275.07841193882467</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>276.07061625455913</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>277.03901402460417</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>278.02516463794251</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>278.98561484014988</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>279.96342942937804</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>280.91353806365419</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>281.88054421327905</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>282.86501255817274</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>283.81937808190736</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>284.79065675289058</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>285.72954993283008</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>286.73545439202616</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>287.65670114112407</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>288.64604499569123</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>289.59986334542259</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>290.57030868163361</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>291.50259781805011</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>292.45068356454397</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>293.41506852530642</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>294.39627899857845</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>295.33563477837231</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>296.2908645210083</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>297.26247194768848</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>298.18869684072882</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>299.13023411956874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CA5F-43C3-8D97-763809B5028A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1646805855"/>
+        <c:axId val="1646806271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1646805855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646806271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1646806271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646805855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2992,6 +6322,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4579,6 +7949,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4978,6 +8864,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>297601</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101198</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF697D19-302E-48C7-B1EB-C59D492E1925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5277,9 +9206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3140C9DF-2692-47E8-B5FD-96C592C7023B}">
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6436,8 +10363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26896A59-DB25-45D2-BE1C-6FD458C3B096}">
   <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9270,4 +13197,4032 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FEE32D-F3D0-48BC-93D5-24E0891CB1F5}">
+  <dimension ref="A1:F252"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>761.88616737004304</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-137.69868567406144</v>
+      </c>
+      <c r="C2" s="35">
+        <v>9.5067552553605665</v>
+      </c>
+      <c r="D2" s="32">
+        <v>-0.27222557461004249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="55">
+        <f>SUM(F5:F252)</f>
+        <v>27.870174821385483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="54">
+        <v>32205.9</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A5)+NTC3950_C*(LN(A5))^2+NTC3950_D*(LN(A5))^3</f>
+        <v>52.42263514741154</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F16" si="0">(D5-B5)^2</f>
+        <v>0.33335017300449366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
+        <v>31074.799999999999</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A6)+NTC3950_C*(LN(A6))^2+NTC3950_D*(LN(A6))^3</f>
+        <v>53.436866388510282</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31711946438945277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
+        <v>29990</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A7)+NTC3950_C*(LN(A7))^2+NTC3950_D*(LN(A7))^3</f>
+        <v>54.447559871314979</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30519009578152223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="54">
+        <v>28905.3</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A8)+NTC3950_C*(LN(A8))^2+NTC3950_D*(LN(A8))^3</f>
+        <v>55.498297015549156</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25170588460688409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
+        <v>27866</v>
+      </c>
+      <c r="B9">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A9)+NTC3950_C*(LN(A9))^2+NTC3950_D*(LN(A9))^3</f>
+        <v>56.545727522509139</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20636348380568448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="54">
+        <v>26870</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A10)+NTC3950_C*(LN(A10))^2+NTC3950_D*(LN(A10))^3</f>
+        <v>57.589893306045894</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16818750042596642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="54">
+        <v>25915.3</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A11)+NTC3950_C*(LN(A11))^2+NTC3950_D*(LN(A11))^3</f>
+        <v>58.630839718979075</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13627931308344809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
+        <v>25000</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A12)+NTC3950_C*(LN(A12))^2+NTC3950_D*(LN(A12))^3</f>
+        <v>59.668610243007379</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10981917103962853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="54">
+        <v>24109.9</v>
+      </c>
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A13)+NTC3950_C*(LN(A13))^2+NTC3950_D*(LN(A13))^3</f>
+        <v>60.718148797516506</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9440100341391817E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="54">
+        <v>23256.5</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A14)+NTC3950_C*(LN(A14))^2+NTC3950_D*(LN(A14))^3</f>
+        <v>61.764750045833409</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>5.534254093538301E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="54">
+        <v>22438.1</v>
+      </c>
+      <c r="B15">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A15)+NTC3950_C*(LN(A15))^2+NTC3950_D*(LN(A15))^3</f>
+        <v>62.808482520599398</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6678944915960028E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="54">
+        <v>21653.1</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A16)+NTC3950_C*(LN(A16))^2+NTC3950_D*(LN(A16))^3</f>
+        <v>63.8493946864279</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2681960476150686E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
+        <v>20900</v>
+      </c>
+      <c r="B17">
+        <v>65</v>
+      </c>
+      <c r="D17" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A17)+NTC3950_C*(LN(A17))^2+NTC3950_D*(LN(A17))^3</f>
+        <v>64.887504707873347</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ref="F17:F80" si="1">(D17-B17)^2</f>
+        <v>1.2655190750660919E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
+        <v>20174.099999999999</v>
+      </c>
+      <c r="B18">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A18)+NTC3950_C*(LN(A18))^2+NTC3950_D*(LN(A18))^3</f>
+        <v>65.92760931463954</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2404113269571666E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="54">
+        <v>19477.399999999998</v>
+      </c>
+      <c r="B19">
+        <v>67</v>
+      </c>
+      <c r="D19" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A19)+NTC3950_C*(LN(A19))^2+NTC3950_D*(LN(A19))^3</f>
+        <v>66.965186290233532</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2119943877038403E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="54">
+        <v>18808.7</v>
+      </c>
+      <c r="B20">
+        <v>68</v>
+      </c>
+      <c r="D20" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A20)+NTC3950_C*(LN(A20))^2+NTC3950_D*(LN(A20))^3</f>
+        <v>68.000104808006711</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0984718270681634E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="54">
+        <v>18166.599999999999</v>
+      </c>
+      <c r="B21">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A21)+NTC3950_C*(LN(A21))^2+NTC3950_D*(LN(A21))^3</f>
+        <v>69.032638315126519</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0652596142979619E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="54">
+        <v>17550</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="D22" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A22)+NTC3950_C*(LN(A22))^2+NTC3950_D*(LN(A22))^3</f>
+        <v>70.06268908130798</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9299209152384874E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="54">
+        <v>16945.900000000001</v>
+      </c>
+      <c r="B23">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A23)+NTC3950_C*(LN(A23))^2+NTC3950_D*(LN(A23))^3</f>
+        <v>71.111289769013496</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2385412687077237E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="54">
+        <v>16365.9</v>
+      </c>
+      <c r="B24">
+        <v>72</v>
+      </c>
+      <c r="D24" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A24)+NTC3950_C*(LN(A24))^2+NTC3950_D*(LN(A24))^3</f>
+        <v>72.157623496035541</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4845166502466119E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="54">
+        <v>15808.9</v>
+      </c>
+      <c r="B25">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A25)+NTC3950_C*(LN(A25))^2+NTC3950_D*(LN(A25))^3</f>
+        <v>73.201778634052431</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0714617160064873E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="54">
+        <v>15273.9</v>
+      </c>
+      <c r="B26">
+        <v>74</v>
+      </c>
+      <c r="D26" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A26)+NTC3950_C*(LN(A26))^2+NTC3950_D*(LN(A26))^3</f>
+        <v>74.24375508785073</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>5.9416542853116865E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="54">
+        <v>14760</v>
+      </c>
+      <c r="B27">
+        <v>75</v>
+      </c>
+      <c r="D27" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A27)+NTC3950_C*(LN(A27))^2+NTC3950_D*(LN(A27))^3</f>
+        <v>75.283441029901752</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>8.033881743176588E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="54">
+        <v>14281.3</v>
+      </c>
+      <c r="B28">
+        <v>76</v>
+      </c>
+      <c r="D28" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A28)+NTC3950_C*(LN(A28))^2+NTC3950_D*(LN(A28))^3</f>
+        <v>76.288699239726867</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3347251018871055E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="54">
+        <v>13820.6</v>
+      </c>
+      <c r="B29">
+        <v>77</v>
+      </c>
+      <c r="D29" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A29)+NTC3950_C*(LN(A29))^2+NTC3950_D*(LN(A29))^3</f>
+        <v>77.292149861223209</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5351541412739998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="54">
+        <v>13377.4</v>
+      </c>
+      <c r="B30">
+        <v>78</v>
+      </c>
+      <c r="D30" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A30)+NTC3950_C*(LN(A30))^2+NTC3950_D*(LN(A30))^3</f>
+        <v>78.29323135048179</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5984624905374271E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="54">
+        <v>12950.699999999999</v>
+      </c>
+      <c r="B31">
+        <v>79</v>
+      </c>
+      <c r="D31" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A31)+NTC3950_C*(LN(A31))^2+NTC3950_D*(LN(A31))^3</f>
+        <v>79.292569552173603</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5596942859062691E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="54">
+        <v>12540</v>
+      </c>
+      <c r="B32">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A32)+NTC3950_C*(LN(A32))^2+NTC3950_D*(LN(A32))^3</f>
+        <v>80.289727853003996</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3942228806304822E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="54">
+        <v>12134.7</v>
+      </c>
+      <c r="B33">
+        <v>81</v>
+      </c>
+      <c r="D33" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A33)+NTC3950_C*(LN(A33))^2+NTC3950_D*(LN(A33))^3</f>
+        <v>81.310170639729478</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>9.620582575019343E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="54">
+        <v>11744.7</v>
+      </c>
+      <c r="B34">
+        <v>82</v>
+      </c>
+      <c r="D34" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A34)+NTC3950_C*(LN(A34))^2+NTC3950_D*(LN(A34))^3</f>
+        <v>82.328703720134342</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10804613563015605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="54">
+        <v>11369.400000000001</v>
+      </c>
+      <c r="B35">
+        <v>83</v>
+      </c>
+      <c r="D35" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A35)+NTC3950_C*(LN(A35))^2+NTC3950_D*(LN(A35))^3</f>
+        <v>83.345218396582993</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11917574133933273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="54">
+        <v>11008</v>
+      </c>
+      <c r="B36">
+        <v>84</v>
+      </c>
+      <c r="D36" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A36)+NTC3950_C*(LN(A36))^2+NTC3950_D*(LN(A36))^3</f>
+        <v>84.360243414781053</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12977531789311358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="54">
+        <v>10660</v>
+      </c>
+      <c r="B37">
+        <v>85</v>
+      </c>
+      <c r="D37" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A37)+NTC3950_C*(LN(A37))^2+NTC3950_D*(LN(A37))^3</f>
+        <v>85.3735771983917</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13955992315819191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="54">
+        <v>10324.299999999999</v>
+      </c>
+      <c r="B38">
+        <v>86</v>
+      </c>
+      <c r="D38" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A38)+NTC3950_C*(LN(A38))^2+NTC3950_D*(LN(A38))^3</f>
+        <v>86.386908567847769</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14969823987401154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="54">
+        <v>10001</v>
+      </c>
+      <c r="B39">
+        <v>87</v>
+      </c>
+      <c r="D39" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A39)+NTC3950_C*(LN(A39))^2+NTC3950_D*(LN(A39))^3</f>
+        <v>87.398426852461853</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15874395676265904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="54">
+        <v>9689.5</v>
+      </c>
+      <c r="B40">
+        <v>88</v>
+      </c>
+      <c r="D40" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A40)+NTC3950_C*(LN(A40))^2+NTC3950_D*(LN(A40))^3</f>
+        <v>88.408430482536971</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16681545906538325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="54">
+        <v>9389.3000000000011</v>
+      </c>
+      <c r="B41">
+        <v>89</v>
+      </c>
+      <c r="D41" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A41)+NTC3950_C*(LN(A41))^2+NTC3950_D*(LN(A41))^3</f>
+        <v>89.416995757482397</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1738854617583179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="54">
+        <v>9100</v>
+      </c>
+      <c r="B42">
+        <v>90</v>
+      </c>
+      <c r="D42" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A42)+NTC3950_C*(LN(A42))^2+NTC3950_D*(LN(A42))^3</f>
+        <v>90.423928958363206</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17971576173891265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="54">
+        <v>8817.1</v>
+      </c>
+      <c r="B43">
+        <v>91</v>
+      </c>
+      <c r="D43" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A43)+NTC3950_C*(LN(A43))^2+NTC3950_D*(LN(A43))^3</f>
+        <v>91.444128544065393</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19725016365364556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="54">
+        <v>8544.4</v>
+      </c>
+      <c r="B44">
+        <v>92</v>
+      </c>
+      <c r="D44" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A44)+NTC3950_C*(LN(A44))^2+NTC3950_D*(LN(A44))^3</f>
+        <v>92.463146850715532</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21450500532771516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="54">
+        <v>8281.5999999999985</v>
+      </c>
+      <c r="B45">
+        <v>93</v>
+      </c>
+      <c r="D45" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A45)+NTC3950_C*(LN(A45))^2+NTC3950_D*(LN(A45))^3</f>
+        <v>93.480560385251124</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23093828387270871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="54">
+        <v>8028.3</v>
+      </c>
+      <c r="B46">
+        <v>94</v>
+      </c>
+      <c r="D46" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A46)+NTC3950_C*(LN(A46))^2+NTC3950_D*(LN(A46))^3</f>
+        <v>94.496364294271899</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24637751262804045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="54">
+        <v>7784</v>
+      </c>
+      <c r="B47">
+        <v>95</v>
+      </c>
+      <c r="D47" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A47)+NTC3950_C*(LN(A47))^2+NTC3950_D*(LN(A47))^3</f>
+        <v>95.511049757081594</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26117185421315597</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="54">
+        <v>7553.8</v>
+      </c>
+      <c r="B48">
+        <v>96</v>
+      </c>
+      <c r="D48" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A48)+NTC3950_C*(LN(A48))^2+NTC3950_D*(LN(A48))^3</f>
+        <v>96.500750287438052</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25075085036929173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="54">
+        <v>7331.5999999999995</v>
+      </c>
+      <c r="B49">
+        <v>97</v>
+      </c>
+      <c r="D49" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A49)+NTC3950_C*(LN(A49))^2+NTC3950_D*(LN(A49))^3</f>
+        <v>97.489047356281048</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23916731668548274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="54">
+        <v>7117.2000000000007</v>
+      </c>
+      <c r="B50">
+        <v>98</v>
+      </c>
+      <c r="D50" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A50)+NTC3950_C*(LN(A50))^2+NTC3950_D*(LN(A50))^3</f>
+        <v>98.475421093688055</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22602521632354675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="54">
+        <v>6910</v>
+      </c>
+      <c r="B51">
+        <v>99</v>
+      </c>
+      <c r="D51" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A51)+NTC3950_C*(LN(A51))^2+NTC3950_D*(LN(A51))^3</f>
+        <v>99.461279413467224</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21277869728866641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="54">
+        <v>6710</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="D52" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A52)+NTC3950_C*(LN(A52))^2+NTC3950_D*(LN(A52))^3</f>
+        <v>100.44528634122642</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19827992568281241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="54">
+        <v>6526.5</v>
+      </c>
+      <c r="B53">
+        <v>101</v>
+      </c>
+      <c r="D53" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A53)+NTC3950_C*(LN(A53))^2+NTC3950_D*(LN(A53))^3</f>
+        <v>101.37792068728805</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14282404588027481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="54">
+        <v>6349</v>
+      </c>
+      <c r="B54">
+        <v>102</v>
+      </c>
+      <c r="D54" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A54)+NTC3950_C*(LN(A54))^2+NTC3950_D*(LN(A54))^3</f>
+        <v>102.30891147406152</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5426298806859489E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="54">
+        <v>6177.2</v>
+      </c>
+      <c r="B55">
+        <v>103</v>
+      </c>
+      <c r="D55" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A55)+NTC3950_C*(LN(A55))^2+NTC3950_D*(LN(A55))^3</f>
+        <v>103.23868737882165</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6971664808750766E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="54">
+        <v>6010.9000000000005</v>
+      </c>
+      <c r="B56">
+        <v>104</v>
+      </c>
+      <c r="D56" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A56)+NTC3950_C*(LN(A56))^2+NTC3950_D*(LN(A56))^3</f>
+        <v>104.16721503674182</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7960868512569077E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="54">
+        <v>5850</v>
+      </c>
+      <c r="B57">
+        <v>105</v>
+      </c>
+      <c r="D57" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A57)+NTC3950_C*(LN(A57))^2+NTC3950_D*(LN(A57))^3</f>
+        <v>105.09391921362214</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8208186874018466E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="54">
+        <v>5683.2</v>
+      </c>
+      <c r="B58">
+        <v>106</v>
+      </c>
+      <c r="D58" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A58)+NTC3950_C*(LN(A58))^2+NTC3950_D*(LN(A58))^3</f>
+        <v>106.08583894752019</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3683249113735043E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="54">
+        <v>5522.1</v>
+      </c>
+      <c r="B59">
+        <v>107</v>
+      </c>
+      <c r="D59" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A59)+NTC3950_C*(LN(A59))^2+NTC3950_D*(LN(A59))^3</f>
+        <v>107.0759537574659</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7689732731882109E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="54">
+        <v>5366.3</v>
+      </c>
+      <c r="B60">
+        <v>108</v>
+      </c>
+      <c r="D60" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A60)+NTC3950_C*(LN(A60))^2+NTC3950_D*(LN(A60))^3</f>
+        <v>108.06541855050142</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2795867497068072E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="54">
+        <v>5215.6000000000004</v>
+      </c>
+      <c r="B61">
+        <v>109</v>
+      </c>
+      <c r="D61" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A61)+NTC3950_C*(LN(A61))^2+NTC3950_D*(LN(A61))^3</f>
+        <v>109.05426993102722</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9452254136993483E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="54">
+        <v>5070</v>
+      </c>
+      <c r="B62">
+        <v>110</v>
+      </c>
+      <c r="D62" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A62)+NTC3950_C*(LN(A62))^2+NTC3950_D*(LN(A62))^3</f>
+        <v>110.04122458475322</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6994663880756931E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="54">
+        <v>4929.1000000000004</v>
+      </c>
+      <c r="B63">
+        <v>111</v>
+      </c>
+      <c r="D63" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A63)+NTC3950_C*(LN(A63))^2+NTC3950_D*(LN(A63))^3</f>
+        <v>111.02772937885103</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="1"/>
+        <v>7.6891845146422055E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="54">
+        <v>4792.7999999999993</v>
+      </c>
+      <c r="B64">
+        <v>112</v>
+      </c>
+      <c r="D64" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A64)+NTC3950_C*(LN(A64))^2+NTC3950_D*(LN(A64))^3</f>
+        <v>112.01327703047596</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7627953825961675E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="54">
+        <v>4661</v>
+      </c>
+      <c r="B65">
+        <v>113</v>
+      </c>
+      <c r="D65" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A65)+NTC3950_C*(LN(A65))^2+NTC3950_D*(LN(A65))^3</f>
+        <v>112.99734411896122</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0537040921346502E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="54">
+        <v>4533.4000000000005</v>
+      </c>
+      <c r="B66">
+        <v>114</v>
+      </c>
+      <c r="D66" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A66)+NTC3950_C*(LN(A66))^2+NTC3950_D*(LN(A66))^3</f>
+        <v>113.98095899246721</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6255996786383442E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="54">
+        <v>4410</v>
+      </c>
+      <c r="B67">
+        <v>115</v>
+      </c>
+      <c r="D67" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A67)+NTC3950_C*(LN(A67))^2+NTC3950_D*(LN(A67))^3</f>
+        <v>114.96291317662755</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3754324678591518E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="54">
+        <v>4290.6000000000004</v>
+      </c>
+      <c r="B68">
+        <v>116</v>
+      </c>
+      <c r="D68" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A68)+NTC3950_C*(LN(A68))^2+NTC3950_D*(LN(A68))^3</f>
+        <v>115.9435601327317</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1854586172628172E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="54">
+        <v>4175.0999999999995</v>
+      </c>
+      <c r="B69">
+        <v>117</v>
+      </c>
+      <c r="D69" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A69)+NTC3950_C*(LN(A69))^2+NTC3950_D*(LN(A69))^3</f>
+        <v>116.92249354399922</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0072507218002762E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="54">
+        <v>4063.2000000000003</v>
+      </c>
+      <c r="B70">
+        <v>118</v>
+      </c>
+      <c r="D70" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A70)+NTC3950_C*(LN(A70))^2+NTC3950_D*(LN(A70))^3</f>
+        <v>117.90108502206036</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7841728608000153E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="54">
+        <v>3954.8999999999996</v>
+      </c>
+      <c r="B71">
+        <v>119</v>
+      </c>
+      <c r="D71" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A71)+NTC3950_C*(LN(A71))^2+NTC3950_D*(LN(A71))^3</f>
+        <v>118.87818531894831</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4838816519724589E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="54">
+        <v>3850</v>
+      </c>
+      <c r="B72">
+        <v>120</v>
+      </c>
+      <c r="D72" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A72)+NTC3950_C*(LN(A72))^2+NTC3950_D*(LN(A72))^3</f>
+        <v>119.85443584463934</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1188923325862273E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="54">
+        <v>3741</v>
+      </c>
+      <c r="B73">
+        <v>121</v>
+      </c>
+      <c r="D73" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A73)+NTC3950_C*(LN(A73))^2+NTC3950_D*(LN(A73))^3</f>
+        <v>120.90185123982465</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="1"/>
+        <v>9.633179123958089E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="54">
+        <v>3635.7</v>
+      </c>
+      <c r="B74">
+        <v>122</v>
+      </c>
+      <c r="D74" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A74)+NTC3950_C*(LN(A74))^2+NTC3950_D*(LN(A74))^3</f>
+        <v>121.94766540516781</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7389098162493774E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="54">
+        <v>3533.7999999999997</v>
+      </c>
+      <c r="B75">
+        <v>123</v>
+      </c>
+      <c r="D75" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A75)+NTC3950_C*(LN(A75))^2+NTC3950_D*(LN(A75))^3</f>
+        <v>122.99351281654089</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2083549232208457E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="54">
+        <v>3435.2999999999997</v>
+      </c>
+      <c r="B76">
+        <v>124</v>
+      </c>
+      <c r="D76" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A76)+NTC3950_C*(LN(A76))^2+NTC3950_D*(LN(A76))^3</f>
+        <v>124.03807701671758</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4498592021108426E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="54">
+        <v>3340</v>
+      </c>
+      <c r="B77">
+        <v>125</v>
+      </c>
+      <c r="D77" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A77)+NTC3950_C*(LN(A77))^2+NTC3950_D*(LN(A77))^3</f>
+        <v>125.08214763785134</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="1"/>
+        <v>6.748234404554132E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="54">
+        <v>3255</v>
+      </c>
+      <c r="B78">
+        <v>126</v>
+      </c>
+      <c r="D78" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A78)+NTC3950_C*(LN(A78))^2+NTC3950_D*(LN(A78))^3</f>
+        <v>126.04282628040218</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8340902930862567E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="54">
+        <v>3172.6</v>
+      </c>
+      <c r="B79">
+        <v>127</v>
+      </c>
+      <c r="D79" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A79)+NTC3950_C*(LN(A79))^2+NTC3950_D*(LN(A79))^3</f>
+        <v>127.00219884747975</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8349302391886166E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="54">
+        <v>3092.7</v>
+      </c>
+      <c r="B80">
+        <v>128</v>
+      </c>
+      <c r="D80" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A80)+NTC3950_C*(LN(A80))^2+NTC3950_D*(LN(A80))^3</f>
+        <v>127.96037449085588</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5701809749304383E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="54">
+        <v>3015.2000000000003</v>
+      </c>
+      <c r="B81">
+        <v>129</v>
+      </c>
+      <c r="D81" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A81)+NTC3950_C*(LN(A81))^2+NTC3950_D*(LN(A81))^3</f>
+        <v>128.91751964173432</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" ref="F81:F144" si="2">(D81-B81)^2</f>
+        <v>6.8030094996356059E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="54">
+        <v>2940</v>
+      </c>
+      <c r="B82">
+        <v>130</v>
+      </c>
+      <c r="D82" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A82)+NTC3950_C*(LN(A82))^2+NTC3950_D*(LN(A82))^3</f>
+        <v>129.87386347055653</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="2"/>
+        <v>1.591042406004365E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="54">
+        <v>2863.4</v>
+      </c>
+      <c r="B83">
+        <v>131</v>
+      </c>
+      <c r="D83" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A83)+NTC3950_C*(LN(A83))^2+NTC3950_D*(LN(A83))^3</f>
+        <v>130.8775680067273</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4989592976726088E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="54">
+        <v>2789.2999999999997</v>
+      </c>
+      <c r="B84">
+        <v>132</v>
+      </c>
+      <c r="D84" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A84)+NTC3950_C*(LN(A84))^2+NTC3950_D*(LN(A84))^3</f>
+        <v>131.87854638019499</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4750981763739868E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="54">
+        <v>2717.2999999999997</v>
+      </c>
+      <c r="B85">
+        <v>133</v>
+      </c>
+      <c r="D85" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A85)+NTC3950_C*(LN(A85))^2+NTC3950_D*(LN(A85))^3</f>
+        <v>132.88110836104332</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4135221813806205E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="54">
+        <v>2647.6000000000004</v>
+      </c>
+      <c r="B86">
+        <v>134</v>
+      </c>
+      <c r="D86" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A86)+NTC3950_C*(LN(A86))^2+NTC3950_D*(LN(A86))^3</f>
+        <v>133.88140819031898</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4064017323419562E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="54">
+        <v>2580</v>
+      </c>
+      <c r="B87">
+        <v>135</v>
+      </c>
+      <c r="D87" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A87)+NTC3950_C*(LN(A87))^2+NTC3950_D*(LN(A87))^3</f>
+        <v>134.88116730301141</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4121209873582206E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="54">
+        <v>2514.4</v>
+      </c>
+      <c r="B88">
+        <v>136</v>
+      </c>
+      <c r="D88" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A88)+NTC3950_C*(LN(A88))^2+NTC3950_D*(LN(A88))^3</f>
+        <v>135.88082372137515</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4202985386867621E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="54">
+        <v>2450.6999999999998</v>
+      </c>
+      <c r="B89">
+        <v>137</v>
+      </c>
+      <c r="D89" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A89)+NTC3950_C*(LN(A89))^2+NTC3950_D*(LN(A89))^3</f>
+        <v>136.88091134930863</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4182106723490448E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="54">
+        <v>2389</v>
+      </c>
+      <c r="B90">
+        <v>138</v>
+      </c>
+      <c r="D90" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A90)+NTC3950_C*(LN(A90))^2+NTC3950_D*(LN(A90))^3</f>
+        <v>137.87878508910532</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4693054623204959E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="54">
+        <v>2329.1</v>
+      </c>
+      <c r="B91">
+        <v>139</v>
+      </c>
+      <c r="D91" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A91)+NTC3950_C*(LN(A91))^2+NTC3950_D*(LN(A91))^3</f>
+        <v>138.87659100694191</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5229779567612241E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="54">
+        <v>2271</v>
+      </c>
+      <c r="B92">
+        <v>140</v>
+      </c>
+      <c r="D92" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A92)+NTC3950_C*(LN(A92))^2+NTC3950_D*(LN(A92))^3</f>
+        <v>139.87330099238736</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6052638530028644E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="54">
+        <v>2213.5</v>
+      </c>
+      <c r="B93">
+        <v>141</v>
+      </c>
+      <c r="D93" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A93)+NTC3950_C*(LN(A93))^2+NTC3950_D*(LN(A93))^3</f>
+        <v>140.88931905070041</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2250272537858889E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="54">
+        <v>2157.7000000000003</v>
+      </c>
+      <c r="B94">
+        <v>142</v>
+      </c>
+      <c r="D94" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A94)+NTC3950_C*(LN(A94))^2+NTC3950_D*(LN(A94))^3</f>
+        <v>141.90505685284751</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="2"/>
+        <v>9.014201191219701E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="54">
+        <v>2103.5</v>
+      </c>
+      <c r="B95">
+        <v>143</v>
+      </c>
+      <c r="D95" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A95)+NTC3950_C*(LN(A95))^2+NTC3950_D*(LN(A95))^3</f>
+        <v>142.92133582139837</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1880529950687586E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="54">
+        <v>2051</v>
+      </c>
+      <c r="B96">
+        <v>144</v>
+      </c>
+      <c r="D96" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A96)+NTC3950_C*(LN(A96))^2+NTC3950_D*(LN(A96))^3</f>
+        <v>143.93519685500706</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1994476009755205E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="54">
+        <v>2000</v>
+      </c>
+      <c r="B97">
+        <v>145</v>
+      </c>
+      <c r="D97" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A97)+NTC3950_C*(LN(A97))^2+NTC3950_D*(LN(A97))^3</f>
+        <v>144.94941883124062</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5584546330647906E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="54">
+        <v>1951.3</v>
+      </c>
+      <c r="B98">
+        <v>146</v>
+      </c>
+      <c r="D98" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A98)+NTC3950_C*(LN(A98))^2+NTC3950_D*(LN(A98))^3</f>
+        <v>145.94638886517947</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8741537767448459E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="54">
+        <v>1904</v>
+      </c>
+      <c r="B99">
+        <v>147</v>
+      </c>
+      <c r="D99" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A99)+NTC3950_C*(LN(A99))^2+NTC3950_D*(LN(A99))^3</f>
+        <v>146.94281651648902</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2699507864508153E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="54">
+        <v>1858</v>
+      </c>
+      <c r="B100">
+        <v>148</v>
+      </c>
+      <c r="D100" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A100)+NTC3950_C*(LN(A100))^2+NTC3950_D*(LN(A100))^3</f>
+        <v>147.9398921589289</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6129525582287506E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="54">
+        <v>1813.3999999999999</v>
+      </c>
+      <c r="B101">
+        <v>149</v>
+      </c>
+      <c r="D101" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A101)+NTC3950_C*(LN(A101))^2+NTC3950_D*(LN(A101))^3</f>
+        <v>148.93445700566588</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2958841062829128E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="54">
+        <v>1770</v>
+      </c>
+      <c r="B102">
+        <v>150</v>
+      </c>
+      <c r="D102" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A102)+NTC3950_C*(LN(A102))^2+NTC3950_D*(LN(A102))^3</f>
+        <v>149.93000089787938</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="2"/>
+        <v>4.899874297692816E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="54">
+        <v>1731.9</v>
+      </c>
+      <c r="B103">
+        <v>151</v>
+      </c>
+      <c r="D103" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A103)+NTC3950_C*(LN(A103))^2+NTC3950_D*(LN(A103))^3</f>
+        <v>150.82770120872243</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9686873475711393E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="54">
+        <v>1694.7</v>
+      </c>
+      <c r="B104">
+        <v>152</v>
+      </c>
+      <c r="D104" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A104)+NTC3950_C*(LN(A104))^2+NTC3950_D*(LN(A104))^3</f>
+        <v>151.72668227211108</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="2"/>
+        <v>7.4702580378363331E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="54">
+        <v>1658.6000000000001</v>
+      </c>
+      <c r="B105">
+        <v>153</v>
+      </c>
+      <c r="D105" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A105)+NTC3950_C*(LN(A105))^2+NTC3950_D*(LN(A105))^3</f>
+        <v>152.62134782385277</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14337747050103081</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="54">
+        <v>1623.3</v>
+      </c>
+      <c r="B106">
+        <v>154</v>
+      </c>
+      <c r="D106" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A106)+NTC3950_C*(LN(A106))^2+NTC3950_D*(LN(A106))^3</f>
+        <v>153.51841636273917</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23192279967736681</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="54">
+        <v>1589</v>
+      </c>
+      <c r="B107">
+        <v>155</v>
+      </c>
+      <c r="D107" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A107)+NTC3950_C*(LN(A107))^2+NTC3950_D*(LN(A107))^3</f>
+        <v>154.41213416256301</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="2"/>
+        <v>0.34558624282549755</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="54">
+        <v>1552</v>
+      </c>
+      <c r="B108">
+        <v>156</v>
+      </c>
+      <c r="D108" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A108)+NTC3950_C*(LN(A108))^2+NTC3950_D*(LN(A108))^3</f>
+        <v>155.40178614169258</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35785982027104696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="54">
+        <v>1516</v>
+      </c>
+      <c r="B109">
+        <v>157</v>
+      </c>
+      <c r="D109" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A109)+NTC3950_C*(LN(A109))^2+NTC3950_D*(LN(A109))^3</f>
+        <v>156.39147189823166</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37030645064178258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="54">
+        <v>1481.1000000000001</v>
+      </c>
+      <c r="B110">
+        <v>158</v>
+      </c>
+      <c r="D110" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A110)+NTC3950_C*(LN(A110))^2+NTC3950_D*(LN(A110))^3</f>
+        <v>157.37745280751579</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38756500686996631</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="54">
+        <v>1447.1000000000001</v>
+      </c>
+      <c r="B111">
+        <v>159</v>
+      </c>
+      <c r="D111" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A111)+NTC3950_C*(LN(A111))^2+NTC3950_D*(LN(A111))^3</f>
+        <v>158.36443755896437</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40393961645517035</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="54">
+        <v>1414</v>
+      </c>
+      <c r="B112">
+        <v>160</v>
+      </c>
+      <c r="D112" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A112)+NTC3950_C*(LN(A112))^2+NTC3950_D*(LN(A112))^3</f>
+        <v>159.35165335139726</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="2"/>
+        <v>0.42035337675440432</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="54">
+        <v>1381.2</v>
+      </c>
+      <c r="B113">
+        <v>161</v>
+      </c>
+      <c r="D113" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A113)+NTC3950_C*(LN(A113))^2+NTC3950_D*(LN(A113))^3</f>
+        <v>160.35690557747216</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41357043628641355</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="54">
+        <v>1349.3999999999999</v>
+      </c>
+      <c r="B114">
+        <v>162</v>
+      </c>
+      <c r="D114" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A114)+NTC3950_C*(LN(A114))^2+NTC3950_D*(LN(A114))^3</f>
+        <v>161.35848907377084</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41153626847139396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="54">
+        <v>1318.4</v>
+      </c>
+      <c r="B115">
+        <v>163</v>
+      </c>
+      <c r="D115" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A115)+NTC3950_C*(LN(A115))^2+NTC3950_D*(LN(A115))^3</f>
+        <v>162.3617751267131</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40733098888208158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="54">
+        <v>1288.3</v>
+      </c>
+      <c r="B116">
+        <v>164</v>
+      </c>
+      <c r="D116" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A116)+NTC3950_C*(LN(A116))^2+NTC3950_D*(LN(A116))^3</f>
+        <v>163.36266175546154</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40620003795135945</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="54">
+        <v>1259</v>
+      </c>
+      <c r="B117">
+        <v>165</v>
+      </c>
+      <c r="D117" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A117)+NTC3950_C*(LN(A117))^2+NTC3950_D*(LN(A117))^3</f>
+        <v>164.36354568350868</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40507409698043884</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="54">
+        <v>1230.0999999999999</v>
+      </c>
+      <c r="B118">
+        <v>166</v>
+      </c>
+      <c r="D118" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A118)+NTC3950_C*(LN(A118))^2+NTC3950_D*(LN(A118))^3</f>
+        <v>165.37779731011474</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38713618730044824</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="54">
+        <v>1201.8999999999999</v>
+      </c>
+      <c r="B119">
+        <v>167</v>
+      </c>
+      <c r="D119" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A119)+NTC3950_C*(LN(A119))^2+NTC3950_D*(LN(A119))^3</f>
+        <v>166.39469731413749</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36639134151237052</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="54">
+        <v>1174.5</v>
+      </c>
+      <c r="B120">
+        <v>168</v>
+      </c>
+      <c r="D120" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A120)+NTC3950_C*(LN(A120))^2+NTC3950_D*(LN(A120))^3</f>
+        <v>167.40982848579102</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3483024161837151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="54">
+        <v>1147.8999999999999</v>
+      </c>
+      <c r="B121">
+        <v>169</v>
+      </c>
+      <c r="D121" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A121)+NTC3950_C*(LN(A121))^2+NTC3950_D*(LN(A121))^3</f>
+        <v>168.42216684614203</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33389115369744427</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="54">
+        <v>1122</v>
+      </c>
+      <c r="B122">
+        <v>170</v>
+      </c>
+      <c r="D122" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A122)+NTC3950_C*(LN(A122))^2+NTC3950_D*(LN(A122))^3</f>
+        <v>169.43457872581735</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="2"/>
+        <v>0.31970121729833612</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="54">
+        <v>1095.5999999999999</v>
+      </c>
+      <c r="B123">
+        <v>171</v>
+      </c>
+      <c r="D123" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A123)+NTC3950_C*(LN(A123))^2+NTC3950_D*(LN(A123))^3</f>
+        <v>170.49506478264573</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25495957372460687</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="54">
+        <v>1069.9000000000001</v>
+      </c>
+      <c r="B124">
+        <v>172</v>
+      </c>
+      <c r="D124" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A124)+NTC3950_C*(LN(A124))^2+NTC3950_D*(LN(A124))^3</f>
+        <v>171.55654781415842</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1966498411276745</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="54">
+        <v>1044.8999999999999</v>
+      </c>
+      <c r="B125">
+        <v>173</v>
+      </c>
+      <c r="D125" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A125)+NTC3950_C*(LN(A125))^2+NTC3950_D*(LN(A125))^3</f>
+        <v>172.61814163756139</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14581580896429416</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="54">
+        <v>1020.5999999999999</v>
+      </c>
+      <c r="B126">
+        <v>174</v>
+      </c>
+      <c r="D126" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A126)+NTC3950_C*(LN(A126))^2+NTC3950_D*(LN(A126))^3</f>
+        <v>173.67889018170803</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10311151540350373</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="54">
+        <v>997</v>
+      </c>
+      <c r="B127">
+        <v>175</v>
+      </c>
+      <c r="D127" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A127)+NTC3950_C*(LN(A127))^2+NTC3950_D*(LN(A127))^3</f>
+        <v>174.73776469524711</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="2"/>
+        <v>6.8767355058842045E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="54">
+        <v>975.7</v>
+      </c>
+      <c r="B128">
+        <v>176</v>
+      </c>
+      <c r="D128" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A128)+NTC3950_C*(LN(A128))^2+NTC3950_D*(LN(A128))^3</f>
+        <v>175.71894662569923</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8990999205847692E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="54">
+        <v>955</v>
+      </c>
+      <c r="B129">
+        <v>177</v>
+      </c>
+      <c r="D129" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A129)+NTC3950_C*(LN(A129))^2+NTC3950_D*(LN(A129))^3</f>
+        <v>176.69681820434397</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="2"/>
+        <v>9.1919201217214919E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="54">
+        <v>934.8</v>
+      </c>
+      <c r="B130">
+        <v>178</v>
+      </c>
+      <c r="D130" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A130)+NTC3950_C*(LN(A130))^2+NTC3950_D*(LN(A130))^3</f>
+        <v>177.67529496902932</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10543335713766798</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="54">
+        <v>915.1</v>
+      </c>
+      <c r="B131">
+        <v>179</v>
+      </c>
+      <c r="D131" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A131)+NTC3950_C*(LN(A131))^2+NTC3950_D*(LN(A131))^3</f>
+        <v>178.65369752620938</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1199254033534998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="54">
+        <v>896</v>
+      </c>
+      <c r="B132">
+        <v>180</v>
+      </c>
+      <c r="D132" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A132)+NTC3950_C*(LN(A132))^2+NTC3950_D*(LN(A132))^3</f>
+        <v>179.62614371216313</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13976852395516648</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="54">
+        <v>875</v>
+      </c>
+      <c r="B133">
+        <v>181</v>
+      </c>
+      <c r="D133" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A133)+NTC3950_C*(LN(A133))^2+NTC3950_D*(LN(A133))^3</f>
+        <v>180.72374899312643</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6314618798658501E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="54">
+        <v>854.7</v>
+      </c>
+      <c r="B134">
+        <v>182</v>
+      </c>
+      <c r="D134" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A134)+NTC3950_C*(LN(A134))^2+NTC3950_D*(LN(A134))^3</f>
+        <v>181.81450269498248</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4409250168762992E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="54">
+        <v>834.9</v>
+      </c>
+      <c r="B135">
+        <v>183</v>
+      </c>
+      <c r="D135" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A135)+NTC3950_C*(LN(A135))^2+NTC3950_D*(LN(A135))^3</f>
+        <v>182.90803121873464</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="2"/>
+        <v>8.4582567274365337E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="54">
+        <v>815.69999999999993</v>
+      </c>
+      <c r="B136">
+        <v>184</v>
+      </c>
+      <c r="D136" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A136)+NTC3950_C*(LN(A136))^2+NTC3950_D*(LN(A136))^3</f>
+        <v>183.99783655516725</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6804935443358382E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="54">
+        <v>797</v>
+      </c>
+      <c r="B137">
+        <v>185</v>
+      </c>
+      <c r="D137" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A137)+NTC3950_C*(LN(A137))^2+NTC3950_D*(LN(A137))^3</f>
+        <v>185.08854963571844</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8410379858678131E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="54">
+        <v>780.59999999999991</v>
+      </c>
+      <c r="B138">
+        <v>186</v>
+      </c>
+      <c r="D138" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A138)+NTC3950_C*(LN(A138))^2+NTC3950_D*(LN(A138))^3</f>
+        <v>186.07008849563792</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9123972207865086E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="54">
+        <v>764.59999999999991</v>
+      </c>
+      <c r="B139">
+        <v>187</v>
+      </c>
+      <c r="D139" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A139)+NTC3950_C*(LN(A139))^2+NTC3950_D*(LN(A139))^3</f>
+        <v>187.05126232757868</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6278262287842708E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="54">
+        <v>749</v>
+      </c>
+      <c r="B140">
+        <v>188</v>
+      </c>
+      <c r="D140" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A140)+NTC3950_C*(LN(A140))^2+NTC3950_D*(LN(A140))^3</f>
+        <v>188.03135809485079</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8333011267099594E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="54">
+        <v>733.8</v>
+      </c>
+      <c r="B141">
+        <v>189</v>
+      </c>
+      <c r="D141" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A141)+NTC3950_C*(LN(A141))^2+NTC3950_D*(LN(A141))^3</f>
+        <v>189.0096162845299</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2472928159950053E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="54">
+        <v>719</v>
+      </c>
+      <c r="B142">
+        <v>190</v>
+      </c>
+      <c r="D142" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A142)+NTC3950_C*(LN(A142))^2+NTC3950_D*(LN(A142))^3</f>
+        <v>189.98522954286869</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1816640386773786E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="54">
+        <v>702.9</v>
+      </c>
+      <c r="B143">
+        <v>191</v>
+      </c>
+      <c r="D143" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A143)+NTC3950_C*(LN(A143))^2+NTC3950_D*(LN(A143))^3</f>
+        <v>191.07364033991996</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="2"/>
+        <v>5.4228996635274987E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="54">
+        <v>687.30000000000007</v>
+      </c>
+      <c r="B144">
+        <v>192</v>
+      </c>
+      <c r="D144" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A144)+NTC3950_C*(LN(A144))^2+NTC3950_D*(LN(A144))^3</f>
+        <v>192.15649948277445</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4492088108670346E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="54">
+        <v>672.1</v>
+      </c>
+      <c r="B145">
+        <v>193</v>
+      </c>
+      <c r="D145" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A145)+NTC3950_C*(LN(A145))^2+NTC3950_D*(LN(A145))^3</f>
+        <v>193.23967817384516</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" ref="F145:F208" si="3">(D145-B145)^2</f>
+        <v>5.7445627017752493E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="54">
+        <v>657.4</v>
+      </c>
+      <c r="B146">
+        <v>194</v>
+      </c>
+      <c r="D146" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A146)+NTC3950_C*(LN(A146))^2+NTC3950_D*(LN(A146))^3</f>
+        <v>194.31490511861139</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9165233727655025E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="54">
+        <v>643</v>
+      </c>
+      <c r="B147">
+        <v>195</v>
+      </c>
+      <c r="D147" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A147)+NTC3950_C*(LN(A147))^2+NTC3950_D*(LN(A147))^3</f>
+        <v>195.3958840034868</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15672414421673586</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="54">
+        <v>630.19999999999993</v>
+      </c>
+      <c r="B148">
+        <v>196</v>
+      </c>
+      <c r="D148" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A148)+NTC3950_C*(LN(A148))^2+NTC3950_D*(LN(A148))^3</f>
+        <v>196.38086477230439</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14505797478247626</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="54">
+        <v>617.70000000000005</v>
+      </c>
+      <c r="B149">
+        <v>197</v>
+      </c>
+      <c r="D149" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A149)+NTC3950_C*(LN(A149))^2+NTC3950_D*(LN(A149))^3</f>
+        <v>197.36567314168832</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13371684655220542</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="54">
+        <v>605.5</v>
+      </c>
+      <c r="B150">
+        <v>198</v>
+      </c>
+      <c r="D150" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A150)+NTC3950_C*(LN(A150))^2+NTC3950_D*(LN(A150))^3</f>
+        <v>198.34965147299238</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12225615256573924</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="54">
+        <v>593.6</v>
+      </c>
+      <c r="B151">
+        <v>199</v>
+      </c>
+      <c r="D151" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A151)+NTC3950_C*(LN(A151))^2+NTC3950_D*(LN(A151))^3</f>
+        <v>199.33210037613065</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11029065982612202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="54">
+        <v>582</v>
+      </c>
+      <c r="B152">
+        <v>200</v>
+      </c>
+      <c r="D152" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A152)+NTC3950_C*(LN(A152))^2+NTC3950_D*(LN(A152))^3</f>
+        <v>200.31227748454427</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7517227353295377E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="54">
+        <v>571.69999999999993</v>
+      </c>
+      <c r="B153">
+        <v>201</v>
+      </c>
+      <c r="D153" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A153)+NTC3950_C*(LN(A153))^2+NTC3950_D*(LN(A153))^3</f>
+        <v>201.20201381867165</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0809582934300322E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="54">
+        <v>561.69999999999993</v>
+      </c>
+      <c r="B154">
+        <v>202</v>
+      </c>
+      <c r="D154" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A154)+NTC3950_C*(LN(A154))^2+NTC3950_D*(LN(A154))^3</f>
+        <v>202.08401428672562</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0584003740145305E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="54">
+        <v>551.9</v>
+      </c>
+      <c r="B155">
+        <v>203</v>
+      </c>
+      <c r="D155" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A155)+NTC3950_C*(LN(A155))^2+NTC3950_D*(LN(A155))^3</f>
+        <v>202.96643336863968</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1267187408793206E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="54">
+        <v>542.29999999999995</v>
+      </c>
+      <c r="B156">
+        <v>204</v>
+      </c>
+      <c r="D156" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A156)+NTC3950_C*(LN(A156))^2+NTC3950_D*(LN(A156))^3</f>
+        <v>203.84885304497703</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2845402012714587E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="54">
+        <v>533</v>
+      </c>
+      <c r="B157">
+        <v>205</v>
+      </c>
+      <c r="D157" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A157)+NTC3950_C*(LN(A157))^2+NTC3950_D*(LN(A157))^3</f>
+        <v>204.72135267892926</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="3"/>
+        <v>7.7644329539897639E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="54">
+        <v>522.5</v>
+      </c>
+      <c r="B158">
+        <v>206</v>
+      </c>
+      <c r="D158" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A158)+NTC3950_C*(LN(A158))^2+NTC3950_D*(LN(A158))^3</f>
+        <v>205.72816130883137</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="3"/>
+        <v>7.3896274016271218E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="54">
+        <v>512.20000000000005</v>
+      </c>
+      <c r="B159">
+        <v>207</v>
+      </c>
+      <c r="D159" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A159)+NTC3950_C*(LN(A159))^2+NTC3950_D*(LN(A159))^3</f>
+        <v>206.73913005630641</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="3"/>
+        <v>6.8053127522697959E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="54">
+        <v>502.2</v>
+      </c>
+      <c r="B160">
+        <v>208</v>
+      </c>
+      <c r="D160" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A160)+NTC3950_C*(LN(A160))^2+NTC3950_D*(LN(A160))^3</f>
+        <v>207.74374142355262</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5668458002837438E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="54">
+        <v>492.5</v>
+      </c>
+      <c r="B161">
+        <v>209</v>
+      </c>
+      <c r="D161" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A161)+NTC3950_C*(LN(A161))^2+NTC3950_D*(LN(A161))^3</f>
+        <v>208.74090024459892</v>
+      </c>
+      <c r="F161" s="2">
+        <f t="shared" si="3"/>
+        <v>6.7132683248900107E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="54">
+        <v>483</v>
+      </c>
+      <c r="B162">
+        <v>210</v>
+      </c>
+      <c r="D162" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A162)+NTC3950_C*(LN(A162))^2+NTC3950_D*(LN(A162))^3</f>
+        <v>209.74009469439</v>
+      </c>
+      <c r="F162" s="2">
+        <f t="shared" si="3"/>
+        <v>6.7550767884229937E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="54">
+        <v>473.3</v>
+      </c>
+      <c r="B163">
+        <v>211</v>
+      </c>
+      <c r="D163" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A163)+NTC3950_C*(LN(A163))^2+NTC3950_D*(LN(A163))^3</f>
+        <v>210.78440905531045</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6479455432133505E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="54">
+        <v>463.9</v>
+      </c>
+      <c r="B164">
+        <v>212</v>
+      </c>
+      <c r="D164" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A164)+NTC3950_C*(LN(A164))^2+NTC3950_D*(LN(A164))^3</f>
+        <v>211.82067196920798</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="3"/>
+        <v>3.215854262774414E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="54">
+        <v>454.7</v>
+      </c>
+      <c r="B165">
+        <v>213</v>
+      </c>
+      <c r="D165" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A165)+NTC3950_C*(LN(A165))^2+NTC3950_D*(LN(A165))^3</f>
+        <v>212.85903059922154</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9872371955837919E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="54">
+        <v>445.7</v>
+      </c>
+      <c r="B166">
+        <v>214</v>
+      </c>
+      <c r="D166" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A166)+NTC3950_C*(LN(A166))^2+NTC3950_D*(LN(A166))^3</f>
+        <v>213.89895616418471</v>
+      </c>
+      <c r="F166" s="2">
+        <f t="shared" si="3"/>
+        <v>1.020985675626721E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="54">
+        <v>437</v>
+      </c>
+      <c r="B167">
+        <v>215</v>
+      </c>
+      <c r="D167" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A167)+NTC3950_C*(LN(A167))^2+NTC3950_D*(LN(A167))^3</f>
+        <v>214.9279160882877</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1960903277463409E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="54">
+        <v>428.4</v>
+      </c>
+      <c r="B168">
+        <v>216</v>
+      </c>
+      <c r="D168" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A168)+NTC3950_C*(LN(A168))^2+NTC3950_D*(LN(A168))^3</f>
+        <v>215.96895619153801</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="3"/>
+        <v>9.6371804382456737E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="54">
+        <v>420</v>
+      </c>
+      <c r="B169">
+        <v>217</v>
+      </c>
+      <c r="D169" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A169)+NTC3950_C*(LN(A169))^2+NTC3950_D*(LN(A169))^3</f>
+        <v>217.0097418610967</v>
+      </c>
+      <c r="F169" s="2">
+        <f t="shared" si="3"/>
+        <v>9.4903857627391517E-5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="54">
+        <v>411.8</v>
+      </c>
+      <c r="B170">
+        <v>218</v>
+      </c>
+      <c r="D170" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A170)+NTC3950_C*(LN(A170))^2+NTC3950_D*(LN(A170))^3</f>
+        <v>218.04958667430992</v>
+      </c>
+      <c r="F170" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4588382691182152E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="54">
+        <v>403.8</v>
+      </c>
+      <c r="B171">
+        <v>219</v>
+      </c>
+      <c r="D171" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A171)+NTC3950_C*(LN(A171))^2+NTC3950_D*(LN(A171))^3</f>
+        <v>219.08776134711022</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" si="3"/>
+        <v>7.7020540465999147E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="54">
+        <v>396</v>
+      </c>
+      <c r="B172">
+        <v>220</v>
+      </c>
+      <c r="D172" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A172)+NTC3950_C*(LN(A172))^2+NTC3950_D*(LN(A172))^3</f>
+        <v>220.12349251108444</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5250400293939504E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="54">
+        <v>388.40000000000003</v>
+      </c>
+      <c r="B173">
+        <v>221</v>
+      </c>
+      <c r="D173" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A173)+NTC3950_C*(LN(A173))^2+NTC3950_D*(LN(A173))^3</f>
+        <v>221.15596160459768</v>
+      </c>
+      <c r="F173" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4324022108682505E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="54">
+        <v>381</v>
+      </c>
+      <c r="B174">
+        <v>222</v>
+      </c>
+      <c r="D174" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A174)+NTC3950_C*(LN(A174))^2+NTC3950_D*(LN(A174))^3</f>
+        <v>222.18430390187348</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" si="3"/>
+        <v>3.396792824578828E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="54">
+        <v>373.90000000000003</v>
+      </c>
+      <c r="B175">
+        <v>223</v>
+      </c>
+      <c r="D175" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A175)+NTC3950_C*(LN(A175))^2+NTC3950_D*(LN(A175))^3</f>
+        <v>223.19323716235016</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7340600913141356E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="54">
+        <v>366.8</v>
+      </c>
+      <c r="B176">
+        <v>224</v>
+      </c>
+      <c r="D176" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A176)+NTC3950_C*(LN(A176))^2+NTC3950_D*(LN(A176))^3</f>
+        <v>224.22491373295011</v>
+      </c>
+      <c r="F176" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0586187269555133E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="54">
+        <v>360</v>
+      </c>
+      <c r="B177">
+        <v>225</v>
+      </c>
+      <c r="D177" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A177)+NTC3950_C*(LN(A177))^2+NTC3950_D*(LN(A177))^3</f>
+        <v>225.23521471815263</v>
+      </c>
+      <c r="F177" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5325963635622769E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="54">
+        <v>353.3</v>
+      </c>
+      <c r="B178">
+        <v>226</v>
+      </c>
+      <c r="D178" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A178)+NTC3950_C*(LN(A178))^2+NTC3950_D*(LN(A178))^3</f>
+        <v>226.25280930848146</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" si="3"/>
+        <v>6.3912546454874E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="54">
+        <v>346.7</v>
+      </c>
+      <c r="B179">
+        <v>227</v>
+      </c>
+      <c r="D179" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A179)+NTC3950_C*(LN(A179))^2+NTC3950_D*(LN(A179))^3</f>
+        <v>227.27760902237668</v>
+      </c>
+      <c r="F179" s="2">
+        <f t="shared" si="3"/>
+        <v>7.7066769304936056E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="54">
+        <v>340.3</v>
+      </c>
+      <c r="B180">
+        <v>228</v>
+      </c>
+      <c r="D180" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A180)+NTC3950_C*(LN(A180))^2+NTC3950_D*(LN(A180))^3</f>
+        <v>228.29346227010785</v>
+      </c>
+      <c r="F180" s="2">
+        <f t="shared" si="3"/>
+        <v>8.6120103976854129E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="54">
+        <v>334.1</v>
+      </c>
+      <c r="B181">
+        <v>229</v>
+      </c>
+      <c r="D181" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A181)+NTC3950_C*(LN(A181))^2+NTC3950_D*(LN(A181))^3</f>
+        <v>229.29918596958316</v>
+      </c>
+      <c r="F181" s="2">
+        <f t="shared" si="3"/>
+        <v>8.9512244395417676E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="54">
+        <v>328</v>
+      </c>
+      <c r="B182">
+        <v>230</v>
+      </c>
+      <c r="D182" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A182)+NTC3950_C*(LN(A182))^2+NTC3950_D*(LN(A182))^3</f>
+        <v>230.3103001523169</v>
+      </c>
+      <c r="F182" s="2">
+        <f t="shared" si="3"/>
+        <v>9.6286184527890381E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="54">
+        <v>322</v>
+      </c>
+      <c r="B183">
+        <v>231</v>
+      </c>
+      <c r="D183" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A183)+NTC3950_C*(LN(A183))^2+NTC3950_D*(LN(A183))^3</f>
+        <v>231.3266050101675</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10667083266651133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="54">
+        <v>316.09999999999997</v>
+      </c>
+      <c r="B184">
+        <v>232</v>
+      </c>
+      <c r="D184" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A184)+NTC3950_C*(LN(A184))^2+NTC3950_D*(LN(A184))^3</f>
+        <v>232.3478829256249</v>
+      </c>
+      <c r="F184" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12102252994134069</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="54">
+        <v>310.40000000000003</v>
+      </c>
+      <c r="B185">
+        <v>233</v>
+      </c>
+      <c r="D185" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A185)+NTC3950_C*(LN(A185))^2+NTC3950_D*(LN(A185))^3</f>
+        <v>233.35601743014598</v>
+      </c>
+      <c r="F185" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12674841056774946</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="54">
+        <v>304.8</v>
+      </c>
+      <c r="B186">
+        <v>234</v>
+      </c>
+      <c r="D186" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A186)+NTC3950_C*(LN(A186))^2+NTC3950_D*(LN(A186))^3</f>
+        <v>234.36785291234366</v>
+      </c>
+      <c r="F186" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13531576511971585</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="54">
+        <v>299.3</v>
+      </c>
+      <c r="B187">
+        <v>235</v>
+      </c>
+      <c r="D187" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A187)+NTC3950_C*(LN(A187))^2+NTC3950_D*(LN(A187))^3</f>
+        <v>235.38308635650813</v>
+      </c>
+      <c r="F187" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14675515654267421</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="54">
+        <v>294</v>
+      </c>
+      <c r="B188">
+        <v>236</v>
+      </c>
+      <c r="D188" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A188)+NTC3950_C*(LN(A188))^2+NTC3950_D*(LN(A188))^3</f>
+        <v>236.38233612221768</v>
+      </c>
+      <c r="F188" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14618091035245273</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="54">
+        <v>288.8</v>
+      </c>
+      <c r="B189">
+        <v>237</v>
+      </c>
+      <c r="D189" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A189)+NTC3950_C*(LN(A189))^2+NTC3950_D*(LN(A189))^3</f>
+        <v>237.38349583145671</v>
+      </c>
+      <c r="F189" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14706905274467577</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="54">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="B190">
+        <v>238</v>
+      </c>
+      <c r="D190" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A190)+NTC3950_C*(LN(A190))^2+NTC3950_D*(LN(A190))^3</f>
+        <v>238.40603993070522</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16486842532709936</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="54">
+        <v>278.60000000000002</v>
+      </c>
+      <c r="B191">
+        <v>239</v>
+      </c>
+      <c r="D191" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A191)+NTC3950_C*(LN(A191))^2+NTC3950_D*(LN(A191))^3</f>
+        <v>239.41022322046697</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16828309061029612</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="54">
+        <v>273.7</v>
+      </c>
+      <c r="B192">
+        <v>240</v>
+      </c>
+      <c r="D192" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A192)+NTC3950_C*(LN(A192))^2+NTC3950_D*(LN(A192))^3</f>
+        <v>240.41505788293347</v>
+      </c>
+      <c r="F192" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17227304618521216</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="54">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="B193">
+        <v>241</v>
+      </c>
+      <c r="D193" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A193)+NTC3950_C*(LN(A193))^2+NTC3950_D*(LN(A193))^3</f>
+        <v>241.42006932084405</v>
+      </c>
+      <c r="F193" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17645823431438126</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="54">
+        <v>264.2</v>
+      </c>
+      <c r="B194">
+        <v>242</v>
+      </c>
+      <c r="D194" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A194)+NTC3950_C*(LN(A194))^2+NTC3950_D*(LN(A194))^3</f>
+        <v>242.42475525762381</v>
+      </c>
+      <c r="F194" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1804170288790734</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="54">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="B195">
+        <v>243</v>
+      </c>
+      <c r="D195" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A195)+NTC3950_C*(LN(A195))^2+NTC3950_D*(LN(A195))^3</f>
+        <v>243.42858490628279</v>
+      </c>
+      <c r="F195" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18368502189343094</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="54">
+        <v>255.1</v>
+      </c>
+      <c r="B196">
+        <v>244</v>
+      </c>
+      <c r="D196" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A196)+NTC3950_C*(LN(A196))^2+NTC3950_D*(LN(A196))^3</f>
+        <v>244.4309981794467</v>
+      </c>
+      <c r="F196" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18575943068637282</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="54">
+        <v>250.7</v>
+      </c>
+      <c r="B197">
+        <v>245</v>
+      </c>
+      <c r="D197" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A197)+NTC3950_C*(LN(A197))^2+NTC3950_D*(LN(A197))^3</f>
+        <v>245.43140495024798</v>
+      </c>
+      <c r="F197" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18611023109846248</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="54">
+        <v>246.4</v>
+      </c>
+      <c r="B198">
+        <v>246</v>
+      </c>
+      <c r="D198" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A198)+NTC3950_C*(LN(A198))^2+NTC3950_D*(LN(A198))^3</f>
+        <v>246.42918437465011</v>
+      </c>
+      <c r="F198" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1841992274438024</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="54">
+        <v>242.2</v>
+      </c>
+      <c r="B199">
+        <v>247</v>
+      </c>
+      <c r="D199" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A199)+NTC3950_C*(LN(A199))^2+NTC3950_D*(LN(A199))^3</f>
+        <v>247.42368428664051</v>
+      </c>
+      <c r="F199" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17950837474607648</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="54">
+        <v>238</v>
+      </c>
+      <c r="B200">
+        <v>248</v>
+      </c>
+      <c r="D200" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A200)+NTC3950_C*(LN(A200))^2+NTC3950_D*(LN(A200))^3</f>
+        <v>248.43862962138354</v>
+      </c>
+      <c r="F200" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19239594475506833</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="54">
+        <v>234</v>
+      </c>
+      <c r="B201">
+        <v>249</v>
+      </c>
+      <c r="D201" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A201)+NTC3950_C*(LN(A201))^2+NTC3950_D*(LN(A201))^3</f>
+        <v>249.42497642681673</v>
+      </c>
+      <c r="F201" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1806049633499128</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="54">
+        <v>230</v>
+      </c>
+      <c r="B202">
+        <v>250</v>
+      </c>
+      <c r="D202" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A202)+NTC3950_C*(LN(A202))^2+NTC3950_D*(LN(A202))^3</f>
+        <v>250.43130807146727</v>
+      </c>
+      <c r="F202" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18602665251281636</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="54">
+        <v>226.20000000000002</v>
+      </c>
+      <c r="B203">
+        <v>251</v>
+      </c>
+      <c r="D203" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A203)+NTC3950_C*(LN(A203))^2+NTC3950_D*(LN(A203))^3</f>
+        <v>251.4065281733148</v>
+      </c>
+      <c r="F203" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16526515569866559</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="54">
+        <v>222.3</v>
+      </c>
+      <c r="B204">
+        <v>252</v>
+      </c>
+      <c r="D204" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A204)+NTC3950_C*(LN(A204))^2+NTC3950_D*(LN(A204))^3</f>
+        <v>252.42760568852947</v>
+      </c>
+      <c r="F204" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18284662486276032</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="54">
+        <v>218.6</v>
+      </c>
+      <c r="B205">
+        <v>253</v>
+      </c>
+      <c r="D205" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A205)+NTC3950_C*(LN(A205))^2+NTC3950_D*(LN(A205))^3</f>
+        <v>253.41593831500091</v>
+      </c>
+      <c r="F205" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17300468188580026</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="54">
+        <v>215</v>
+      </c>
+      <c r="B206">
+        <v>254</v>
+      </c>
+      <c r="D206" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A206)+NTC3950_C*(LN(A206))^2+NTC3950_D*(LN(A206))^3</f>
+        <v>254.39658005867585</v>
+      </c>
+      <c r="F206" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15727574293934213</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="54">
+        <v>211.4</v>
+      </c>
+      <c r="B207">
+        <v>255</v>
+      </c>
+      <c r="D207" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A207)+NTC3950_C*(LN(A207))^2+NTC3950_D*(LN(A207))^3</f>
+        <v>255.39667723344829</v>
+      </c>
+      <c r="F207" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15735282753618668</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="54">
+        <v>207.9</v>
+      </c>
+      <c r="B208">
+        <v>256</v>
+      </c>
+      <c r="D208" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A208)+NTC3950_C*(LN(A208))^2+NTC3950_D*(LN(A208))^3</f>
+        <v>256.38833612354836</v>
+      </c>
+      <c r="F208" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15080494485256418</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="54">
+        <v>204.5</v>
+      </c>
+      <c r="B209">
+        <v>257</v>
+      </c>
+      <c r="D209" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A209)+NTC3950_C*(LN(A209))^2+NTC3950_D*(LN(A209))^3</f>
+        <v>257.37059597457488</v>
+      </c>
+      <c r="F209" s="2">
+        <f t="shared" ref="F209:F252" si="4">(D209-B209)^2</f>
+        <v>0.13734137637110719</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="54">
+        <v>201.1</v>
+      </c>
+      <c r="B210">
+        <v>258</v>
+      </c>
+      <c r="D210" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A210)+NTC3950_C*(LN(A210))^2+NTC3950_D*(LN(A210))^3</f>
+        <v>258.37220228728239</v>
+      </c>
+      <c r="F210" s="2">
+        <f t="shared" si="4"/>
+        <v>0.13853454265824378</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="54">
+        <v>197.8</v>
+      </c>
+      <c r="B211">
+        <v>259</v>
+      </c>
+      <c r="D211" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A211)+NTC3950_C*(LN(A211))^2+NTC3950_D*(LN(A211))^3</f>
+        <v>259.36352976944636</v>
+      </c>
+      <c r="F211" s="2">
+        <f t="shared" si="4"/>
+        <v>0.13215389327372282</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="54">
+        <v>194.6</v>
+      </c>
+      <c r="B212">
+        <v>260</v>
+      </c>
+      <c r="D212" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A212)+NTC3950_C*(LN(A212))^2+NTC3950_D*(LN(A212))^3</f>
+        <v>260.34352044540259</v>
+      </c>
+      <c r="F212" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11800629640959334</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="54">
+        <v>191.39999999999998</v>
+      </c>
+      <c r="B213">
+        <v>261</v>
+      </c>
+      <c r="D213" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A213)+NTC3950_C*(LN(A213))^2+NTC3950_D*(LN(A213))^3</f>
+        <v>261.34259743663199</v>
+      </c>
+      <c r="F213" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11737300358681081</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="54">
+        <v>188.29999999999998</v>
+      </c>
+      <c r="B214">
+        <v>262</v>
+      </c>
+      <c r="D214" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A214)+NTC3950_C*(LN(A214))^2+NTC3950_D*(LN(A214))^3</f>
+        <v>262.3293140674337</v>
+      </c>
+      <c r="F214" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10844775500972727</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="54">
+        <v>185.29999999999998</v>
+      </c>
+      <c r="B215">
+        <v>263</v>
+      </c>
+      <c r="D215" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A215)+NTC3950_C*(LN(A215))^2+NTC3950_D*(LN(A215))^3</f>
+        <v>263.30251144472197</v>
+      </c>
+      <c r="F215" s="2">
+        <f t="shared" si="4"/>
+        <v>9.1513174187774785E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="54">
+        <v>182.29999999999998</v>
+      </c>
+      <c r="B216">
+        <v>264</v>
+      </c>
+      <c r="D216" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A216)+NTC3950_C*(LN(A216))^2+NTC3950_D*(LN(A216))^3</f>
+        <v>264.29436496345659</v>
+      </c>
+      <c r="F216" s="2">
+        <f t="shared" si="4"/>
+        <v>8.6650731710797943E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="54">
+        <v>179.4</v>
+      </c>
+      <c r="B217">
+        <v>265</v>
+      </c>
+      <c r="D217" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A217)+NTC3950_C*(LN(A217))^2+NTC3950_D*(LN(A217))^3</f>
+        <v>265.27152255104681</v>
+      </c>
+      <c r="F217" s="2">
+        <f t="shared" si="4"/>
+        <v>7.3724495726969957E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="54">
+        <v>176.5</v>
+      </c>
+      <c r="B218">
+        <v>266</v>
+      </c>
+      <c r="D218" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A218)+NTC3950_C*(LN(A218))^2+NTC3950_D*(LN(A218))^3</f>
+        <v>266.26738147087553</v>
+      </c>
+      <c r="F218" s="2">
+        <f t="shared" si="4"/>
+        <v>7.1492850967564261E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="54">
+        <v>173.7</v>
+      </c>
+      <c r="B219">
+        <v>267</v>
+      </c>
+      <c r="D219" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A219)+NTC3950_C*(LN(A219))^2+NTC3950_D*(LN(A219))^3</f>
+        <v>267.24727681681014</v>
+      </c>
+      <c r="F219" s="2">
+        <f t="shared" si="4"/>
+        <v>6.1145824131756753E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="54">
+        <v>171</v>
+      </c>
+      <c r="B220">
+        <v>268</v>
+      </c>
+      <c r="D220" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A220)+NTC3950_C*(LN(A220))^2+NTC3950_D*(LN(A220))^3</f>
+        <v>268.20987773534068</v>
+      </c>
+      <c r="F220" s="2">
+        <f t="shared" si="4"/>
+        <v>4.4048663791733819E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="54">
+        <v>168.3</v>
+      </c>
+      <c r="B221">
+        <v>269</v>
+      </c>
+      <c r="D221" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A221)+NTC3950_C*(LN(A221))^2+NTC3950_D*(LN(A221))^3</f>
+        <v>269.1904670636161</v>
+      </c>
+      <c r="F221" s="2">
+        <f t="shared" si="4"/>
+        <v>3.6277702322538428E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="54">
+        <v>165.6</v>
+      </c>
+      <c r="B222">
+        <v>270</v>
+      </c>
+      <c r="D222" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A222)+NTC3950_C*(LN(A222))^2+NTC3950_D*(LN(A222))^3</f>
+        <v>270.18967691858552</v>
+      </c>
+      <c r="F222" s="2">
+        <f t="shared" si="4"/>
+        <v>3.5977333444097662E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="54">
+        <v>163</v>
+      </c>
+      <c r="B223">
+        <v>271</v>
+      </c>
+      <c r="D223" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A223)+NTC3950_C*(LN(A223))^2+NTC3950_D*(LN(A223))^3</f>
+        <v>271.17009834356566</v>
+      </c>
+      <c r="F223" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8933446483779723E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="54">
+        <v>160.39999999999998</v>
+      </c>
+      <c r="B224">
+        <v>272</v>
+      </c>
+      <c r="D224" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A224)+NTC3950_C*(LN(A224))^2+NTC3950_D*(LN(A224))^3</f>
+        <v>272.16902779233635</v>
+      </c>
+      <c r="F224" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8570394582100603E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="54">
+        <v>157.9</v>
+      </c>
+      <c r="B225">
+        <v>273</v>
+      </c>
+      <c r="D225" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A225)+NTC3950_C*(LN(A225))^2+NTC3950_D*(LN(A225))^3</f>
+        <v>273.14760225338432</v>
+      </c>
+      <c r="F225" s="2">
+        <f t="shared" si="4"/>
+        <v>2.1786425204129194E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="54">
+        <v>155.5</v>
+      </c>
+      <c r="B226">
+        <v>274</v>
+      </c>
+      <c r="D226" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A226)+NTC3950_C*(LN(A226))^2+NTC3950_D*(LN(A226))^3</f>
+        <v>274.10427375605337</v>
+      </c>
+      <c r="F226" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0873016201478498E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="54">
+        <v>153.10000000000002</v>
+      </c>
+      <c r="B227">
+        <v>275</v>
+      </c>
+      <c r="D227" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A227)+NTC3950_C*(LN(A227))^2+NTC3950_D*(LN(A227))^3</f>
+        <v>275.07841193882467</v>
+      </c>
+      <c r="F227" s="2">
+        <f t="shared" si="4"/>
+        <v>6.1484321502441406E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="54">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="B228">
+        <v>276</v>
+      </c>
+      <c r="D228" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A228)+NTC3950_C*(LN(A228))^2+NTC3950_D*(LN(A228))^3</f>
+        <v>276.07061625455913</v>
+      </c>
+      <c r="F228" s="2">
+        <f t="shared" si="4"/>
+        <v>4.9866554079594106E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="54">
+        <v>148.4</v>
+      </c>
+      <c r="B229">
+        <v>277</v>
+      </c>
+      <c r="D229" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A229)+NTC3950_C*(LN(A229))^2+NTC3950_D*(LN(A229))^3</f>
+        <v>277.03901402460417</v>
+      </c>
+      <c r="F229" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5220941158148624E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="54">
+        <v>146.1</v>
+      </c>
+      <c r="B230">
+        <v>278</v>
+      </c>
+      <c r="D230" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A230)+NTC3950_C*(LN(A230))^2+NTC3950_D*(LN(A230))^3</f>
+        <v>278.02516463794251</v>
+      </c>
+      <c r="F230" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3325900277759733E-4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="54">
+        <v>143.9</v>
+      </c>
+      <c r="B231">
+        <v>279</v>
+      </c>
+      <c r="D231" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A231)+NTC3950_C*(LN(A231))^2+NTC3950_D*(LN(A231))^3</f>
+        <v>278.98561484014988</v>
+      </c>
+      <c r="F231" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0693282391354628E-4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="54">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="B232">
+        <v>280</v>
+      </c>
+      <c r="D232" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A232)+NTC3950_C*(LN(A232))^2+NTC3950_D*(LN(A232))^3</f>
+        <v>279.96342942937804</v>
+      </c>
+      <c r="F232" s="2">
+        <f t="shared" si="4"/>
+        <v>1.33740663561587E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="54">
+        <v>139.6</v>
+      </c>
+      <c r="B233">
+        <v>281</v>
+      </c>
+      <c r="D233" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A233)+NTC3950_C*(LN(A233))^2+NTC3950_D*(LN(A233))^3</f>
+        <v>280.91353806365419</v>
+      </c>
+      <c r="F233" s="2">
+        <f t="shared" si="4"/>
+        <v>7.4756664366674589E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="54">
+        <v>137.5</v>
+      </c>
+      <c r="B234">
+        <v>282</v>
+      </c>
+      <c r="D234" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A234)+NTC3950_C*(LN(A234))^2+NTC3950_D*(LN(A234))^3</f>
+        <v>281.88054421327905</v>
+      </c>
+      <c r="F234" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4269684981120677E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="54">
+        <v>135.4</v>
+      </c>
+      <c r="B235">
+        <v>283</v>
+      </c>
+      <c r="D235" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A235)+NTC3950_C*(LN(A235))^2+NTC3950_D*(LN(A235))^3</f>
+        <v>282.86501255817274</v>
+      </c>
+      <c r="F235" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8221609451068824E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="54">
+        <v>133.39999999999998</v>
+      </c>
+      <c r="B236">
+        <v>284</v>
+      </c>
+      <c r="D236" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A236)+NTC3950_C*(LN(A236))^2+NTC3950_D*(LN(A236))^3</f>
+        <v>283.81937808190736</v>
+      </c>
+      <c r="F236" s="2">
+        <f t="shared" si="4"/>
+        <v>3.2624277295464535E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="54">
+        <v>131.39999999999998</v>
+      </c>
+      <c r="B237">
+        <v>285</v>
+      </c>
+      <c r="D237" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A237)+NTC3950_C*(LN(A237))^2+NTC3950_D*(LN(A237))^3</f>
+        <v>284.79065675289058</v>
+      </c>
+      <c r="F237" s="2">
+        <f t="shared" si="4"/>
+        <v>4.382459511031405E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="54">
+        <v>129.5</v>
+      </c>
+      <c r="B238">
+        <v>286</v>
+      </c>
+      <c r="D238" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A238)+NTC3950_C*(LN(A238))^2+NTC3950_D*(LN(A238))^3</f>
+        <v>285.72954993283008</v>
+      </c>
+      <c r="F238" s="2">
+        <f t="shared" si="4"/>
+        <v>7.3143238832213117E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="54">
+        <v>127.5</v>
+      </c>
+      <c r="B239">
+        <v>287</v>
+      </c>
+      <c r="D239" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A239)+NTC3950_C*(LN(A239))^2+NTC3950_D*(LN(A239))^3</f>
+        <v>286.73545439202616</v>
+      </c>
+      <c r="F239" s="2">
+        <f t="shared" si="4"/>
+        <v>6.9984378698250624E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="54">
+        <v>125.7</v>
+      </c>
+      <c r="B240">
+        <v>288</v>
+      </c>
+      <c r="D240" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A240)+NTC3950_C*(LN(A240))^2+NTC3950_D*(LN(A240))^3</f>
+        <v>287.65670114112407</v>
+      </c>
+      <c r="F240" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11785410650551283</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="54">
+        <v>123.8</v>
+      </c>
+      <c r="B241">
+        <v>289</v>
+      </c>
+      <c r="D241" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A241)+NTC3950_C*(LN(A241))^2+NTC3950_D*(LN(A241))^3</f>
+        <v>288.64604499569123</v>
+      </c>
+      <c r="F241" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12528414507522345</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="54">
+        <v>122</v>
+      </c>
+      <c r="B242">
+        <v>290</v>
+      </c>
+      <c r="D242" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A242)+NTC3950_C*(LN(A242))^2+NTC3950_D*(LN(A242))^3</f>
+        <v>289.59986334542259</v>
+      </c>
+      <c r="F242" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16010934233640073</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="54">
+        <v>120.2</v>
+      </c>
+      <c r="B243">
+        <v>291</v>
+      </c>
+      <c r="D243" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A243)+NTC3950_C*(LN(A243))^2+NTC3950_D*(LN(A243))^3</f>
+        <v>290.57030868163361</v>
+      </c>
+      <c r="F243" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1846346290794503</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="54">
+        <v>118.5</v>
+      </c>
+      <c r="B244">
+        <v>292</v>
+      </c>
+      <c r="D244" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A244)+NTC3950_C*(LN(A244))^2+NTC3950_D*(LN(A244))^3</f>
+        <v>291.50259781805011</v>
+      </c>
+      <c r="F244" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24740893060851585</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="54">
+        <v>116.8</v>
+      </c>
+      <c r="B245">
+        <v>293</v>
+      </c>
+      <c r="D245" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A245)+NTC3950_C*(LN(A245))^2+NTC3950_D*(LN(A245))^3</f>
+        <v>292.45068356454397</v>
+      </c>
+      <c r="F245" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30174854626212416</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="54">
+        <v>115.1</v>
+      </c>
+      <c r="B246">
+        <v>294</v>
+      </c>
+      <c r="D246" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A246)+NTC3950_C*(LN(A246))^2+NTC3950_D*(LN(A246))^3</f>
+        <v>293.41506852530642</v>
+      </c>
+      <c r="F246" s="2">
+        <f t="shared" si="4"/>
+        <v>0.34214483008720165</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="54">
+        <v>113.4</v>
+      </c>
+      <c r="B247">
+        <v>295</v>
+      </c>
+      <c r="D247" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A247)+NTC3950_C*(LN(A247))^2+NTC3950_D*(LN(A247))^3</f>
+        <v>294.39627899857845</v>
+      </c>
+      <c r="F247" s="2">
+        <f t="shared" si="4"/>
+        <v>0.36447904755743615</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="54">
+        <v>111.8</v>
+      </c>
+      <c r="B248">
+        <v>296</v>
+      </c>
+      <c r="D248" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A248)+NTC3950_C*(LN(A248))^2+NTC3950_D*(LN(A248))^3</f>
+        <v>295.33563477837231</v>
+      </c>
+      <c r="F248" s="2">
+        <f t="shared" si="4"/>
+        <v>0.44138114770841036</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="54">
+        <v>110.2</v>
+      </c>
+      <c r="B249">
+        <v>297</v>
+      </c>
+      <c r="D249" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A249)+NTC3950_C*(LN(A249))^2+NTC3950_D*(LN(A249))^3</f>
+        <v>296.2908645210083</v>
+      </c>
+      <c r="F249" s="2">
+        <f t="shared" si="4"/>
+        <v>0.50287312756478453</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="54">
+        <v>108.60000000000001</v>
+      </c>
+      <c r="B250">
+        <v>298</v>
+      </c>
+      <c r="D250" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A250)+NTC3950_C*(LN(A250))^2+NTC3950_D*(LN(A250))^3</f>
+        <v>297.26247194768848</v>
+      </c>
+      <c r="F250" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54394762794642115</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="54">
+        <v>107.1</v>
+      </c>
+      <c r="B251">
+        <v>299</v>
+      </c>
+      <c r="D251" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A251)+NTC3950_C*(LN(A251))^2+NTC3950_D*(LN(A251))^3</f>
+        <v>298.18869684072882</v>
+      </c>
+      <c r="F251" s="2">
+        <f t="shared" si="4"/>
+        <v>0.65821281624339179</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="54">
+        <v>105.6</v>
+      </c>
+      <c r="B252">
+        <v>300</v>
+      </c>
+      <c r="D252" s="4">
+        <f>NTC3950_A+NTC3950_B*LN(A252)+NTC3950_C*(LN(A252))^2+NTC3950_D*(LN(A252))^3</f>
+        <v>299.13023411956874</v>
+      </c>
+      <c r="F252" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75649268676236414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D939AE-2449-4D28-AE7D-D236980FF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29129B32-7455-410F-A8C2-B57309B9E62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="164">
   <si>
     <t>Vin</t>
   </si>
@@ -610,6 +610,24 @@
   </si>
   <si>
     <t>DegC</t>
+  </si>
+  <si>
+    <t>t-min</t>
+  </si>
+  <si>
+    <t>t-max</t>
+  </si>
+  <si>
+    <t>v-min</t>
+  </si>
+  <si>
+    <t>i-min mA</t>
+  </si>
+  <si>
+    <t>i-max mA</t>
+  </si>
+  <si>
+    <t>v-max</t>
   </si>
 </sst>
 </file>
@@ -9206,7 +9224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3140C9DF-2692-47E8-B5FD-96C592C7023B}">
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12962,10 +12982,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66658717-C5D7-4239-91FE-70F1BC01BC7C}">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13177,7 +13197,13 @@
         <v>875</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
       <c r="G17">
         <v>19</v>
       </c>
@@ -13185,12 +13211,54 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
       <c r="G18">
         <v>20</v>
       </c>
       <c r="H18">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="3">
+        <f>(C17-ROTOR_A)/ROTOR_B</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="3">
+        <f>(C18-ROTOR_A)/ROTOR_B</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21">
+        <f>C19*$C$5/1000</f>
+        <v>0.22559999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22">
+        <f>C20*$C$5/1000</f>
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>
@@ -13260,11 +13328,11 @@
         <v>53</v>
       </c>
       <c r="D5" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A5)+NTC3950_C*(LN(A5))^2+NTC3950_D*(LN(A5))^3</f>
+        <f t="shared" ref="D5:D68" si="0">NTC3950_A+NTC3950_B*LN(A5)+NTC3950_C*(LN(A5))^2+NTC3950_D*(LN(A5))^3</f>
         <v>52.42263514741154</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F16" si="0">(D5-B5)^2</f>
+        <f t="shared" ref="F5:F16" si="1">(D5-B5)^2</f>
         <v>0.33335017300449366</v>
       </c>
     </row>
@@ -13276,11 +13344,11 @@
         <v>54</v>
       </c>
       <c r="D6" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A6)+NTC3950_C*(LN(A6))^2+NTC3950_D*(LN(A6))^3</f>
+        <f t="shared" si="0"/>
         <v>53.436866388510282</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31711946438945277</v>
       </c>
     </row>
@@ -13292,11 +13360,11 @@
         <v>55</v>
       </c>
       <c r="D7" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A7)+NTC3950_C*(LN(A7))^2+NTC3950_D*(LN(A7))^3</f>
+        <f t="shared" si="0"/>
         <v>54.447559871314979</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30519009578152223</v>
       </c>
     </row>
@@ -13308,11 +13376,11 @@
         <v>56</v>
       </c>
       <c r="D8" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A8)+NTC3950_C*(LN(A8))^2+NTC3950_D*(LN(A8))^3</f>
+        <f t="shared" si="0"/>
         <v>55.498297015549156</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25170588460688409</v>
       </c>
     </row>
@@ -13324,11 +13392,11 @@
         <v>57</v>
       </c>
       <c r="D9" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A9)+NTC3950_C*(LN(A9))^2+NTC3950_D*(LN(A9))^3</f>
+        <f t="shared" si="0"/>
         <v>56.545727522509139</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20636348380568448</v>
       </c>
     </row>
@@ -13340,11 +13408,11 @@
         <v>58</v>
       </c>
       <c r="D10" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A10)+NTC3950_C*(LN(A10))^2+NTC3950_D*(LN(A10))^3</f>
+        <f t="shared" si="0"/>
         <v>57.589893306045894</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16818750042596642</v>
       </c>
     </row>
@@ -13356,11 +13424,11 @@
         <v>59</v>
       </c>
       <c r="D11" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A11)+NTC3950_C*(LN(A11))^2+NTC3950_D*(LN(A11))^3</f>
+        <f t="shared" si="0"/>
         <v>58.630839718979075</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13627931308344809</v>
       </c>
     </row>
@@ -13372,11 +13440,11 @@
         <v>60</v>
       </c>
       <c r="D12" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A12)+NTC3950_C*(LN(A12))^2+NTC3950_D*(LN(A12))^3</f>
+        <f t="shared" si="0"/>
         <v>59.668610243007379</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10981917103962853</v>
       </c>
     </row>
@@ -13388,11 +13456,11 @@
         <v>61</v>
       </c>
       <c r="D13" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A13)+NTC3950_C*(LN(A13))^2+NTC3950_D*(LN(A13))^3</f>
+        <f t="shared" si="0"/>
         <v>60.718148797516506</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9440100341391817E-2</v>
       </c>
     </row>
@@ -13404,11 +13472,11 @@
         <v>62</v>
       </c>
       <c r="D14" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A14)+NTC3950_C*(LN(A14))^2+NTC3950_D*(LN(A14))^3</f>
+        <f t="shared" si="0"/>
         <v>61.764750045833409</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.534254093538301E-2</v>
       </c>
     </row>
@@ -13420,11 +13488,11 @@
         <v>63</v>
       </c>
       <c r="D15" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A15)+NTC3950_C*(LN(A15))^2+NTC3950_D*(LN(A15))^3</f>
+        <f t="shared" si="0"/>
         <v>62.808482520599398</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6678944915960028E-2</v>
       </c>
     </row>
@@ -13436,11 +13504,11 @@
         <v>64</v>
       </c>
       <c r="D16" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A16)+NTC3950_C*(LN(A16))^2+NTC3950_D*(LN(A16))^3</f>
+        <f t="shared" si="0"/>
         <v>63.8493946864279</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2681960476150686E-2</v>
       </c>
     </row>
@@ -13452,11 +13520,11 @@
         <v>65</v>
       </c>
       <c r="D17" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A17)+NTC3950_C*(LN(A17))^2+NTC3950_D*(LN(A17))^3</f>
+        <f t="shared" si="0"/>
         <v>64.887504707873347</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17:F80" si="1">(D17-B17)^2</f>
+        <f t="shared" ref="F17:F80" si="2">(D17-B17)^2</f>
         <v>1.2655190750660919E-2</v>
       </c>
     </row>
@@ -13468,11 +13536,11 @@
         <v>66</v>
       </c>
       <c r="D18" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A18)+NTC3950_C*(LN(A18))^2+NTC3950_D*(LN(A18))^3</f>
+        <f t="shared" si="0"/>
         <v>65.92760931463954</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2404113269571666E-3</v>
       </c>
     </row>
@@ -13484,11 +13552,11 @@
         <v>67</v>
       </c>
       <c r="D19" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A19)+NTC3950_C*(LN(A19))^2+NTC3950_D*(LN(A19))^3</f>
+        <f t="shared" si="0"/>
         <v>66.965186290233532</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2119943877038403E-3</v>
       </c>
     </row>
@@ -13500,11 +13568,11 @@
         <v>68</v>
       </c>
       <c r="D20" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A20)+NTC3950_C*(LN(A20))^2+NTC3950_D*(LN(A20))^3</f>
+        <f t="shared" si="0"/>
         <v>68.000104808006711</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0984718270681634E-8</v>
       </c>
     </row>
@@ -13516,11 +13584,11 @@
         <v>69</v>
       </c>
       <c r="D21" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A21)+NTC3950_C*(LN(A21))^2+NTC3950_D*(LN(A21))^3</f>
+        <f t="shared" si="0"/>
         <v>69.032638315126519</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0652596142979619E-3</v>
       </c>
     </row>
@@ -13532,11 +13600,11 @@
         <v>70</v>
       </c>
       <c r="D22" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A22)+NTC3950_C*(LN(A22))^2+NTC3950_D*(LN(A22))^3</f>
+        <f t="shared" si="0"/>
         <v>70.06268908130798</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9299209152384874E-3</v>
       </c>
     </row>
@@ -13548,11 +13616,11 @@
         <v>71</v>
       </c>
       <c r="D23" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A23)+NTC3950_C*(LN(A23))^2+NTC3950_D*(LN(A23))^3</f>
+        <f t="shared" si="0"/>
         <v>71.111289769013496</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2385412687077237E-2</v>
       </c>
     </row>
@@ -13564,11 +13632,11 @@
         <v>72</v>
       </c>
       <c r="D24" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A24)+NTC3950_C*(LN(A24))^2+NTC3950_D*(LN(A24))^3</f>
+        <f t="shared" si="0"/>
         <v>72.157623496035541</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4845166502466119E-2</v>
       </c>
     </row>
@@ -13580,11 +13648,11 @@
         <v>73</v>
       </c>
       <c r="D25" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A25)+NTC3950_C*(LN(A25))^2+NTC3950_D*(LN(A25))^3</f>
+        <f t="shared" si="0"/>
         <v>73.201778634052431</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0714617160064873E-2</v>
       </c>
     </row>
@@ -13596,11 +13664,11 @@
         <v>74</v>
       </c>
       <c r="D26" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A26)+NTC3950_C*(LN(A26))^2+NTC3950_D*(LN(A26))^3</f>
+        <f t="shared" si="0"/>
         <v>74.24375508785073</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9416542853116865E-2</v>
       </c>
     </row>
@@ -13612,11 +13680,11 @@
         <v>75</v>
       </c>
       <c r="D27" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A27)+NTC3950_C*(LN(A27))^2+NTC3950_D*(LN(A27))^3</f>
+        <f t="shared" si="0"/>
         <v>75.283441029901752</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.033881743176588E-2</v>
       </c>
     </row>
@@ -13628,11 +13696,11 @@
         <v>76</v>
       </c>
       <c r="D28" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A28)+NTC3950_C*(LN(A28))^2+NTC3950_D*(LN(A28))^3</f>
+        <f t="shared" si="0"/>
         <v>76.288699239726867</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3347251018871055E-2</v>
       </c>
     </row>
@@ -13644,11 +13712,11 @@
         <v>77</v>
       </c>
       <c r="D29" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A29)+NTC3950_C*(LN(A29))^2+NTC3950_D*(LN(A29))^3</f>
+        <f t="shared" si="0"/>
         <v>77.292149861223209</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5351541412739998E-2</v>
       </c>
     </row>
@@ -13660,11 +13728,11 @@
         <v>78</v>
       </c>
       <c r="D30" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A30)+NTC3950_C*(LN(A30))^2+NTC3950_D*(LN(A30))^3</f>
+        <f t="shared" si="0"/>
         <v>78.29323135048179</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5984624905374271E-2</v>
       </c>
     </row>
@@ -13676,11 +13744,11 @@
         <v>79</v>
       </c>
       <c r="D31" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A31)+NTC3950_C*(LN(A31))^2+NTC3950_D*(LN(A31))^3</f>
+        <f t="shared" si="0"/>
         <v>79.292569552173603</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5596942859062691E-2</v>
       </c>
     </row>
@@ -13692,11 +13760,11 @@
         <v>80</v>
       </c>
       <c r="D32" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A32)+NTC3950_C*(LN(A32))^2+NTC3950_D*(LN(A32))^3</f>
+        <f t="shared" si="0"/>
         <v>80.289727853003996</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3942228806304822E-2</v>
       </c>
     </row>
@@ -13708,11 +13776,11 @@
         <v>81</v>
       </c>
       <c r="D33" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A33)+NTC3950_C*(LN(A33))^2+NTC3950_D*(LN(A33))^3</f>
+        <f t="shared" si="0"/>
         <v>81.310170639729478</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.620582575019343E-2</v>
       </c>
     </row>
@@ -13724,11 +13792,11 @@
         <v>82</v>
       </c>
       <c r="D34" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A34)+NTC3950_C*(LN(A34))^2+NTC3950_D*(LN(A34))^3</f>
+        <f t="shared" si="0"/>
         <v>82.328703720134342</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10804613563015605</v>
       </c>
     </row>
@@ -13740,11 +13808,11 @@
         <v>83</v>
       </c>
       <c r="D35" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A35)+NTC3950_C*(LN(A35))^2+NTC3950_D*(LN(A35))^3</f>
+        <f t="shared" si="0"/>
         <v>83.345218396582993</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11917574133933273</v>
       </c>
     </row>
@@ -13756,11 +13824,11 @@
         <v>84</v>
       </c>
       <c r="D36" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A36)+NTC3950_C*(LN(A36))^2+NTC3950_D*(LN(A36))^3</f>
+        <f t="shared" si="0"/>
         <v>84.360243414781053</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12977531789311358</v>
       </c>
     </row>
@@ -13772,11 +13840,11 @@
         <v>85</v>
       </c>
       <c r="D37" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A37)+NTC3950_C*(LN(A37))^2+NTC3950_D*(LN(A37))^3</f>
+        <f t="shared" si="0"/>
         <v>85.3735771983917</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13955992315819191</v>
       </c>
     </row>
@@ -13788,11 +13856,11 @@
         <v>86</v>
       </c>
       <c r="D38" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A38)+NTC3950_C*(LN(A38))^2+NTC3950_D*(LN(A38))^3</f>
+        <f t="shared" si="0"/>
         <v>86.386908567847769</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14969823987401154</v>
       </c>
     </row>
@@ -13804,11 +13872,11 @@
         <v>87</v>
       </c>
       <c r="D39" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A39)+NTC3950_C*(LN(A39))^2+NTC3950_D*(LN(A39))^3</f>
+        <f t="shared" si="0"/>
         <v>87.398426852461853</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15874395676265904</v>
       </c>
     </row>
@@ -13820,11 +13888,11 @@
         <v>88</v>
       </c>
       <c r="D40" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A40)+NTC3950_C*(LN(A40))^2+NTC3950_D*(LN(A40))^3</f>
+        <f t="shared" si="0"/>
         <v>88.408430482536971</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16681545906538325</v>
       </c>
     </row>
@@ -13836,11 +13904,11 @@
         <v>89</v>
       </c>
       <c r="D41" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A41)+NTC3950_C*(LN(A41))^2+NTC3950_D*(LN(A41))^3</f>
+        <f t="shared" si="0"/>
         <v>89.416995757482397</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1738854617583179</v>
       </c>
     </row>
@@ -13852,11 +13920,11 @@
         <v>90</v>
       </c>
       <c r="D42" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A42)+NTC3950_C*(LN(A42))^2+NTC3950_D*(LN(A42))^3</f>
+        <f t="shared" si="0"/>
         <v>90.423928958363206</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17971576173891265</v>
       </c>
     </row>
@@ -13868,11 +13936,11 @@
         <v>91</v>
       </c>
       <c r="D43" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A43)+NTC3950_C*(LN(A43))^2+NTC3950_D*(LN(A43))^3</f>
+        <f t="shared" si="0"/>
         <v>91.444128544065393</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19725016365364556</v>
       </c>
     </row>
@@ -13884,11 +13952,11 @@
         <v>92</v>
       </c>
       <c r="D44" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A44)+NTC3950_C*(LN(A44))^2+NTC3950_D*(LN(A44))^3</f>
+        <f t="shared" si="0"/>
         <v>92.463146850715532</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21450500532771516</v>
       </c>
     </row>
@@ -13900,11 +13968,11 @@
         <v>93</v>
       </c>
       <c r="D45" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A45)+NTC3950_C*(LN(A45))^2+NTC3950_D*(LN(A45))^3</f>
+        <f t="shared" si="0"/>
         <v>93.480560385251124</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23093828387270871</v>
       </c>
     </row>
@@ -13916,11 +13984,11 @@
         <v>94</v>
       </c>
       <c r="D46" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A46)+NTC3950_C*(LN(A46))^2+NTC3950_D*(LN(A46))^3</f>
+        <f t="shared" si="0"/>
         <v>94.496364294271899</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24637751262804045</v>
       </c>
     </row>
@@ -13932,11 +14000,11 @@
         <v>95</v>
       </c>
       <c r="D47" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A47)+NTC3950_C*(LN(A47))^2+NTC3950_D*(LN(A47))^3</f>
+        <f t="shared" si="0"/>
         <v>95.511049757081594</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26117185421315597</v>
       </c>
     </row>
@@ -13948,11 +14016,11 @@
         <v>96</v>
       </c>
       <c r="D48" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A48)+NTC3950_C*(LN(A48))^2+NTC3950_D*(LN(A48))^3</f>
+        <f t="shared" si="0"/>
         <v>96.500750287438052</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25075085036929173</v>
       </c>
     </row>
@@ -13964,11 +14032,11 @@
         <v>97</v>
       </c>
       <c r="D49" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A49)+NTC3950_C*(LN(A49))^2+NTC3950_D*(LN(A49))^3</f>
+        <f t="shared" si="0"/>
         <v>97.489047356281048</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23916731668548274</v>
       </c>
     </row>
@@ -13980,11 +14048,11 @@
         <v>98</v>
       </c>
       <c r="D50" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A50)+NTC3950_C*(LN(A50))^2+NTC3950_D*(LN(A50))^3</f>
+        <f t="shared" si="0"/>
         <v>98.475421093688055</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22602521632354675</v>
       </c>
     </row>
@@ -13996,11 +14064,11 @@
         <v>99</v>
       </c>
       <c r="D51" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A51)+NTC3950_C*(LN(A51))^2+NTC3950_D*(LN(A51))^3</f>
+        <f t="shared" si="0"/>
         <v>99.461279413467224</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21277869728866641</v>
       </c>
     </row>
@@ -14012,11 +14080,11 @@
         <v>100</v>
       </c>
       <c r="D52" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A52)+NTC3950_C*(LN(A52))^2+NTC3950_D*(LN(A52))^3</f>
+        <f t="shared" si="0"/>
         <v>100.44528634122642</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19827992568281241</v>
       </c>
     </row>
@@ -14028,11 +14096,11 @@
         <v>101</v>
       </c>
       <c r="D53" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A53)+NTC3950_C*(LN(A53))^2+NTC3950_D*(LN(A53))^3</f>
+        <f t="shared" si="0"/>
         <v>101.37792068728805</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14282404588027481</v>
       </c>
     </row>
@@ -14044,11 +14112,11 @@
         <v>102</v>
       </c>
       <c r="D54" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A54)+NTC3950_C*(LN(A54))^2+NTC3950_D*(LN(A54))^3</f>
+        <f t="shared" si="0"/>
         <v>102.30891147406152</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5426298806859489E-2</v>
       </c>
     </row>
@@ -14060,11 +14128,11 @@
         <v>103</v>
       </c>
       <c r="D55" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A55)+NTC3950_C*(LN(A55))^2+NTC3950_D*(LN(A55))^3</f>
+        <f t="shared" si="0"/>
         <v>103.23868737882165</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6971664808750766E-2</v>
       </c>
     </row>
@@ -14076,11 +14144,11 @@
         <v>104</v>
       </c>
       <c r="D56" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A56)+NTC3950_C*(LN(A56))^2+NTC3950_D*(LN(A56))^3</f>
+        <f t="shared" si="0"/>
         <v>104.16721503674182</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7960868512569077E-2</v>
       </c>
     </row>
@@ -14092,11 +14160,11 @@
         <v>105</v>
       </c>
       <c r="D57" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A57)+NTC3950_C*(LN(A57))^2+NTC3950_D*(LN(A57))^3</f>
+        <f t="shared" si="0"/>
         <v>105.09391921362214</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8208186874018466E-3</v>
       </c>
     </row>
@@ -14108,11 +14176,11 @@
         <v>106</v>
       </c>
       <c r="D58" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A58)+NTC3950_C*(LN(A58))^2+NTC3950_D*(LN(A58))^3</f>
+        <f t="shared" si="0"/>
         <v>106.08583894752019</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3683249113735043E-3</v>
       </c>
     </row>
@@ -14124,11 +14192,11 @@
         <v>107</v>
       </c>
       <c r="D59" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A59)+NTC3950_C*(LN(A59))^2+NTC3950_D*(LN(A59))^3</f>
+        <f t="shared" si="0"/>
         <v>107.0759537574659</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7689732731882109E-3</v>
       </c>
     </row>
@@ -14140,11 +14208,11 @@
         <v>108</v>
       </c>
       <c r="D60" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A60)+NTC3950_C*(LN(A60))^2+NTC3950_D*(LN(A60))^3</f>
+        <f t="shared" si="0"/>
         <v>108.06541855050142</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2795867497068072E-3</v>
       </c>
     </row>
@@ -14156,11 +14224,11 @@
         <v>109</v>
       </c>
       <c r="D61" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A61)+NTC3950_C*(LN(A61))^2+NTC3950_D*(LN(A61))^3</f>
+        <f t="shared" si="0"/>
         <v>109.05426993102722</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9452254136993483E-3</v>
       </c>
     </row>
@@ -14172,11 +14240,11 @@
         <v>110</v>
       </c>
       <c r="D62" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A62)+NTC3950_C*(LN(A62))^2+NTC3950_D*(LN(A62))^3</f>
+        <f t="shared" si="0"/>
         <v>110.04122458475322</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6994663880756931E-3</v>
       </c>
     </row>
@@ -14188,11 +14256,11 @@
         <v>111</v>
       </c>
       <c r="D63" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A63)+NTC3950_C*(LN(A63))^2+NTC3950_D*(LN(A63))^3</f>
+        <f t="shared" si="0"/>
         <v>111.02772937885103</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6891845146422055E-4</v>
       </c>
     </row>
@@ -14204,11 +14272,11 @@
         <v>112</v>
       </c>
       <c r="D64" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A64)+NTC3950_C*(LN(A64))^2+NTC3950_D*(LN(A64))^3</f>
+        <f t="shared" si="0"/>
         <v>112.01327703047596</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7627953825961675E-4</v>
       </c>
     </row>
@@ -14220,11 +14288,11 @@
         <v>113</v>
       </c>
       <c r="D65" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A65)+NTC3950_C*(LN(A65))^2+NTC3950_D*(LN(A65))^3</f>
+        <f t="shared" si="0"/>
         <v>112.99734411896122</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0537040921346502E-6</v>
       </c>
     </row>
@@ -14236,11 +14304,11 @@
         <v>114</v>
       </c>
       <c r="D66" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A66)+NTC3950_C*(LN(A66))^2+NTC3950_D*(LN(A66))^3</f>
+        <f t="shared" si="0"/>
         <v>113.98095899246721</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6255996786383442E-4</v>
       </c>
     </row>
@@ -14252,11 +14320,11 @@
         <v>115</v>
       </c>
       <c r="D67" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A67)+NTC3950_C*(LN(A67))^2+NTC3950_D*(LN(A67))^3</f>
+        <f t="shared" si="0"/>
         <v>114.96291317662755</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3754324678591518E-3</v>
       </c>
     </row>
@@ -14268,11 +14336,11 @@
         <v>116</v>
       </c>
       <c r="D68" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A68)+NTC3950_C*(LN(A68))^2+NTC3950_D*(LN(A68))^3</f>
+        <f t="shared" si="0"/>
         <v>115.9435601327317</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1854586172628172E-3</v>
       </c>
     </row>
@@ -14284,11 +14352,11 @@
         <v>117</v>
       </c>
       <c r="D69" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A69)+NTC3950_C*(LN(A69))^2+NTC3950_D*(LN(A69))^3</f>
+        <f t="shared" ref="D69:D132" si="3">NTC3950_A+NTC3950_B*LN(A69)+NTC3950_C*(LN(A69))^2+NTC3950_D*(LN(A69))^3</f>
         <v>116.92249354399922</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0072507218002762E-3</v>
       </c>
     </row>
@@ -14300,11 +14368,11 @@
         <v>118</v>
       </c>
       <c r="D70" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A70)+NTC3950_C*(LN(A70))^2+NTC3950_D*(LN(A70))^3</f>
+        <f t="shared" si="3"/>
         <v>117.90108502206036</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7841728608000153E-3</v>
       </c>
     </row>
@@ -14316,11 +14384,11 @@
         <v>119</v>
       </c>
       <c r="D71" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A71)+NTC3950_C*(LN(A71))^2+NTC3950_D*(LN(A71))^3</f>
+        <f t="shared" si="3"/>
         <v>118.87818531894831</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4838816519724589E-2</v>
       </c>
     </row>
@@ -14332,11 +14400,11 @@
         <v>120</v>
       </c>
       <c r="D72" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A72)+NTC3950_C*(LN(A72))^2+NTC3950_D*(LN(A72))^3</f>
+        <f t="shared" si="3"/>
         <v>119.85443584463934</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1188923325862273E-2</v>
       </c>
     </row>
@@ -14348,11 +14416,11 @@
         <v>121</v>
       </c>
       <c r="D73" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A73)+NTC3950_C*(LN(A73))^2+NTC3950_D*(LN(A73))^3</f>
+        <f t="shared" si="3"/>
         <v>120.90185123982465</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.633179123958089E-3</v>
       </c>
     </row>
@@ -14364,11 +14432,11 @@
         <v>122</v>
       </c>
       <c r="D74" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A74)+NTC3950_C*(LN(A74))^2+NTC3950_D*(LN(A74))^3</f>
+        <f t="shared" si="3"/>
         <v>121.94766540516781</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7389098162493774E-3</v>
       </c>
     </row>
@@ -14380,11 +14448,11 @@
         <v>123</v>
       </c>
       <c r="D75" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A75)+NTC3950_C*(LN(A75))^2+NTC3950_D*(LN(A75))^3</f>
+        <f t="shared" si="3"/>
         <v>122.99351281654089</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2083549232208457E-5</v>
       </c>
     </row>
@@ -14396,11 +14464,11 @@
         <v>124</v>
       </c>
       <c r="D76" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A76)+NTC3950_C*(LN(A76))^2+NTC3950_D*(LN(A76))^3</f>
+        <f t="shared" si="3"/>
         <v>124.03807701671758</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4498592021108426E-3</v>
       </c>
     </row>
@@ -14412,11 +14480,11 @@
         <v>125</v>
       </c>
       <c r="D77" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A77)+NTC3950_C*(LN(A77))^2+NTC3950_D*(LN(A77))^3</f>
+        <f t="shared" si="3"/>
         <v>125.08214763785134</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.748234404554132E-3</v>
       </c>
     </row>
@@ -14428,11 +14496,11 @@
         <v>126</v>
       </c>
       <c r="D78" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A78)+NTC3950_C*(LN(A78))^2+NTC3950_D*(LN(A78))^3</f>
+        <f t="shared" si="3"/>
         <v>126.04282628040218</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8340902930862567E-3</v>
       </c>
     </row>
@@ -14444,11 +14512,11 @@
         <v>127</v>
       </c>
       <c r="D79" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A79)+NTC3950_C*(LN(A79))^2+NTC3950_D*(LN(A79))^3</f>
+        <f t="shared" si="3"/>
         <v>127.00219884747975</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8349302391886166E-6</v>
       </c>
     </row>
@@ -14460,11 +14528,11 @@
         <v>128</v>
       </c>
       <c r="D80" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A80)+NTC3950_C*(LN(A80))^2+NTC3950_D*(LN(A80))^3</f>
+        <f t="shared" si="3"/>
         <v>127.96037449085588</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5701809749304383E-3</v>
       </c>
     </row>
@@ -14476,11 +14544,11 @@
         <v>129</v>
       </c>
       <c r="D81" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A81)+NTC3950_C*(LN(A81))^2+NTC3950_D*(LN(A81))^3</f>
+        <f t="shared" si="3"/>
         <v>128.91751964173432</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" ref="F81:F144" si="2">(D81-B81)^2</f>
+        <f t="shared" ref="F81:F144" si="4">(D81-B81)^2</f>
         <v>6.8030094996356059E-3</v>
       </c>
     </row>
@@ -14492,11 +14560,11 @@
         <v>130</v>
       </c>
       <c r="D82" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A82)+NTC3950_C*(LN(A82))^2+NTC3950_D*(LN(A82))^3</f>
+        <f t="shared" si="3"/>
         <v>129.87386347055653</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.591042406004365E-2</v>
       </c>
     </row>
@@ -14508,11 +14576,11 @@
         <v>131</v>
       </c>
       <c r="D83" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A83)+NTC3950_C*(LN(A83))^2+NTC3950_D*(LN(A83))^3</f>
+        <f t="shared" si="3"/>
         <v>130.8775680067273</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4989592976726088E-2</v>
       </c>
     </row>
@@ -14524,11 +14592,11 @@
         <v>132</v>
       </c>
       <c r="D84" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A84)+NTC3950_C*(LN(A84))^2+NTC3950_D*(LN(A84))^3</f>
+        <f t="shared" si="3"/>
         <v>131.87854638019499</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4750981763739868E-2</v>
       </c>
     </row>
@@ -14540,11 +14608,11 @@
         <v>133</v>
       </c>
       <c r="D85" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A85)+NTC3950_C*(LN(A85))^2+NTC3950_D*(LN(A85))^3</f>
+        <f t="shared" si="3"/>
         <v>132.88110836104332</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4135221813806205E-2</v>
       </c>
     </row>
@@ -14556,11 +14624,11 @@
         <v>134</v>
       </c>
       <c r="D86" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A86)+NTC3950_C*(LN(A86))^2+NTC3950_D*(LN(A86))^3</f>
+        <f t="shared" si="3"/>
         <v>133.88140819031898</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4064017323419562E-2</v>
       </c>
     </row>
@@ -14572,11 +14640,11 @@
         <v>135</v>
       </c>
       <c r="D87" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A87)+NTC3950_C*(LN(A87))^2+NTC3950_D*(LN(A87))^3</f>
+        <f t="shared" si="3"/>
         <v>134.88116730301141</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4121209873582206E-2</v>
       </c>
     </row>
@@ -14588,11 +14656,11 @@
         <v>136</v>
       </c>
       <c r="D88" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A88)+NTC3950_C*(LN(A88))^2+NTC3950_D*(LN(A88))^3</f>
+        <f t="shared" si="3"/>
         <v>135.88082372137515</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4202985386867621E-2</v>
       </c>
     </row>
@@ -14604,11 +14672,11 @@
         <v>137</v>
       </c>
       <c r="D89" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A89)+NTC3950_C*(LN(A89))^2+NTC3950_D*(LN(A89))^3</f>
+        <f t="shared" si="3"/>
         <v>136.88091134930863</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4182106723490448E-2</v>
       </c>
     </row>
@@ -14620,11 +14688,11 @@
         <v>138</v>
       </c>
       <c r="D90" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A90)+NTC3950_C*(LN(A90))^2+NTC3950_D*(LN(A90))^3</f>
+        <f t="shared" si="3"/>
         <v>137.87878508910532</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4693054623204959E-2</v>
       </c>
     </row>
@@ -14636,11 +14704,11 @@
         <v>139</v>
       </c>
       <c r="D91" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A91)+NTC3950_C*(LN(A91))^2+NTC3950_D*(LN(A91))^3</f>
+        <f t="shared" si="3"/>
         <v>138.87659100694191</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5229779567612241E-2</v>
       </c>
     </row>
@@ -14652,11 +14720,11 @@
         <v>140</v>
       </c>
       <c r="D92" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A92)+NTC3950_C*(LN(A92))^2+NTC3950_D*(LN(A92))^3</f>
+        <f t="shared" si="3"/>
         <v>139.87330099238736</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6052638530028644E-2</v>
       </c>
     </row>
@@ -14668,11 +14736,11 @@
         <v>141</v>
       </c>
       <c r="D93" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A93)+NTC3950_C*(LN(A93))^2+NTC3950_D*(LN(A93))^3</f>
+        <f t="shared" si="3"/>
         <v>140.88931905070041</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2250272537858889E-2</v>
       </c>
     </row>
@@ -14684,11 +14752,11 @@
         <v>142</v>
       </c>
       <c r="D94" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A94)+NTC3950_C*(LN(A94))^2+NTC3950_D*(LN(A94))^3</f>
+        <f t="shared" si="3"/>
         <v>141.90505685284751</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.014201191219701E-3</v>
       </c>
     </row>
@@ -14700,11 +14768,11 @@
         <v>143</v>
       </c>
       <c r="D95" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A95)+NTC3950_C*(LN(A95))^2+NTC3950_D*(LN(A95))^3</f>
+        <f t="shared" si="3"/>
         <v>142.92133582139837</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.1880529950687586E-3</v>
       </c>
     </row>
@@ -14716,11 +14784,11 @@
         <v>144</v>
       </c>
       <c r="D96" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A96)+NTC3950_C*(LN(A96))^2+NTC3950_D*(LN(A96))^3</f>
+        <f t="shared" si="3"/>
         <v>143.93519685500706</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1994476009755205E-3</v>
       </c>
     </row>
@@ -14732,11 +14800,11 @@
         <v>145</v>
       </c>
       <c r="D97" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A97)+NTC3950_C*(LN(A97))^2+NTC3950_D*(LN(A97))^3</f>
+        <f t="shared" si="3"/>
         <v>144.94941883124062</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5584546330647906E-3</v>
       </c>
     </row>
@@ -14748,11 +14816,11 @@
         <v>146</v>
       </c>
       <c r="D98" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A98)+NTC3950_C*(LN(A98))^2+NTC3950_D*(LN(A98))^3</f>
+        <f t="shared" si="3"/>
         <v>145.94638886517947</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8741537767448459E-3</v>
       </c>
     </row>
@@ -14764,11 +14832,11 @@
         <v>147</v>
       </c>
       <c r="D99" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A99)+NTC3950_C*(LN(A99))^2+NTC3950_D*(LN(A99))^3</f>
+        <f t="shared" si="3"/>
         <v>146.94281651648902</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2699507864508153E-3</v>
       </c>
     </row>
@@ -14780,11 +14848,11 @@
         <v>148</v>
       </c>
       <c r="D100" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A100)+NTC3950_C*(LN(A100))^2+NTC3950_D*(LN(A100))^3</f>
+        <f t="shared" si="3"/>
         <v>147.9398921589289</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6129525582287506E-3</v>
       </c>
     </row>
@@ -14796,11 +14864,11 @@
         <v>149</v>
       </c>
       <c r="D101" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A101)+NTC3950_C*(LN(A101))^2+NTC3950_D*(LN(A101))^3</f>
+        <f t="shared" si="3"/>
         <v>148.93445700566588</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2958841062829128E-3</v>
       </c>
     </row>
@@ -14812,11 +14880,11 @@
         <v>150</v>
       </c>
       <c r="D102" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A102)+NTC3950_C*(LN(A102))^2+NTC3950_D*(LN(A102))^3</f>
+        <f t="shared" si="3"/>
         <v>149.93000089787938</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.899874297692816E-3</v>
       </c>
     </row>
@@ -14828,11 +14896,11 @@
         <v>151</v>
       </c>
       <c r="D103" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A103)+NTC3950_C*(LN(A103))^2+NTC3950_D*(LN(A103))^3</f>
+        <f t="shared" si="3"/>
         <v>150.82770120872243</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9686873475711393E-2</v>
       </c>
     </row>
@@ -14844,11 +14912,11 @@
         <v>152</v>
       </c>
       <c r="D104" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A104)+NTC3950_C*(LN(A104))^2+NTC3950_D*(LN(A104))^3</f>
+        <f t="shared" si="3"/>
         <v>151.72668227211108</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4702580378363331E-2</v>
       </c>
     </row>
@@ -14860,11 +14928,11 @@
         <v>153</v>
       </c>
       <c r="D105" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A105)+NTC3950_C*(LN(A105))^2+NTC3950_D*(LN(A105))^3</f>
+        <f t="shared" si="3"/>
         <v>152.62134782385277</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.14337747050103081</v>
       </c>
     </row>
@@ -14876,11 +14944,11 @@
         <v>154</v>
       </c>
       <c r="D106" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A106)+NTC3950_C*(LN(A106))^2+NTC3950_D*(LN(A106))^3</f>
+        <f t="shared" si="3"/>
         <v>153.51841636273917</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23192279967736681</v>
       </c>
     </row>
@@ -14892,11 +14960,11 @@
         <v>155</v>
       </c>
       <c r="D107" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A107)+NTC3950_C*(LN(A107))^2+NTC3950_D*(LN(A107))^3</f>
+        <f t="shared" si="3"/>
         <v>154.41213416256301</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34558624282549755</v>
       </c>
     </row>
@@ -14908,11 +14976,11 @@
         <v>156</v>
       </c>
       <c r="D108" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A108)+NTC3950_C*(LN(A108))^2+NTC3950_D*(LN(A108))^3</f>
+        <f t="shared" si="3"/>
         <v>155.40178614169258</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35785982027104696</v>
       </c>
     </row>
@@ -14924,11 +14992,11 @@
         <v>157</v>
       </c>
       <c r="D109" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A109)+NTC3950_C*(LN(A109))^2+NTC3950_D*(LN(A109))^3</f>
+        <f t="shared" si="3"/>
         <v>156.39147189823166</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37030645064178258</v>
       </c>
     </row>
@@ -14940,11 +15008,11 @@
         <v>158</v>
       </c>
       <c r="D110" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A110)+NTC3950_C*(LN(A110))^2+NTC3950_D*(LN(A110))^3</f>
+        <f t="shared" si="3"/>
         <v>157.37745280751579</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38756500686996631</v>
       </c>
     </row>
@@ -14956,11 +15024,11 @@
         <v>159</v>
       </c>
       <c r="D111" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A111)+NTC3950_C*(LN(A111))^2+NTC3950_D*(LN(A111))^3</f>
+        <f t="shared" si="3"/>
         <v>158.36443755896437</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40393961645517035</v>
       </c>
     </row>
@@ -14972,11 +15040,11 @@
         <v>160</v>
       </c>
       <c r="D112" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A112)+NTC3950_C*(LN(A112))^2+NTC3950_D*(LN(A112))^3</f>
+        <f t="shared" si="3"/>
         <v>159.35165335139726</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.42035337675440432</v>
       </c>
     </row>
@@ -14988,11 +15056,11 @@
         <v>161</v>
       </c>
       <c r="D113" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A113)+NTC3950_C*(LN(A113))^2+NTC3950_D*(LN(A113))^3</f>
+        <f t="shared" si="3"/>
         <v>160.35690557747216</v>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41357043628641355</v>
       </c>
     </row>
@@ -15004,11 +15072,11 @@
         <v>162</v>
       </c>
       <c r="D114" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A114)+NTC3950_C*(LN(A114))^2+NTC3950_D*(LN(A114))^3</f>
+        <f t="shared" si="3"/>
         <v>161.35848907377084</v>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41153626847139396</v>
       </c>
     </row>
@@ -15020,11 +15088,11 @@
         <v>163</v>
       </c>
       <c r="D115" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A115)+NTC3950_C*(LN(A115))^2+NTC3950_D*(LN(A115))^3</f>
+        <f t="shared" si="3"/>
         <v>162.3617751267131</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40733098888208158</v>
       </c>
     </row>
@@ -15036,11 +15104,11 @@
         <v>164</v>
       </c>
       <c r="D116" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A116)+NTC3950_C*(LN(A116))^2+NTC3950_D*(LN(A116))^3</f>
+        <f t="shared" si="3"/>
         <v>163.36266175546154</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40620003795135945</v>
       </c>
     </row>
@@ -15052,11 +15120,11 @@
         <v>165</v>
       </c>
       <c r="D117" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A117)+NTC3950_C*(LN(A117))^2+NTC3950_D*(LN(A117))^3</f>
+        <f t="shared" si="3"/>
         <v>164.36354568350868</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40507409698043884</v>
       </c>
     </row>
@@ -15068,11 +15136,11 @@
         <v>166</v>
       </c>
       <c r="D118" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A118)+NTC3950_C*(LN(A118))^2+NTC3950_D*(LN(A118))^3</f>
+        <f t="shared" si="3"/>
         <v>165.37779731011474</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38713618730044824</v>
       </c>
     </row>
@@ -15084,11 +15152,11 @@
         <v>167</v>
       </c>
       <c r="D119" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A119)+NTC3950_C*(LN(A119))^2+NTC3950_D*(LN(A119))^3</f>
+        <f t="shared" si="3"/>
         <v>166.39469731413749</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36639134151237052</v>
       </c>
     </row>
@@ -15100,11 +15168,11 @@
         <v>168</v>
       </c>
       <c r="D120" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A120)+NTC3950_C*(LN(A120))^2+NTC3950_D*(LN(A120))^3</f>
+        <f t="shared" si="3"/>
         <v>167.40982848579102</v>
       </c>
       <c r="F120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3483024161837151</v>
       </c>
     </row>
@@ -15116,11 +15184,11 @@
         <v>169</v>
       </c>
       <c r="D121" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A121)+NTC3950_C*(LN(A121))^2+NTC3950_D*(LN(A121))^3</f>
+        <f t="shared" si="3"/>
         <v>168.42216684614203</v>
       </c>
       <c r="F121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33389115369744427</v>
       </c>
     </row>
@@ -15132,11 +15200,11 @@
         <v>170</v>
       </c>
       <c r="D122" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A122)+NTC3950_C*(LN(A122))^2+NTC3950_D*(LN(A122))^3</f>
+        <f t="shared" si="3"/>
         <v>169.43457872581735</v>
       </c>
       <c r="F122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.31970121729833612</v>
       </c>
     </row>
@@ -15148,11 +15216,11 @@
         <v>171</v>
       </c>
       <c r="D123" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A123)+NTC3950_C*(LN(A123))^2+NTC3950_D*(LN(A123))^3</f>
+        <f t="shared" si="3"/>
         <v>170.49506478264573</v>
       </c>
       <c r="F123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25495957372460687</v>
       </c>
     </row>
@@ -15164,11 +15232,11 @@
         <v>172</v>
       </c>
       <c r="D124" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A124)+NTC3950_C*(LN(A124))^2+NTC3950_D*(LN(A124))^3</f>
+        <f t="shared" si="3"/>
         <v>171.55654781415842</v>
       </c>
       <c r="F124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1966498411276745</v>
       </c>
     </row>
@@ -15180,11 +15248,11 @@
         <v>173</v>
       </c>
       <c r="D125" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A125)+NTC3950_C*(LN(A125))^2+NTC3950_D*(LN(A125))^3</f>
+        <f t="shared" si="3"/>
         <v>172.61814163756139</v>
       </c>
       <c r="F125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.14581580896429416</v>
       </c>
     </row>
@@ -15196,11 +15264,11 @@
         <v>174</v>
       </c>
       <c r="D126" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A126)+NTC3950_C*(LN(A126))^2+NTC3950_D*(LN(A126))^3</f>
+        <f t="shared" si="3"/>
         <v>173.67889018170803</v>
       </c>
       <c r="F126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10311151540350373</v>
       </c>
     </row>
@@ -15212,11 +15280,11 @@
         <v>175</v>
       </c>
       <c r="D127" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A127)+NTC3950_C*(LN(A127))^2+NTC3950_D*(LN(A127))^3</f>
+        <f t="shared" si="3"/>
         <v>174.73776469524711</v>
       </c>
       <c r="F127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.8767355058842045E-2</v>
       </c>
     </row>
@@ -15228,11 +15296,11 @@
         <v>176</v>
       </c>
       <c r="D128" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A128)+NTC3950_C*(LN(A128))^2+NTC3950_D*(LN(A128))^3</f>
+        <f t="shared" si="3"/>
         <v>175.71894662569923</v>
       </c>
       <c r="F128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8990999205847692E-2</v>
       </c>
     </row>
@@ -15244,11 +15312,11 @@
         <v>177</v>
       </c>
       <c r="D129" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A129)+NTC3950_C*(LN(A129))^2+NTC3950_D*(LN(A129))^3</f>
+        <f t="shared" si="3"/>
         <v>176.69681820434397</v>
       </c>
       <c r="F129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.1919201217214919E-2</v>
       </c>
     </row>
@@ -15260,11 +15328,11 @@
         <v>178</v>
       </c>
       <c r="D130" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A130)+NTC3950_C*(LN(A130))^2+NTC3950_D*(LN(A130))^3</f>
+        <f t="shared" si="3"/>
         <v>177.67529496902932</v>
       </c>
       <c r="F130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10543335713766798</v>
       </c>
     </row>
@@ -15276,11 +15344,11 @@
         <v>179</v>
       </c>
       <c r="D131" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A131)+NTC3950_C*(LN(A131))^2+NTC3950_D*(LN(A131))^3</f>
+        <f t="shared" si="3"/>
         <v>178.65369752620938</v>
       </c>
       <c r="F131" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1199254033534998</v>
       </c>
     </row>
@@ -15292,11 +15360,11 @@
         <v>180</v>
       </c>
       <c r="D132" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A132)+NTC3950_C*(LN(A132))^2+NTC3950_D*(LN(A132))^3</f>
+        <f t="shared" si="3"/>
         <v>179.62614371216313</v>
       </c>
       <c r="F132" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13976852395516648</v>
       </c>
     </row>
@@ -15308,11 +15376,11 @@
         <v>181</v>
       </c>
       <c r="D133" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A133)+NTC3950_C*(LN(A133))^2+NTC3950_D*(LN(A133))^3</f>
+        <f t="shared" ref="D133:D196" si="5">NTC3950_A+NTC3950_B*LN(A133)+NTC3950_C*(LN(A133))^2+NTC3950_D*(LN(A133))^3</f>
         <v>180.72374899312643</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.6314618798658501E-2</v>
       </c>
     </row>
@@ -15324,11 +15392,11 @@
         <v>182</v>
       </c>
       <c r="D134" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A134)+NTC3950_C*(LN(A134))^2+NTC3950_D*(LN(A134))^3</f>
+        <f t="shared" si="5"/>
         <v>181.81450269498248</v>
       </c>
       <c r="F134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4409250168762992E-2</v>
       </c>
     </row>
@@ -15340,11 +15408,11 @@
         <v>183</v>
       </c>
       <c r="D135" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A135)+NTC3950_C*(LN(A135))^2+NTC3950_D*(LN(A135))^3</f>
+        <f t="shared" si="5"/>
         <v>182.90803121873464</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.4582567274365337E-3</v>
       </c>
     </row>
@@ -15356,11 +15424,11 @@
         <v>184</v>
       </c>
       <c r="D136" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A136)+NTC3950_C*(LN(A136))^2+NTC3950_D*(LN(A136))^3</f>
+        <f t="shared" si="5"/>
         <v>183.99783655516725</v>
       </c>
       <c r="F136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6804935443358382E-6</v>
       </c>
     </row>
@@ -15372,11 +15440,11 @@
         <v>185</v>
       </c>
       <c r="D137" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A137)+NTC3950_C*(LN(A137))^2+NTC3950_D*(LN(A137))^3</f>
+        <f t="shared" si="5"/>
         <v>185.08854963571844</v>
       </c>
       <c r="F137" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8410379858678131E-3</v>
       </c>
     </row>
@@ -15388,11 +15456,11 @@
         <v>186</v>
       </c>
       <c r="D138" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A138)+NTC3950_C*(LN(A138))^2+NTC3950_D*(LN(A138))^3</f>
+        <f t="shared" si="5"/>
         <v>186.07008849563792</v>
       </c>
       <c r="F138" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9123972207865086E-3</v>
       </c>
     </row>
@@ -15404,11 +15472,11 @@
         <v>187</v>
       </c>
       <c r="D139" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A139)+NTC3950_C*(LN(A139))^2+NTC3950_D*(LN(A139))^3</f>
+        <f t="shared" si="5"/>
         <v>187.05126232757868</v>
       </c>
       <c r="F139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6278262287842708E-3</v>
       </c>
     </row>
@@ -15420,11 +15488,11 @@
         <v>188</v>
       </c>
       <c r="D140" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A140)+NTC3950_C*(LN(A140))^2+NTC3950_D*(LN(A140))^3</f>
+        <f t="shared" si="5"/>
         <v>188.03135809485079</v>
       </c>
       <c r="F140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.8333011267099594E-4</v>
       </c>
     </row>
@@ -15436,11 +15504,11 @@
         <v>189</v>
       </c>
       <c r="D141" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A141)+NTC3950_C*(LN(A141))^2+NTC3950_D*(LN(A141))^3</f>
+        <f t="shared" si="5"/>
         <v>189.0096162845299</v>
       </c>
       <c r="F141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.2472928159950053E-5</v>
       </c>
     </row>
@@ -15452,11 +15520,11 @@
         <v>190</v>
       </c>
       <c r="D142" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A142)+NTC3950_C*(LN(A142))^2+NTC3950_D*(LN(A142))^3</f>
+        <f t="shared" si="5"/>
         <v>189.98522954286869</v>
       </c>
       <c r="F142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1816640386773786E-4</v>
       </c>
     </row>
@@ -15468,11 +15536,11 @@
         <v>191</v>
       </c>
       <c r="D143" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A143)+NTC3950_C*(LN(A143))^2+NTC3950_D*(LN(A143))^3</f>
+        <f t="shared" si="5"/>
         <v>191.07364033991996</v>
       </c>
       <c r="F143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4228996635274987E-3</v>
       </c>
     </row>
@@ -15484,11 +15552,11 @@
         <v>192</v>
       </c>
       <c r="D144" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A144)+NTC3950_C*(LN(A144))^2+NTC3950_D*(LN(A144))^3</f>
+        <f t="shared" si="5"/>
         <v>192.15649948277445</v>
       </c>
       <c r="F144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4492088108670346E-2</v>
       </c>
     </row>
@@ -15500,11 +15568,11 @@
         <v>193</v>
       </c>
       <c r="D145" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A145)+NTC3950_C*(LN(A145))^2+NTC3950_D*(LN(A145))^3</f>
+        <f t="shared" si="5"/>
         <v>193.23967817384516</v>
       </c>
       <c r="F145" s="2">
-        <f t="shared" ref="F145:F208" si="3">(D145-B145)^2</f>
+        <f t="shared" ref="F145:F208" si="6">(D145-B145)^2</f>
         <v>5.7445627017752493E-2</v>
       </c>
     </row>
@@ -15516,11 +15584,11 @@
         <v>194</v>
       </c>
       <c r="D146" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A146)+NTC3950_C*(LN(A146))^2+NTC3950_D*(LN(A146))^3</f>
+        <f t="shared" si="5"/>
         <v>194.31490511861139</v>
       </c>
       <c r="F146" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.9165233727655025E-2</v>
       </c>
     </row>
@@ -15532,11 +15600,11 @@
         <v>195</v>
       </c>
       <c r="D147" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A147)+NTC3950_C*(LN(A147))^2+NTC3950_D*(LN(A147))^3</f>
+        <f t="shared" si="5"/>
         <v>195.3958840034868</v>
       </c>
       <c r="F147" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15672414421673586</v>
       </c>
     </row>
@@ -15548,11 +15616,11 @@
         <v>196</v>
       </c>
       <c r="D148" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A148)+NTC3950_C*(LN(A148))^2+NTC3950_D*(LN(A148))^3</f>
+        <f t="shared" si="5"/>
         <v>196.38086477230439</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14505797478247626</v>
       </c>
     </row>
@@ -15564,11 +15632,11 @@
         <v>197</v>
       </c>
       <c r="D149" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A149)+NTC3950_C*(LN(A149))^2+NTC3950_D*(LN(A149))^3</f>
+        <f t="shared" si="5"/>
         <v>197.36567314168832</v>
       </c>
       <c r="F149" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.13371684655220542</v>
       </c>
     </row>
@@ -15580,11 +15648,11 @@
         <v>198</v>
       </c>
       <c r="D150" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A150)+NTC3950_C*(LN(A150))^2+NTC3950_D*(LN(A150))^3</f>
+        <f t="shared" si="5"/>
         <v>198.34965147299238</v>
       </c>
       <c r="F150" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12225615256573924</v>
       </c>
     </row>
@@ -15596,11 +15664,11 @@
         <v>199</v>
       </c>
       <c r="D151" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A151)+NTC3950_C*(LN(A151))^2+NTC3950_D*(LN(A151))^3</f>
+        <f t="shared" si="5"/>
         <v>199.33210037613065</v>
       </c>
       <c r="F151" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.11029065982612202</v>
       </c>
     </row>
@@ -15612,11 +15680,11 @@
         <v>200</v>
       </c>
       <c r="D152" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A152)+NTC3950_C*(LN(A152))^2+NTC3950_D*(LN(A152))^3</f>
+        <f t="shared" si="5"/>
         <v>200.31227748454427</v>
       </c>
       <c r="F152" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.7517227353295377E-2</v>
       </c>
     </row>
@@ -15628,11 +15696,11 @@
         <v>201</v>
       </c>
       <c r="D153" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A153)+NTC3950_C*(LN(A153))^2+NTC3950_D*(LN(A153))^3</f>
+        <f t="shared" si="5"/>
         <v>201.20201381867165</v>
       </c>
       <c r="F153" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.0809582934300322E-2</v>
       </c>
     </row>
@@ -15644,11 +15712,11 @@
         <v>202</v>
       </c>
       <c r="D154" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A154)+NTC3950_C*(LN(A154))^2+NTC3950_D*(LN(A154))^3</f>
+        <f t="shared" si="5"/>
         <v>202.08401428672562</v>
       </c>
       <c r="F154" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0584003740145305E-3</v>
       </c>
     </row>
@@ -15660,11 +15728,11 @@
         <v>203</v>
       </c>
       <c r="D155" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A155)+NTC3950_C*(LN(A155))^2+NTC3950_D*(LN(A155))^3</f>
+        <f t="shared" si="5"/>
         <v>202.96643336863968</v>
       </c>
       <c r="F155" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1267187408793206E-3</v>
       </c>
     </row>
@@ -15676,11 +15744,11 @@
         <v>204</v>
       </c>
       <c r="D156" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A156)+NTC3950_C*(LN(A156))^2+NTC3950_D*(LN(A156))^3</f>
+        <f t="shared" si="5"/>
         <v>203.84885304497703</v>
       </c>
       <c r="F156" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2845402012714587E-2</v>
       </c>
     </row>
@@ -15692,11 +15760,11 @@
         <v>205</v>
       </c>
       <c r="D157" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A157)+NTC3950_C*(LN(A157))^2+NTC3950_D*(LN(A157))^3</f>
+        <f t="shared" si="5"/>
         <v>204.72135267892926</v>
       </c>
       <c r="F157" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.7644329539897639E-2</v>
       </c>
     </row>
@@ -15708,11 +15776,11 @@
         <v>206</v>
       </c>
       <c r="D158" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A158)+NTC3950_C*(LN(A158))^2+NTC3950_D*(LN(A158))^3</f>
+        <f t="shared" si="5"/>
         <v>205.72816130883137</v>
       </c>
       <c r="F158" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.3896274016271218E-2</v>
       </c>
     </row>
@@ -15724,11 +15792,11 @@
         <v>207</v>
       </c>
       <c r="D159" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A159)+NTC3950_C*(LN(A159))^2+NTC3950_D*(LN(A159))^3</f>
+        <f t="shared" si="5"/>
         <v>206.73913005630641</v>
       </c>
       <c r="F159" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.8053127522697959E-2</v>
       </c>
     </row>
@@ -15740,11 +15808,11 @@
         <v>208</v>
       </c>
       <c r="D160" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A160)+NTC3950_C*(LN(A160))^2+NTC3950_D*(LN(A160))^3</f>
+        <f t="shared" si="5"/>
         <v>207.74374142355262</v>
       </c>
       <c r="F160" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.5668458002837438E-2</v>
       </c>
     </row>
@@ -15756,11 +15824,11 @@
         <v>209</v>
       </c>
       <c r="D161" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A161)+NTC3950_C*(LN(A161))^2+NTC3950_D*(LN(A161))^3</f>
+        <f t="shared" si="5"/>
         <v>208.74090024459892</v>
       </c>
       <c r="F161" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.7132683248900107E-2</v>
       </c>
     </row>
@@ -15772,11 +15840,11 @@
         <v>210</v>
       </c>
       <c r="D162" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A162)+NTC3950_C*(LN(A162))^2+NTC3950_D*(LN(A162))^3</f>
+        <f t="shared" si="5"/>
         <v>209.74009469439</v>
       </c>
       <c r="F162" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.7550767884229937E-2</v>
       </c>
     </row>
@@ -15788,11 +15856,11 @@
         <v>211</v>
       </c>
       <c r="D163" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A163)+NTC3950_C*(LN(A163))^2+NTC3950_D*(LN(A163))^3</f>
+        <f t="shared" si="5"/>
         <v>210.78440905531045</v>
       </c>
       <c r="F163" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.6479455432133505E-2</v>
       </c>
     </row>
@@ -15804,11 +15872,11 @@
         <v>212</v>
       </c>
       <c r="D164" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A164)+NTC3950_C*(LN(A164))^2+NTC3950_D*(LN(A164))^3</f>
+        <f t="shared" si="5"/>
         <v>211.82067196920798</v>
       </c>
       <c r="F164" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.215854262774414E-2</v>
       </c>
     </row>
@@ -15820,11 +15888,11 @@
         <v>213</v>
       </c>
       <c r="D165" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A165)+NTC3950_C*(LN(A165))^2+NTC3950_D*(LN(A165))^3</f>
+        <f t="shared" si="5"/>
         <v>212.85903059922154</v>
       </c>
       <c r="F165" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9872371955837919E-2</v>
       </c>
     </row>
@@ -15836,11 +15904,11 @@
         <v>214</v>
       </c>
       <c r="D166" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A166)+NTC3950_C*(LN(A166))^2+NTC3950_D*(LN(A166))^3</f>
+        <f t="shared" si="5"/>
         <v>213.89895616418471</v>
       </c>
       <c r="F166" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.020985675626721E-2</v>
       </c>
     </row>
@@ -15852,11 +15920,11 @@
         <v>215</v>
       </c>
       <c r="D167" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A167)+NTC3950_C*(LN(A167))^2+NTC3950_D*(LN(A167))^3</f>
+        <f t="shared" si="5"/>
         <v>214.9279160882877</v>
       </c>
       <c r="F167" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.1960903277463409E-3</v>
       </c>
     </row>
@@ -15868,11 +15936,11 @@
         <v>216</v>
       </c>
       <c r="D168" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A168)+NTC3950_C*(LN(A168))^2+NTC3950_D*(LN(A168))^3</f>
+        <f t="shared" si="5"/>
         <v>215.96895619153801</v>
       </c>
       <c r="F168" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.6371804382456737E-4</v>
       </c>
     </row>
@@ -15884,11 +15952,11 @@
         <v>217</v>
       </c>
       <c r="D169" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A169)+NTC3950_C*(LN(A169))^2+NTC3950_D*(LN(A169))^3</f>
+        <f t="shared" si="5"/>
         <v>217.0097418610967</v>
       </c>
       <c r="F169" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.4903857627391517E-5</v>
       </c>
     </row>
@@ -15900,11 +15968,11 @@
         <v>218</v>
       </c>
       <c r="D170" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A170)+NTC3950_C*(LN(A170))^2+NTC3950_D*(LN(A170))^3</f>
+        <f t="shared" si="5"/>
         <v>218.04958667430992</v>
       </c>
       <c r="F170" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.4588382691182152E-3</v>
       </c>
     </row>
@@ -15916,11 +15984,11 @@
         <v>219</v>
       </c>
       <c r="D171" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A171)+NTC3950_C*(LN(A171))^2+NTC3950_D*(LN(A171))^3</f>
+        <f t="shared" si="5"/>
         <v>219.08776134711022</v>
       </c>
       <c r="F171" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.7020540465999147E-3</v>
       </c>
     </row>
@@ -15932,11 +16000,11 @@
         <v>220</v>
       </c>
       <c r="D172" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A172)+NTC3950_C*(LN(A172))^2+NTC3950_D*(LN(A172))^3</f>
+        <f t="shared" si="5"/>
         <v>220.12349251108444</v>
       </c>
       <c r="F172" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5250400293939504E-2</v>
       </c>
     </row>
@@ -15948,11 +16016,11 @@
         <v>221</v>
       </c>
       <c r="D173" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A173)+NTC3950_C*(LN(A173))^2+NTC3950_D*(LN(A173))^3</f>
+        <f t="shared" si="5"/>
         <v>221.15596160459768</v>
       </c>
       <c r="F173" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.4324022108682505E-2</v>
       </c>
     </row>
@@ -15964,11 +16032,11 @@
         <v>222</v>
       </c>
       <c r="D174" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A174)+NTC3950_C*(LN(A174))^2+NTC3950_D*(LN(A174))^3</f>
+        <f t="shared" si="5"/>
         <v>222.18430390187348</v>
       </c>
       <c r="F174" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.396792824578828E-2</v>
       </c>
     </row>
@@ -15980,11 +16048,11 @@
         <v>223</v>
       </c>
       <c r="D175" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A175)+NTC3950_C*(LN(A175))^2+NTC3950_D*(LN(A175))^3</f>
+        <f t="shared" si="5"/>
         <v>223.19323716235016</v>
       </c>
       <c r="F175" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.7340600913141356E-2</v>
       </c>
     </row>
@@ -15996,11 +16064,11 @@
         <v>224</v>
       </c>
       <c r="D176" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A176)+NTC3950_C*(LN(A176))^2+NTC3950_D*(LN(A176))^3</f>
+        <f t="shared" si="5"/>
         <v>224.22491373295011</v>
       </c>
       <c r="F176" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.0586187269555133E-2</v>
       </c>
     </row>
@@ -16012,11 +16080,11 @@
         <v>225</v>
       </c>
       <c r="D177" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A177)+NTC3950_C*(LN(A177))^2+NTC3950_D*(LN(A177))^3</f>
+        <f t="shared" si="5"/>
         <v>225.23521471815263</v>
       </c>
       <c r="F177" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5325963635622769E-2</v>
       </c>
     </row>
@@ -16028,11 +16096,11 @@
         <v>226</v>
       </c>
       <c r="D178" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A178)+NTC3950_C*(LN(A178))^2+NTC3950_D*(LN(A178))^3</f>
+        <f t="shared" si="5"/>
         <v>226.25280930848146</v>
       </c>
       <c r="F178" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3912546454874E-2</v>
       </c>
     </row>
@@ -16044,11 +16112,11 @@
         <v>227</v>
       </c>
       <c r="D179" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A179)+NTC3950_C*(LN(A179))^2+NTC3950_D*(LN(A179))^3</f>
+        <f t="shared" si="5"/>
         <v>227.27760902237668</v>
       </c>
       <c r="F179" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.7066769304936056E-2</v>
       </c>
     </row>
@@ -16060,11 +16128,11 @@
         <v>228</v>
       </c>
       <c r="D180" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A180)+NTC3950_C*(LN(A180))^2+NTC3950_D*(LN(A180))^3</f>
+        <f t="shared" si="5"/>
         <v>228.29346227010785</v>
       </c>
       <c r="F180" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.6120103976854129E-2</v>
       </c>
     </row>
@@ -16076,11 +16144,11 @@
         <v>229</v>
       </c>
       <c r="D181" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A181)+NTC3950_C*(LN(A181))^2+NTC3950_D*(LN(A181))^3</f>
+        <f t="shared" si="5"/>
         <v>229.29918596958316</v>
       </c>
       <c r="F181" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.9512244395417676E-2</v>
       </c>
     </row>
@@ -16092,11 +16160,11 @@
         <v>230</v>
       </c>
       <c r="D182" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A182)+NTC3950_C*(LN(A182))^2+NTC3950_D*(LN(A182))^3</f>
+        <f t="shared" si="5"/>
         <v>230.3103001523169</v>
       </c>
       <c r="F182" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.6286184527890381E-2</v>
       </c>
     </row>
@@ -16108,11 +16176,11 @@
         <v>231</v>
       </c>
       <c r="D183" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A183)+NTC3950_C*(LN(A183))^2+NTC3950_D*(LN(A183))^3</f>
+        <f t="shared" si="5"/>
         <v>231.3266050101675</v>
       </c>
       <c r="F183" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.10667083266651133</v>
       </c>
     </row>
@@ -16124,11 +16192,11 @@
         <v>232</v>
       </c>
       <c r="D184" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A184)+NTC3950_C*(LN(A184))^2+NTC3950_D*(LN(A184))^3</f>
+        <f t="shared" si="5"/>
         <v>232.3478829256249</v>
       </c>
       <c r="F184" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12102252994134069</v>
       </c>
     </row>
@@ -16140,11 +16208,11 @@
         <v>233</v>
       </c>
       <c r="D185" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A185)+NTC3950_C*(LN(A185))^2+NTC3950_D*(LN(A185))^3</f>
+        <f t="shared" si="5"/>
         <v>233.35601743014598</v>
       </c>
       <c r="F185" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12674841056774946</v>
       </c>
     </row>
@@ -16156,11 +16224,11 @@
         <v>234</v>
       </c>
       <c r="D186" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A186)+NTC3950_C*(LN(A186))^2+NTC3950_D*(LN(A186))^3</f>
+        <f t="shared" si="5"/>
         <v>234.36785291234366</v>
       </c>
       <c r="F186" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.13531576511971585</v>
       </c>
     </row>
@@ -16172,11 +16240,11 @@
         <v>235</v>
       </c>
       <c r="D187" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A187)+NTC3950_C*(LN(A187))^2+NTC3950_D*(LN(A187))^3</f>
+        <f t="shared" si="5"/>
         <v>235.38308635650813</v>
       </c>
       <c r="F187" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14675515654267421</v>
       </c>
     </row>
@@ -16188,11 +16256,11 @@
         <v>236</v>
       </c>
       <c r="D188" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A188)+NTC3950_C*(LN(A188))^2+NTC3950_D*(LN(A188))^3</f>
+        <f t="shared" si="5"/>
         <v>236.38233612221768</v>
       </c>
       <c r="F188" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14618091035245273</v>
       </c>
     </row>
@@ -16204,11 +16272,11 @@
         <v>237</v>
       </c>
       <c r="D189" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A189)+NTC3950_C*(LN(A189))^2+NTC3950_D*(LN(A189))^3</f>
+        <f t="shared" si="5"/>
         <v>237.38349583145671</v>
       </c>
       <c r="F189" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14706905274467577</v>
       </c>
     </row>
@@ -16220,11 +16288,11 @@
         <v>238</v>
       </c>
       <c r="D190" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A190)+NTC3950_C*(LN(A190))^2+NTC3950_D*(LN(A190))^3</f>
+        <f t="shared" si="5"/>
         <v>238.40603993070522</v>
       </c>
       <c r="F190" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.16486842532709936</v>
       </c>
     </row>
@@ -16236,11 +16304,11 @@
         <v>239</v>
       </c>
       <c r="D191" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A191)+NTC3950_C*(LN(A191))^2+NTC3950_D*(LN(A191))^3</f>
+        <f t="shared" si="5"/>
         <v>239.41022322046697</v>
       </c>
       <c r="F191" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.16828309061029612</v>
       </c>
     </row>
@@ -16252,11 +16320,11 @@
         <v>240</v>
       </c>
       <c r="D192" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A192)+NTC3950_C*(LN(A192))^2+NTC3950_D*(LN(A192))^3</f>
+        <f t="shared" si="5"/>
         <v>240.41505788293347</v>
       </c>
       <c r="F192" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.17227304618521216</v>
       </c>
     </row>
@@ -16268,11 +16336,11 @@
         <v>241</v>
       </c>
       <c r="D193" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A193)+NTC3950_C*(LN(A193))^2+NTC3950_D*(LN(A193))^3</f>
+        <f t="shared" si="5"/>
         <v>241.42006932084405</v>
       </c>
       <c r="F193" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.17645823431438126</v>
       </c>
     </row>
@@ -16284,11 +16352,11 @@
         <v>242</v>
       </c>
       <c r="D194" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A194)+NTC3950_C*(LN(A194))^2+NTC3950_D*(LN(A194))^3</f>
+        <f t="shared" si="5"/>
         <v>242.42475525762381</v>
       </c>
       <c r="F194" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.1804170288790734</v>
       </c>
     </row>
@@ -16300,11 +16368,11 @@
         <v>243</v>
       </c>
       <c r="D195" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A195)+NTC3950_C*(LN(A195))^2+NTC3950_D*(LN(A195))^3</f>
+        <f t="shared" si="5"/>
         <v>243.42858490628279</v>
       </c>
       <c r="F195" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18368502189343094</v>
       </c>
     </row>
@@ -16316,11 +16384,11 @@
         <v>244</v>
       </c>
       <c r="D196" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A196)+NTC3950_C*(LN(A196))^2+NTC3950_D*(LN(A196))^3</f>
+        <f t="shared" si="5"/>
         <v>244.4309981794467</v>
       </c>
       <c r="F196" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18575943068637282</v>
       </c>
     </row>
@@ -16332,11 +16400,11 @@
         <v>245</v>
       </c>
       <c r="D197" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A197)+NTC3950_C*(LN(A197))^2+NTC3950_D*(LN(A197))^3</f>
+        <f t="shared" ref="D197:D252" si="7">NTC3950_A+NTC3950_B*LN(A197)+NTC3950_C*(LN(A197))^2+NTC3950_D*(LN(A197))^3</f>
         <v>245.43140495024798</v>
       </c>
       <c r="F197" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18611023109846248</v>
       </c>
     </row>
@@ -16348,11 +16416,11 @@
         <v>246</v>
       </c>
       <c r="D198" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A198)+NTC3950_C*(LN(A198))^2+NTC3950_D*(LN(A198))^3</f>
+        <f t="shared" si="7"/>
         <v>246.42918437465011</v>
       </c>
       <c r="F198" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.1841992274438024</v>
       </c>
     </row>
@@ -16364,11 +16432,11 @@
         <v>247</v>
       </c>
       <c r="D199" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A199)+NTC3950_C*(LN(A199))^2+NTC3950_D*(LN(A199))^3</f>
+        <f t="shared" si="7"/>
         <v>247.42368428664051</v>
       </c>
       <c r="F199" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.17950837474607648</v>
       </c>
     </row>
@@ -16380,11 +16448,11 @@
         <v>248</v>
       </c>
       <c r="D200" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A200)+NTC3950_C*(LN(A200))^2+NTC3950_D*(LN(A200))^3</f>
+        <f t="shared" si="7"/>
         <v>248.43862962138354</v>
       </c>
       <c r="F200" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.19239594475506833</v>
       </c>
     </row>
@@ -16396,11 +16464,11 @@
         <v>249</v>
       </c>
       <c r="D201" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A201)+NTC3950_C*(LN(A201))^2+NTC3950_D*(LN(A201))^3</f>
+        <f t="shared" si="7"/>
         <v>249.42497642681673</v>
       </c>
       <c r="F201" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.1806049633499128</v>
       </c>
     </row>
@@ -16412,11 +16480,11 @@
         <v>250</v>
       </c>
       <c r="D202" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A202)+NTC3950_C*(LN(A202))^2+NTC3950_D*(LN(A202))^3</f>
+        <f t="shared" si="7"/>
         <v>250.43130807146727</v>
       </c>
       <c r="F202" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18602665251281636</v>
       </c>
     </row>
@@ -16428,11 +16496,11 @@
         <v>251</v>
       </c>
       <c r="D203" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A203)+NTC3950_C*(LN(A203))^2+NTC3950_D*(LN(A203))^3</f>
+        <f t="shared" si="7"/>
         <v>251.4065281733148</v>
       </c>
       <c r="F203" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.16526515569866559</v>
       </c>
     </row>
@@ -16444,11 +16512,11 @@
         <v>252</v>
       </c>
       <c r="D204" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A204)+NTC3950_C*(LN(A204))^2+NTC3950_D*(LN(A204))^3</f>
+        <f t="shared" si="7"/>
         <v>252.42760568852947</v>
       </c>
       <c r="F204" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18284662486276032</v>
       </c>
     </row>
@@ -16460,11 +16528,11 @@
         <v>253</v>
       </c>
       <c r="D205" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A205)+NTC3950_C*(LN(A205))^2+NTC3950_D*(LN(A205))^3</f>
+        <f t="shared" si="7"/>
         <v>253.41593831500091</v>
       </c>
       <c r="F205" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.17300468188580026</v>
       </c>
     </row>
@@ -16476,11 +16544,11 @@
         <v>254</v>
       </c>
       <c r="D206" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A206)+NTC3950_C*(LN(A206))^2+NTC3950_D*(LN(A206))^3</f>
+        <f t="shared" si="7"/>
         <v>254.39658005867585</v>
       </c>
       <c r="F206" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15727574293934213</v>
       </c>
     </row>
@@ -16492,11 +16560,11 @@
         <v>255</v>
       </c>
       <c r="D207" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A207)+NTC3950_C*(LN(A207))^2+NTC3950_D*(LN(A207))^3</f>
+        <f t="shared" si="7"/>
         <v>255.39667723344829</v>
       </c>
       <c r="F207" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15735282753618668</v>
       </c>
     </row>
@@ -16508,11 +16576,11 @@
         <v>256</v>
       </c>
       <c r="D208" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A208)+NTC3950_C*(LN(A208))^2+NTC3950_D*(LN(A208))^3</f>
+        <f t="shared" si="7"/>
         <v>256.38833612354836</v>
       </c>
       <c r="F208" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15080494485256418</v>
       </c>
     </row>
@@ -16524,11 +16592,11 @@
         <v>257</v>
       </c>
       <c r="D209" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A209)+NTC3950_C*(LN(A209))^2+NTC3950_D*(LN(A209))^3</f>
+        <f t="shared" si="7"/>
         <v>257.37059597457488</v>
       </c>
       <c r="F209" s="2">
-        <f t="shared" ref="F209:F252" si="4">(D209-B209)^2</f>
+        <f t="shared" ref="F209:F252" si="8">(D209-B209)^2</f>
         <v>0.13734137637110719</v>
       </c>
     </row>
@@ -16540,11 +16608,11 @@
         <v>258</v>
       </c>
       <c r="D210" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A210)+NTC3950_C*(LN(A210))^2+NTC3950_D*(LN(A210))^3</f>
+        <f t="shared" si="7"/>
         <v>258.37220228728239</v>
       </c>
       <c r="F210" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.13853454265824378</v>
       </c>
     </row>
@@ -16556,11 +16624,11 @@
         <v>259</v>
       </c>
       <c r="D211" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A211)+NTC3950_C*(LN(A211))^2+NTC3950_D*(LN(A211))^3</f>
+        <f t="shared" si="7"/>
         <v>259.36352976944636</v>
       </c>
       <c r="F211" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.13215389327372282</v>
       </c>
     </row>
@@ -16572,11 +16640,11 @@
         <v>260</v>
       </c>
       <c r="D212" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A212)+NTC3950_C*(LN(A212))^2+NTC3950_D*(LN(A212))^3</f>
+        <f t="shared" si="7"/>
         <v>260.34352044540259</v>
       </c>
       <c r="F212" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11800629640959334</v>
       </c>
     </row>
@@ -16588,11 +16656,11 @@
         <v>261</v>
       </c>
       <c r="D213" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A213)+NTC3950_C*(LN(A213))^2+NTC3950_D*(LN(A213))^3</f>
+        <f t="shared" si="7"/>
         <v>261.34259743663199</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11737300358681081</v>
       </c>
     </row>
@@ -16604,11 +16672,11 @@
         <v>262</v>
       </c>
       <c r="D214" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A214)+NTC3950_C*(LN(A214))^2+NTC3950_D*(LN(A214))^3</f>
+        <f t="shared" si="7"/>
         <v>262.3293140674337</v>
       </c>
       <c r="F214" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10844775500972727</v>
       </c>
     </row>
@@ -16620,11 +16688,11 @@
         <v>263</v>
       </c>
       <c r="D215" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A215)+NTC3950_C*(LN(A215))^2+NTC3950_D*(LN(A215))^3</f>
+        <f t="shared" si="7"/>
         <v>263.30251144472197</v>
       </c>
       <c r="F215" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1513174187774785E-2</v>
       </c>
     </row>
@@ -16636,11 +16704,11 @@
         <v>264</v>
       </c>
       <c r="D216" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A216)+NTC3950_C*(LN(A216))^2+NTC3950_D*(LN(A216))^3</f>
+        <f t="shared" si="7"/>
         <v>264.29436496345659</v>
       </c>
       <c r="F216" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6650731710797943E-2</v>
       </c>
     </row>
@@ -16652,11 +16720,11 @@
         <v>265</v>
       </c>
       <c r="D217" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A217)+NTC3950_C*(LN(A217))^2+NTC3950_D*(LN(A217))^3</f>
+        <f t="shared" si="7"/>
         <v>265.27152255104681</v>
       </c>
       <c r="F217" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.3724495726969957E-2</v>
       </c>
     </row>
@@ -16668,11 +16736,11 @@
         <v>266</v>
       </c>
       <c r="D218" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A218)+NTC3950_C*(LN(A218))^2+NTC3950_D*(LN(A218))^3</f>
+        <f t="shared" si="7"/>
         <v>266.26738147087553</v>
       </c>
       <c r="F218" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.1492850967564261E-2</v>
       </c>
     </row>
@@ -16684,11 +16752,11 @@
         <v>267</v>
       </c>
       <c r="D219" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A219)+NTC3950_C*(LN(A219))^2+NTC3950_D*(LN(A219))^3</f>
+        <f t="shared" si="7"/>
         <v>267.24727681681014</v>
       </c>
       <c r="F219" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.1145824131756753E-2</v>
       </c>
     </row>
@@ -16700,11 +16768,11 @@
         <v>268</v>
       </c>
       <c r="D220" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A220)+NTC3950_C*(LN(A220))^2+NTC3950_D*(LN(A220))^3</f>
+        <f t="shared" si="7"/>
         <v>268.20987773534068</v>
       </c>
       <c r="F220" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4048663791733819E-2</v>
       </c>
     </row>
@@ -16716,11 +16784,11 @@
         <v>269</v>
       </c>
       <c r="D221" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A221)+NTC3950_C*(LN(A221))^2+NTC3950_D*(LN(A221))^3</f>
+        <f t="shared" si="7"/>
         <v>269.1904670636161</v>
       </c>
       <c r="F221" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.6277702322538428E-2</v>
       </c>
     </row>
@@ -16732,11 +16800,11 @@
         <v>270</v>
       </c>
       <c r="D222" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A222)+NTC3950_C*(LN(A222))^2+NTC3950_D*(LN(A222))^3</f>
+        <f t="shared" si="7"/>
         <v>270.18967691858552</v>
       </c>
       <c r="F222" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5977333444097662E-2</v>
       </c>
     </row>
@@ -16748,11 +16816,11 @@
         <v>271</v>
       </c>
       <c r="D223" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A223)+NTC3950_C*(LN(A223))^2+NTC3950_D*(LN(A223))^3</f>
+        <f t="shared" si="7"/>
         <v>271.17009834356566</v>
       </c>
       <c r="F223" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.8933446483779723E-2</v>
       </c>
     </row>
@@ -16764,11 +16832,11 @@
         <v>272</v>
       </c>
       <c r="D224" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A224)+NTC3950_C*(LN(A224))^2+NTC3950_D*(LN(A224))^3</f>
+        <f t="shared" si="7"/>
         <v>272.16902779233635</v>
       </c>
       <c r="F224" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.8570394582100603E-2</v>
       </c>
     </row>
@@ -16780,11 +16848,11 @@
         <v>273</v>
       </c>
       <c r="D225" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A225)+NTC3950_C*(LN(A225))^2+NTC3950_D*(LN(A225))^3</f>
+        <f t="shared" si="7"/>
         <v>273.14760225338432</v>
       </c>
       <c r="F225" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1786425204129194E-2</v>
       </c>
     </row>
@@ -16796,11 +16864,11 @@
         <v>274</v>
       </c>
       <c r="D226" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A226)+NTC3950_C*(LN(A226))^2+NTC3950_D*(LN(A226))^3</f>
+        <f t="shared" si="7"/>
         <v>274.10427375605337</v>
       </c>
       <c r="F226" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0873016201478498E-2</v>
       </c>
     </row>
@@ -16812,11 +16880,11 @@
         <v>275</v>
       </c>
       <c r="D227" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A227)+NTC3950_C*(LN(A227))^2+NTC3950_D*(LN(A227))^3</f>
+        <f t="shared" si="7"/>
         <v>275.07841193882467</v>
       </c>
       <c r="F227" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.1484321502441406E-3</v>
       </c>
     </row>
@@ -16828,11 +16896,11 @@
         <v>276</v>
       </c>
       <c r="D228" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A228)+NTC3950_C*(LN(A228))^2+NTC3950_D*(LN(A228))^3</f>
+        <f t="shared" si="7"/>
         <v>276.07061625455913</v>
       </c>
       <c r="F228" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9866554079594106E-3</v>
       </c>
     </row>
@@ -16844,11 +16912,11 @@
         <v>277</v>
       </c>
       <c r="D229" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A229)+NTC3950_C*(LN(A229))^2+NTC3950_D*(LN(A229))^3</f>
+        <f t="shared" si="7"/>
         <v>277.03901402460417</v>
       </c>
       <c r="F229" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5220941158148624E-3</v>
       </c>
     </row>
@@ -16860,11 +16928,11 @@
         <v>278</v>
       </c>
       <c r="D230" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A230)+NTC3950_C*(LN(A230))^2+NTC3950_D*(LN(A230))^3</f>
+        <f t="shared" si="7"/>
         <v>278.02516463794251</v>
       </c>
       <c r="F230" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.3325900277759733E-4</v>
       </c>
     </row>
@@ -16876,11 +16944,11 @@
         <v>279</v>
       </c>
       <c r="D231" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A231)+NTC3950_C*(LN(A231))^2+NTC3950_D*(LN(A231))^3</f>
+        <f t="shared" si="7"/>
         <v>278.98561484014988</v>
       </c>
       <c r="F231" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.0693282391354628E-4</v>
       </c>
     </row>
@@ -16892,11 +16960,11 @@
         <v>280</v>
       </c>
       <c r="D232" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A232)+NTC3950_C*(LN(A232))^2+NTC3950_D*(LN(A232))^3</f>
+        <f t="shared" si="7"/>
         <v>279.96342942937804</v>
       </c>
       <c r="F232" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.33740663561587E-3</v>
       </c>
     </row>
@@ -16908,11 +16976,11 @@
         <v>281</v>
       </c>
       <c r="D233" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A233)+NTC3950_C*(LN(A233))^2+NTC3950_D*(LN(A233))^3</f>
+        <f t="shared" si="7"/>
         <v>280.91353806365419</v>
       </c>
       <c r="F233" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.4756664366674589E-3</v>
       </c>
     </row>
@@ -16924,11 +16992,11 @@
         <v>282</v>
       </c>
       <c r="D234" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A234)+NTC3950_C*(LN(A234))^2+NTC3950_D*(LN(A234))^3</f>
+        <f t="shared" si="7"/>
         <v>281.88054421327905</v>
       </c>
       <c r="F234" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4269684981120677E-2</v>
       </c>
     </row>
@@ -16940,11 +17008,11 @@
         <v>283</v>
       </c>
       <c r="D235" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A235)+NTC3950_C*(LN(A235))^2+NTC3950_D*(LN(A235))^3</f>
+        <f t="shared" si="7"/>
         <v>282.86501255817274</v>
       </c>
       <c r="F235" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8221609451068824E-2</v>
       </c>
     </row>
@@ -16956,11 +17024,11 @@
         <v>284</v>
       </c>
       <c r="D236" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A236)+NTC3950_C*(LN(A236))^2+NTC3950_D*(LN(A236))^3</f>
+        <f t="shared" si="7"/>
         <v>283.81937808190736</v>
       </c>
       <c r="F236" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.2624277295464535E-2</v>
       </c>
     </row>
@@ -16972,11 +17040,11 @@
         <v>285</v>
       </c>
       <c r="D237" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A237)+NTC3950_C*(LN(A237))^2+NTC3950_D*(LN(A237))^3</f>
+        <f t="shared" si="7"/>
         <v>284.79065675289058</v>
       </c>
       <c r="F237" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.382459511031405E-2</v>
       </c>
     </row>
@@ -16988,11 +17056,11 @@
         <v>286</v>
       </c>
       <c r="D238" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A238)+NTC3950_C*(LN(A238))^2+NTC3950_D*(LN(A238))^3</f>
+        <f t="shared" si="7"/>
         <v>285.72954993283008</v>
       </c>
       <c r="F238" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.3143238832213117E-2</v>
       </c>
     </row>
@@ -17004,11 +17072,11 @@
         <v>287</v>
       </c>
       <c r="D239" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A239)+NTC3950_C*(LN(A239))^2+NTC3950_D*(LN(A239))^3</f>
+        <f t="shared" si="7"/>
         <v>286.73545439202616</v>
       </c>
       <c r="F239" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.9984378698250624E-2</v>
       </c>
     </row>
@@ -17020,11 +17088,11 @@
         <v>288</v>
       </c>
       <c r="D240" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A240)+NTC3950_C*(LN(A240))^2+NTC3950_D*(LN(A240))^3</f>
+        <f t="shared" si="7"/>
         <v>287.65670114112407</v>
       </c>
       <c r="F240" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11785410650551283</v>
       </c>
     </row>
@@ -17036,11 +17104,11 @@
         <v>289</v>
       </c>
       <c r="D241" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A241)+NTC3950_C*(LN(A241))^2+NTC3950_D*(LN(A241))^3</f>
+        <f t="shared" si="7"/>
         <v>288.64604499569123</v>
       </c>
       <c r="F241" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.12528414507522345</v>
       </c>
     </row>
@@ -17052,11 +17120,11 @@
         <v>290</v>
       </c>
       <c r="D242" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A242)+NTC3950_C*(LN(A242))^2+NTC3950_D*(LN(A242))^3</f>
+        <f t="shared" si="7"/>
         <v>289.59986334542259</v>
       </c>
       <c r="F242" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.16010934233640073</v>
       </c>
     </row>
@@ -17068,11 +17136,11 @@
         <v>291</v>
       </c>
       <c r="D243" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A243)+NTC3950_C*(LN(A243))^2+NTC3950_D*(LN(A243))^3</f>
+        <f t="shared" si="7"/>
         <v>290.57030868163361</v>
       </c>
       <c r="F243" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.1846346290794503</v>
       </c>
     </row>
@@ -17084,11 +17152,11 @@
         <v>292</v>
       </c>
       <c r="D244" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A244)+NTC3950_C*(LN(A244))^2+NTC3950_D*(LN(A244))^3</f>
+        <f t="shared" si="7"/>
         <v>291.50259781805011</v>
       </c>
       <c r="F244" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.24740893060851585</v>
       </c>
     </row>
@@ -17100,11 +17168,11 @@
         <v>293</v>
       </c>
       <c r="D245" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A245)+NTC3950_C*(LN(A245))^2+NTC3950_D*(LN(A245))^3</f>
+        <f t="shared" si="7"/>
         <v>292.45068356454397</v>
       </c>
       <c r="F245" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30174854626212416</v>
       </c>
     </row>
@@ -17116,11 +17184,11 @@
         <v>294</v>
       </c>
       <c r="D246" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A246)+NTC3950_C*(LN(A246))^2+NTC3950_D*(LN(A246))^3</f>
+        <f t="shared" si="7"/>
         <v>293.41506852530642</v>
       </c>
       <c r="F246" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.34214483008720165</v>
       </c>
     </row>
@@ -17132,11 +17200,11 @@
         <v>295</v>
       </c>
       <c r="D247" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A247)+NTC3950_C*(LN(A247))^2+NTC3950_D*(LN(A247))^3</f>
+        <f t="shared" si="7"/>
         <v>294.39627899857845</v>
       </c>
       <c r="F247" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.36447904755743615</v>
       </c>
     </row>
@@ -17148,11 +17216,11 @@
         <v>296</v>
       </c>
       <c r="D248" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A248)+NTC3950_C*(LN(A248))^2+NTC3950_D*(LN(A248))^3</f>
+        <f t="shared" si="7"/>
         <v>295.33563477837231</v>
       </c>
       <c r="F248" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.44138114770841036</v>
       </c>
     </row>
@@ -17164,11 +17232,11 @@
         <v>297</v>
       </c>
       <c r="D249" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A249)+NTC3950_C*(LN(A249))^2+NTC3950_D*(LN(A249))^3</f>
+        <f t="shared" si="7"/>
         <v>296.2908645210083</v>
       </c>
       <c r="F249" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.50287312756478453</v>
       </c>
     </row>
@@ -17180,11 +17248,11 @@
         <v>298</v>
       </c>
       <c r="D250" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A250)+NTC3950_C*(LN(A250))^2+NTC3950_D*(LN(A250))^3</f>
+        <f t="shared" si="7"/>
         <v>297.26247194768848</v>
       </c>
       <c r="F250" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.54394762794642115</v>
       </c>
     </row>
@@ -17196,11 +17264,11 @@
         <v>299</v>
       </c>
       <c r="D251" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A251)+NTC3950_C*(LN(A251))^2+NTC3950_D*(LN(A251))^3</f>
+        <f t="shared" si="7"/>
         <v>298.18869684072882</v>
       </c>
       <c r="F251" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.65821281624339179</v>
       </c>
     </row>
@@ -17212,11 +17280,11 @@
         <v>300</v>
       </c>
       <c r="D252" s="4">
-        <f>NTC3950_A+NTC3950_B*LN(A252)+NTC3950_C*(LN(A252))^2+NTC3950_D*(LN(A252))^3</f>
+        <f t="shared" si="7"/>
         <v>299.13023411956874</v>
       </c>
       <c r="F252" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.75649268676236414</v>
       </c>
     </row>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29129B32-7455-410F-A8C2-B57309B9E62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B185B52D-7C54-4623-87AA-28147D7197CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -9224,7 +9224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3140C9DF-2692-47E8-B5FD-96C592C7023B}">
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -11836,7 +11836,7 @@
   <dimension ref="B1:M64"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12835,15 +12835,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>200</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="8">
+        <f t="shared" ref="E35" si="6">ppolA+ppolB*B35+ppolC*B35^2</f>
+        <v>6.1625986097779633</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="7">
+        <f t="shared" ref="I35" si="7">C35/PsiToBar</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="G36" s="3">
-        <f>SUM(G5:G34)</f>
-        <v>5.1881453887145323E-2</v>
-      </c>
       <c r="M36" s="3">
         <f>SUM(M5:M34)</f>
         <v>2.0535119757672804E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G37" s="3">
+        <f>SUM(G5:G34)</f>
+        <v>5.1881453887145323E-2</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -12861,11 +12881,11 @@
         <v>94</v>
       </c>
       <c r="L40">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M40" s="4">
         <f>L40*14.5038</f>
-        <v>79.770899999999997</v>
+        <v>87.022800000000004</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -12874,11 +12894,11 @@
         <v>93</v>
       </c>
       <c r="L41" s="3">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M41" s="4">
         <f>L41*14.5038</f>
-        <v>72.519000000000005</v>
+        <v>79.770899999999997</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -12984,8 +13004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66658717-C5D7-4239-91FE-70F1BC01BC7C}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13247,7 +13267,7 @@
       <c r="B21" t="s">
         <v>160</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="34">
         <f>C19*$C$5/1000</f>
         <v>0.22559999999999999</v>
       </c>
@@ -13256,7 +13276,7 @@
       <c r="B22" t="s">
         <v>163</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="34">
         <f>C20*$C$5/1000</f>
         <v>0.94</v>
       </c>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B185B52D-7C54-4623-87AA-28147D7197CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55071A79-073F-4331-AF0C-9BD20E3F4F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="169">
   <si>
     <t>Vin</t>
   </si>
@@ -297,9 +297,6 @@
     <t>BLU</t>
   </si>
   <si>
-    <t>GRY</t>
-  </si>
-  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -307,18 +304,6 @@
   </si>
   <si>
     <t>YLL</t>
-  </si>
-  <si>
-    <t>SU I2C0 DATA</t>
-  </si>
-  <si>
-    <t>SU I2C0 CLK</t>
-  </si>
-  <si>
-    <t>SU UART_TX</t>
-  </si>
-  <si>
-    <t>SU UART_RX</t>
   </si>
   <si>
     <t>SU GND</t>
@@ -444,9 +429,6 @@
     <t>Oil Temp</t>
   </si>
   <si>
-    <t>Channel</t>
-  </si>
-  <si>
     <t>Oil Press</t>
   </si>
   <si>
@@ -555,9 +537,6 @@
     <t>VtotalMax</t>
   </si>
   <si>
-    <t>RotorTemp</t>
-  </si>
-  <si>
     <t>1x1</t>
   </si>
   <si>
@@ -628,6 +607,42 @@
   </si>
   <si>
     <t>v-max</t>
+  </si>
+  <si>
+    <t>sensor connector 2</t>
+  </si>
+  <si>
+    <t>caliper temp</t>
+  </si>
+  <si>
+    <t>1x2</t>
+  </si>
+  <si>
+    <t>sensor connector 1</t>
+  </si>
+  <si>
+    <t>RotorTemp 1</t>
+  </si>
+  <si>
+    <t>RotorTemp Power</t>
+  </si>
+  <si>
+    <t>ADC Channel</t>
+  </si>
+  <si>
+    <t>TRANS PUMP</t>
+  </si>
+  <si>
+    <t>trans pump</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>5V to on</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1000,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1018,6 +1032,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -8587,7 +8604,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>48283</xdr:colOff>
+      <xdr:colOff>48284</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>199003</xdr:rowOff>
     </xdr:to>
@@ -9224,7 +9241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3140C9DF-2692-47E8-B5FD-96C592C7023B}">
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -9260,7 +9277,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="34"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -9272,7 +9289,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="34"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -9342,7 +9359,7 @@
         <v>20.333929636255217</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <f>Vout*2</f>
@@ -9356,45 +9373,45 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>2000</v>
@@ -9429,7 +9446,7 @@
         <f t="shared" si="2"/>
         <v>1833.3333333333335</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="33">
         <f>Vin*G21/1000</f>
         <v>2.4199999999999998E-3</v>
       </c>
@@ -9452,7 +9469,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <v>465</v>
@@ -9487,7 +9504,7 @@
         <f t="shared" si="2"/>
         <v>992.48120300751884</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="33">
         <f>Vin*G22/1000</f>
         <v>1.6375939849624061E-2</v>
       </c>
@@ -9518,7 +9535,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C23">
         <v>20000</v>
@@ -9553,7 +9570,7 @@
         <f t="shared" si="2"/>
         <v>2030.7692307692307</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="33">
         <f>Vin*G23/1000</f>
         <v>2.0942307692307691E-4</v>
       </c>
@@ -9576,49 +9593,49 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25">
         <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="38">
+        <v>81</v>
+      </c>
+      <c r="C26" s="37">
         <f>Vin*1000-C25</f>
         <v>3138</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -9648,7 +9665,7 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="37">
         <f>C26/C27</f>
         <v>1.569</v>
       </c>
@@ -9671,7 +9688,7 @@
         <f>I27</f>
         <v>3.31</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="36">
         <f>-F28*G28*LN(I28/H28)</f>
         <v>-7.1104441538622117E-4</v>
       </c>
@@ -9688,7 +9705,7 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="38">
         <f>C25/C28</f>
         <v>103.25047801147228</v>
       </c>
@@ -9698,21 +9715,21 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="40">
+        <v>83</v>
+      </c>
+      <c r="C30" s="39">
         <f>polA+polB*LN(C29)+polC*(LN(C29))^3</f>
         <v>100.14530084854968</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="40">
+        <v>126</v>
+      </c>
+      <c r="C31" s="39">
         <f>ppolA+ppolB*C29+ppolC*C29^2</f>
         <v>2.6878289098074597</v>
       </c>
@@ -9722,18 +9739,18 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -9771,17 +9788,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFCC8DD-5DD0-4266-935E-E84E0B0CCB9F}">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.140625" customWidth="1"/>
@@ -9792,7 +9810,7 @@
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -9813,14 +9831,14 @@
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="9">
@@ -9854,7 +9872,7 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="9">
@@ -9868,7 +9886,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>46</v>
@@ -9878,7 +9896,7 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -9888,14 +9906,14 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -9904,35 +9922,30 @@
       <c r="N5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="23" t="s">
-        <v>53</v>
-      </c>
+      <c r="O5" s="11"/>
       <c r="P5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q5" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -9941,16 +9954,11 @@
       <c r="N6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="O6" s="11"/>
       <c r="P6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q6" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -9962,21 +9970,21 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="9">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7">
@@ -9994,21 +10002,21 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="47" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="9">
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O8" s="17" t="s">
         <v>46</v>
@@ -10018,40 +10026,45 @@
         <v>14</v>
       </c>
       <c r="Q8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="9">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="P9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="Q9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="49" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="9">
@@ -10070,13 +10083,13 @@
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="51" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
@@ -10091,13 +10104,13 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
@@ -10135,9 +10148,6 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L15" t="s">
-        <v>57</v>
-      </c>
       <c r="M15">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -10148,11 +10158,11 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Q15" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="M16">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -10166,16 +10176,16 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
@@ -10189,20 +10199,20 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>77</v>
+      <c r="B18" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
@@ -10216,20 +10226,20 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>79</v>
+        <v>101</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
@@ -10243,19 +10253,19 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
-        <v>76</v>
+      <c r="B20" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>33</v>
       </c>
       <c r="M20">
@@ -10270,20 +10280,20 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
-        <v>79</v>
+      <c r="B21" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
@@ -10297,76 +10307,126 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
-        <v>81</v>
+      <c r="B22" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
-        <v>83</v>
+      <c r="B23" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>143</v>
+        <v>133</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
       <c r="G32" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="D33" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -10413,7 +10473,7 @@
       <c r="F2" s="2">
         <v>-39.954820138689989</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="31">
         <v>9.1362491468999538E-2</v>
       </c>
     </row>
@@ -10560,15 +10620,15 @@
       <c r="C8" s="3">
         <v>91.111111111111114</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <f>polA+polB*LN(B8)+polC*(LN(B8))^3</f>
         <v>89.894649327124952</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <f t="shared" si="3"/>
         <v>1.200000000000004</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <f t="shared" si="1"/>
         <v>91.094649327124955</v>
       </c>
@@ -10588,15 +10648,15 @@
       <c r="C9" s="3">
         <v>87.777777777777771</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f t="shared" si="0"/>
         <v>87.168485482688169</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <f t="shared" si="3"/>
         <v>1.2150000000000039</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <f t="shared" si="1"/>
         <v>88.383485482688172</v>
       </c>
@@ -10616,15 +10676,15 @@
       <c r="C10" s="3">
         <v>85.555555555555557</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <f t="shared" si="0"/>
         <v>84.466627703579547</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <f t="shared" si="3"/>
         <v>1.2300000000000038</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <f t="shared" si="1"/>
         <v>85.696627703579551</v>
       </c>
@@ -10644,15 +10704,15 @@
       <c r="C11" s="3">
         <v>83.333333333333329</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <f t="shared" si="0"/>
         <v>81.622511925461069</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <f t="shared" si="3"/>
         <v>1.2450000000000037</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <f t="shared" si="1"/>
         <v>82.867511925461073</v>
       </c>
@@ -10672,15 +10732,15 @@
       <c r="C12" s="3">
         <v>81.111111111111114</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>79.02520244509617</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <f t="shared" si="3"/>
         <v>1.2600000000000036</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <f t="shared" si="1"/>
         <v>80.285202445096175</v>
       </c>
@@ -10700,15 +10760,15 @@
       <c r="C13" s="3">
         <v>78.888888888888886</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>77.411794184060966</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <f t="shared" si="3"/>
         <v>1.2750000000000035</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <f t="shared" si="1"/>
         <v>78.686794184060972</v>
       </c>
@@ -10728,15 +10788,15 @@
       <c r="C14" s="3">
         <v>76.666666666666671</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>75.733340023153175</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <f t="shared" si="3"/>
         <v>1.2900000000000034</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <f t="shared" si="1"/>
         <v>77.023340023153182</v>
       </c>
@@ -10756,15 +10816,15 @@
       <c r="C15" s="3">
         <v>75.555555555555557</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <f t="shared" si="0"/>
         <v>74.286551151136905</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <f t="shared" si="3"/>
         <v>1.3050000000000033</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <f t="shared" si="1"/>
         <v>75.591551151136912</v>
       </c>
@@ -10784,15 +10844,15 @@
       <c r="C16" s="3">
         <v>75</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <f t="shared" si="0"/>
         <v>73.727318675192208</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <f t="shared" si="3"/>
         <v>1.3200000000000032</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <f t="shared" si="1"/>
         <v>75.047318675192216</v>
       </c>
@@ -10812,15 +10872,15 @@
       <c r="C17" s="3">
         <v>73.333333333333329</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <f t="shared" si="0"/>
         <v>72.507008164972135</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <f t="shared" si="3"/>
         <v>1.3350000000000031</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <f t="shared" si="1"/>
         <v>73.842008164972142</v>
       </c>
@@ -10840,15 +10900,15 @@
       <c r="C18" s="3">
         <v>72.222222222222214</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
         <v>70.830398726074264</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <f t="shared" ref="F18:F24" si="6">F19+F$50</f>
         <v>1.350000000000003</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <f t="shared" si="1"/>
         <v>72.180398726074273</v>
       </c>
@@ -10868,15 +10928,15 @@
       <c r="C19" s="3">
         <v>71.111111111111114</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <f t="shared" si="0"/>
         <v>69.724270705990051</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="40">
         <f t="shared" si="6"/>
         <v>1.3650000000000029</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <f t="shared" si="1"/>
         <v>71.08927070599006</v>
       </c>
@@ -10896,15 +10956,15 @@
       <c r="C20" s="3">
         <v>68.888888888888886</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="32">
         <f t="shared" si="0"/>
         <v>67.520601798136738</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="40">
         <f t="shared" si="6"/>
         <v>1.3800000000000028</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="32">
         <f t="shared" si="1"/>
         <v>68.900601798136748</v>
       </c>
@@ -10924,15 +10984,15 @@
       <c r="C21" s="3">
         <v>66.666666666666671</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <f t="shared" si="0"/>
         <v>65.371796767566536</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="40">
         <f t="shared" si="6"/>
         <v>1.3950000000000027</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <f t="shared" si="1"/>
         <v>66.766796767566532</v>
       </c>
@@ -10952,15 +11012,15 @@
       <c r="C22" s="3">
         <v>65.555555555555557</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <f t="shared" si="0"/>
         <v>64.156878707749783</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="40">
         <f t="shared" si="6"/>
         <v>1.4100000000000026</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="32">
         <f t="shared" si="1"/>
         <v>65.56687870774978</v>
       </c>
@@ -10980,15 +11040,15 @@
       <c r="C23" s="3">
         <v>64.444444444444443</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f t="shared" si="0"/>
         <v>63.08759969424446</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="40">
         <f t="shared" si="6"/>
         <v>1.4250000000000025</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="32">
         <f t="shared" si="1"/>
         <v>64.512599694244457</v>
       </c>
@@ -11008,15 +11068,15 @@
       <c r="C24" s="3">
         <v>62.777777777777779</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <f t="shared" si="0"/>
         <v>61.332000755326007</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <f t="shared" si="6"/>
         <v>1.4400000000000024</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <f t="shared" si="1"/>
         <v>62.772000755326012</v>
       </c>
@@ -11036,15 +11096,15 @@
       <c r="C25" s="3">
         <v>60</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <f t="shared" si="0"/>
         <v>58.363483054889628</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="40">
         <f t="shared" ref="F25:F46" si="7">F26+F$50</f>
         <v>1.4550000000000023</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="32">
         <f t="shared" si="1"/>
         <v>59.818483054889633</v>
       </c>
@@ -11064,15 +11124,15 @@
       <c r="C26" s="3">
         <v>55.555555555555557</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="32">
         <f t="shared" si="0"/>
         <v>53.786784148048866</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="40">
         <f t="shared" si="7"/>
         <v>1.4700000000000022</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <f t="shared" si="1"/>
         <v>55.256784148048865</v>
       </c>
@@ -11092,15 +11152,15 @@
       <c r="C27" s="3">
         <v>52.777777777777779</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <f t="shared" si="0"/>
         <v>51.138705111395296</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <f t="shared" si="7"/>
         <v>1.4850000000000021</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="32">
         <f t="shared" si="1"/>
         <v>52.623705111395296</v>
       </c>
@@ -11120,15 +11180,15 @@
       <c r="C28" s="3">
         <v>51.666666666666664</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="32">
         <f t="shared" si="0"/>
         <v>49.995767888660652</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <f t="shared" si="7"/>
         <v>1.500000000000002</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="32">
         <f t="shared" si="1"/>
         <v>51.495767888660652</v>
       </c>
@@ -11148,15 +11208,15 @@
       <c r="C29" s="3">
         <v>50.555555555555557</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="32">
         <f t="shared" si="0"/>
         <v>48.900394114646886</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="40">
         <f t="shared" si="7"/>
         <v>1.5150000000000019</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="32">
         <f t="shared" si="1"/>
         <v>50.415394114646887</v>
       </c>
@@ -11176,15 +11236,15 @@
       <c r="C30" s="3">
         <v>50</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="32">
         <f t="shared" si="0"/>
         <v>48.341761904105823</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="40">
         <f t="shared" si="7"/>
         <v>1.5300000000000018</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="32">
         <f t="shared" si="1"/>
         <v>49.871761904105824</v>
       </c>
@@ -11204,15 +11264,15 @@
       <c r="C31" s="3">
         <v>47.777777777777779</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="32">
         <f t="shared" si="0"/>
         <v>45.966465564039211</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="40">
         <f t="shared" si="7"/>
         <v>1.5450000000000017</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="32">
         <f t="shared" si="1"/>
         <v>47.511465564039213</v>
       </c>
@@ -11232,15 +11292,15 @@
       <c r="C32" s="3">
         <v>46.666666666666664</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="32">
         <f t="shared" si="0"/>
         <v>44.928515443155298</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <f t="shared" si="7"/>
         <v>1.5600000000000016</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="32">
         <f t="shared" si="1"/>
         <v>46.4885154431553</v>
       </c>
@@ -11260,15 +11320,15 @@
       <c r="C33" s="3">
         <v>45.555555555555557</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="32">
         <f t="shared" si="0"/>
         <v>44.117971865634445</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="40">
         <f t="shared" si="7"/>
         <v>1.5750000000000015</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="32">
         <f t="shared" si="1"/>
         <v>45.692971865634448</v>
       </c>
@@ -11288,15 +11348,15 @@
       <c r="C34" s="3">
         <v>42.777777777777779</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="32">
         <f t="shared" si="0"/>
         <v>41.659502454795899</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <f t="shared" si="7"/>
         <v>1.5900000000000014</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="32">
         <f t="shared" si="1"/>
         <v>43.249502454795902</v>
       </c>
@@ -11316,15 +11376,15 @@
       <c r="C35" s="3">
         <v>40</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="32">
         <f t="shared" si="0"/>
         <v>38.804048864842798</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <f t="shared" si="7"/>
         <v>1.6050000000000013</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="32">
         <f t="shared" si="1"/>
         <v>40.409048864842802</v>
       </c>
@@ -11344,15 +11404,15 @@
       <c r="C36" s="3">
         <v>37.777777777777779</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="32">
         <f t="shared" si="0"/>
         <v>36.449927486993147</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <f t="shared" si="7"/>
         <v>1.6200000000000012</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="32">
         <f t="shared" si="1"/>
         <v>38.069927486993151</v>
       </c>
@@ -11372,15 +11432,15 @@
       <c r="C37" s="3">
         <v>36.666666666666664</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="32">
         <f t="shared" si="0"/>
         <v>35.270131656675808</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="40">
         <f t="shared" si="7"/>
         <v>1.6350000000000011</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="32">
         <f t="shared" si="1"/>
         <v>36.905131656675806</v>
       </c>
@@ -11400,15 +11460,15 @@
       <c r="C38" s="3">
         <v>35.555555555555557</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="32">
         <f t="shared" si="0"/>
         <v>34.082257595815797</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <f t="shared" si="7"/>
         <v>1.650000000000001</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="32">
         <f t="shared" si="1"/>
         <v>35.732257595815796</v>
       </c>
@@ -11428,15 +11488,15 @@
       <c r="C39" s="3">
         <v>33.888888888888886</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="32">
         <f t="shared" si="0"/>
         <v>32.359778917868567</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <f t="shared" si="7"/>
         <v>1.6650000000000009</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="32">
         <f t="shared" si="1"/>
         <v>34.024778917868566</v>
       </c>
@@ -11456,15 +11516,15 @@
       <c r="C40" s="3">
         <v>32.777777777777779</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="32">
         <f t="shared" si="0"/>
         <v>31.165645239518565</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="40">
         <f t="shared" si="7"/>
         <v>1.6800000000000008</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="32">
         <f t="shared" si="1"/>
         <v>32.845645239518568</v>
       </c>
@@ -11484,15 +11544,15 @@
       <c r="C41" s="3">
         <v>31.666666666666664</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="32">
         <f t="shared" si="0"/>
         <v>29.897120333647258</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="40">
         <f t="shared" si="7"/>
         <v>1.6950000000000007</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="32">
         <f t="shared" si="1"/>
         <v>31.592120333647259</v>
       </c>
@@ -11512,15 +11572,15 @@
       <c r="C42" s="3">
         <v>29.444444444444443</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="32">
         <f t="shared" si="0"/>
         <v>27.69228033454543</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="40">
         <f t="shared" si="7"/>
         <v>1.7100000000000006</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="32">
         <f t="shared" si="1"/>
         <v>29.402280334545431</v>
       </c>
@@ -11540,15 +11600,15 @@
       <c r="C43" s="3">
         <v>28.333333333333332</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="32">
         <f t="shared" si="0"/>
         <v>26.255961623520534</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="40">
         <f t="shared" si="7"/>
         <v>1.7250000000000005</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="32">
         <f t="shared" si="1"/>
         <v>27.980961623520535</v>
       </c>
@@ -11568,15 +11628,15 @@
       <c r="C44" s="3">
         <v>25.555555555555554</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="32">
         <f t="shared" si="0"/>
         <v>23.449621292778104</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="40">
         <f t="shared" si="7"/>
         <v>1.7400000000000004</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="32">
         <f t="shared" si="1"/>
         <v>25.189621292778106</v>
       </c>
@@ -11596,15 +11656,15 @@
       <c r="C45" s="3">
         <v>23.333333333333332</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="32">
         <f t="shared" si="0"/>
         <v>21.694857206695026</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="40">
         <f t="shared" si="7"/>
         <v>1.7550000000000003</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="32">
         <f>E45+F45</f>
         <v>23.449857206695025</v>
       </c>
@@ -11749,10 +11809,10 @@
     </row>
     <row r="51" spans="6:19" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q51">
         <v>9</v>
@@ -11762,8 +11822,8 @@
       </c>
     </row>
     <row r="52" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L52" s="31" t="s">
-        <v>97</v>
+      <c r="L52" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="M52">
         <v>100</v>
@@ -11780,8 +11840,8 @@
       </c>
     </row>
     <row r="53" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L53" s="31" t="s">
-        <v>93</v>
+      <c r="L53" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="M53">
         <v>125</v>
@@ -11798,8 +11858,8 @@
       </c>
     </row>
     <row r="54" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L54" s="31" t="s">
-        <v>94</v>
+      <c r="L54" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="M54">
         <v>135</v>
@@ -11810,8 +11870,8 @@
       </c>
     </row>
     <row r="56" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L56" s="31" t="s">
-        <v>93</v>
+      <c r="L56" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="M56">
         <v>135</v>
@@ -11864,18 +11924,18 @@
       <c r="B2">
         <v>6.8947599999999998E-2</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="34">
         <v>-0.29666662644569519</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="31">
         <v>2.5286608389334247E-2</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <v>3.5048588958920229E-5</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="34">
+      <c r="K3" s="33">
         <v>2E-3</v>
       </c>
     </row>
@@ -11887,7 +11947,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -11916,7 +11976,7 @@
         <f>K5+E5</f>
         <v>-1.4273054898989151E-2</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <f>(L5-C5)^2</f>
         <v>2.0372009614955819E-4</v>
       </c>
@@ -11948,7 +12008,7 @@
         <f t="shared" ref="L6:L33" si="3">K6+E6</f>
         <v>0.25180857746120783</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <f t="shared" ref="M6:M33" si="4">(L6-C6)^2</f>
         <v>5.7512781228211986E-4</v>
       </c>
@@ -11980,7 +12040,7 @@
         <f t="shared" si="3"/>
         <v>0.35870039808914772</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <f t="shared" si="4"/>
         <v>1.9494856039983623E-4</v>
       </c>
@@ -12012,7 +12072,7 @@
         <f t="shared" si="3"/>
         <v>0.54889005543395231</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="33">
         <f t="shared" si="4"/>
         <v>7.2401063197150958E-6</v>
       </c>
@@ -12044,7 +12104,7 @@
         <f t="shared" si="3"/>
         <v>0.7452173268227904</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <f t="shared" si="4"/>
         <v>1.7440565123108496E-4</v>
       </c>
@@ -12076,7 +12136,7 @@
         <f t="shared" si="3"/>
         <v>0.94497935992960269</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="33">
         <f t="shared" si="4"/>
         <v>2.3678500926624579E-3</v>
       </c>
@@ -12108,7 +12168,7 @@
         <f t="shared" si="3"/>
         <v>1.0788074601066415</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <f t="shared" si="4"/>
         <v>1.988576684282632E-3</v>
       </c>
@@ -12140,7 +12200,7 @@
         <f t="shared" si="3"/>
         <v>1.2141188165684222</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="33">
         <f t="shared" si="4"/>
         <v>1.7648078842258598E-3</v>
       </c>
@@ -12172,7 +12232,7 @@
         <f t="shared" si="3"/>
         <v>1.2862613840603827</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <f t="shared" si="4"/>
         <v>5.6373080590891883E-4</v>
       </c>
@@ -12204,7 +12264,7 @@
         <f t="shared" si="3"/>
         <v>1.4951500697320979</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="33">
         <f t="shared" si="4"/>
         <v>4.7076546186231336E-4</v>
       </c>
@@ -12236,7 +12296,7 @@
         <f t="shared" si="3"/>
         <v>1.6349756844517871</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <f t="shared" si="4"/>
         <v>3.9072304356395978E-4</v>
       </c>
@@ -12268,7 +12328,7 @@
         <f t="shared" si="3"/>
         <v>1.9201538540015308</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="33">
         <f t="shared" si="4"/>
         <v>1.0772252003913802E-4</v>
       </c>
@@ -12300,7 +12360,7 @@
         <f t="shared" si="3"/>
         <v>2.0644614822772871</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <f t="shared" si="4"/>
         <v>1.5733262844595027E-5</v>
       </c>
@@ -12332,7 +12392,7 @@
         <f t="shared" si="3"/>
         <v>2.2102523668377843</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="33">
         <f t="shared" si="4"/>
         <v>4.2273966508695063E-3</v>
       </c>
@@ -12364,7 +12424,7 @@
         <f t="shared" si="3"/>
         <v>2.4339105278967885</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="33">
         <f t="shared" si="4"/>
         <v>4.3033543766064048E-4</v>
       </c>
@@ -12396,7 +12456,7 @@
         <f t="shared" si="3"/>
         <v>2.5094907558482924</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="33">
         <f t="shared" si="4"/>
         <v>7.4950866234169502E-4</v>
       </c>
@@ -12428,7 +12488,7 @@
         <f t="shared" si="3"/>
         <v>2.7344563241299173</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="33">
         <f t="shared" si="4"/>
         <v>5.4979350370845204E-4</v>
       </c>
@@ -12460,7 +12520,7 @@
         <f t="shared" si="3"/>
         <v>2.8902422704352664</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="33">
         <f t="shared" si="4"/>
         <v>3.0879466187409531E-5</v>
       </c>
@@ -12492,7 +12552,7 @@
         <f t="shared" si="3"/>
         <v>3.0442555539655269</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="33">
         <f t="shared" si="4"/>
         <v>1.1153797308356746E-4</v>
       </c>
@@ -12524,7 +12584,7 @@
         <f t="shared" si="3"/>
         <v>3.2031054479176659</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="33">
         <f t="shared" si="4"/>
         <v>9.9324866996945487E-4</v>
       </c>
@@ -12556,7 +12616,7 @@
         <f t="shared" si="3"/>
         <v>3.2487628401323496</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="33">
         <f t="shared" si="4"/>
         <v>6.7661155586922335E-5</v>
       </c>
@@ -12588,7 +12648,7 @@
         <f t="shared" si="3"/>
         <v>3.4401797302268218</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="33">
         <f t="shared" si="4"/>
         <v>5.1843884806542411E-5</v>
       </c>
@@ -12620,7 +12680,7 @@
         <f t="shared" si="3"/>
         <v>3.5994166554555194</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="33">
         <f t="shared" si="4"/>
         <v>1.9998076240044168E-4</v>
       </c>
@@ -12652,7 +12712,7 @@
         <f t="shared" si="3"/>
         <v>3.6014166554555191</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="33">
         <f t="shared" si="4"/>
         <v>2.605465842225125E-4</v>
       </c>
@@ -12684,7 +12744,7 @@
         <f t="shared" si="3"/>
         <v>3.6825913391766467</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="33">
         <f t="shared" si="4"/>
         <v>1.6466601773053955E-3</v>
       </c>
@@ -12716,7 +12776,7 @@
         <f t="shared" si="3"/>
         <v>3.7641368369689592</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30" s="33">
         <f t="shared" si="4"/>
         <v>7.8294548456967882E-4</v>
       </c>
@@ -12748,7 +12808,7 @@
         <f t="shared" si="3"/>
         <v>3.9298394310343454</v>
       </c>
-      <c r="M31" s="34">
+      <c r="M31" s="33">
         <f t="shared" si="4"/>
         <v>3.0195653424622242E-8</v>
       </c>
@@ -12780,7 +12840,7 @@
         <f t="shared" si="3"/>
         <v>4.1749740603182701</v>
       </c>
-      <c r="M32" s="34">
+      <c r="M32" s="33">
         <f t="shared" si="4"/>
         <v>1.4529865224272892E-3</v>
       </c>
@@ -12812,7 +12872,7 @@
         <f t="shared" si="3"/>
         <v>4.2623249115312865</v>
       </c>
-      <c r="M33" s="34">
+      <c r="M33" s="33">
         <f t="shared" si="4"/>
         <v>1.5441264510767982E-4</v>
       </c>
@@ -12872,13 +12932,13 @@
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="K40" s="31" t="s">
-        <v>94</v>
+      <c r="K40" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="L40">
         <v>6</v>
@@ -12890,8 +12950,8 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="K41" s="31" t="s">
-        <v>93</v>
+      <c r="K41" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="L41" s="3">
         <v>5.5</v>
@@ -12903,8 +12963,8 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="K42" s="31" t="s">
-        <v>92</v>
+      <c r="K42" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="L42">
         <v>1.3</v>
@@ -12916,8 +12976,8 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="K43" s="31" t="s">
-        <v>96</v>
+      <c r="K43" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="L43">
         <v>0.8</v>
@@ -13018,12 +13078,12 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -13040,7 +13100,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -13057,7 +13117,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -13099,7 +13159,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <f>(C3/1000)*C5</f>
@@ -13114,7 +13174,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <f>(C4/1000)*C5</f>
@@ -13129,7 +13189,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C9">
         <f>C2-C8</f>
@@ -13144,7 +13204,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C10">
         <f>C2-C7</f>
@@ -13219,7 +13279,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -13233,7 +13293,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C18">
         <v>1000</v>
@@ -13247,7 +13307,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3">
         <f>(C17-ROTOR_A)/ROTOR_B</f>
@@ -13256,7 +13316,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3">
         <f>(C18-ROTOR_A)/ROTOR_B</f>
@@ -13265,18 +13325,18 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="34">
+        <v>153</v>
+      </c>
+      <c r="C21" s="33">
         <f>C19*$C$5/1000</f>
         <v>0.22559999999999999</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="34">
+        <v>156</v>
+      </c>
+      <c r="C22" s="33">
         <f>C20*$C$5/1000</f>
         <v>0.94</v>
       </c>
@@ -13321,10 +13381,10 @@
       <c r="B2" s="2">
         <v>-137.69868567406144</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="34">
         <v>9.5067552553605665</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <v>-0.27222557461004249</v>
       </c>
     </row>
@@ -13333,15 +13393,15 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="55">
+        <v>150</v>
+      </c>
+      <c r="F4" s="54">
         <f>SUM(F5:F252)</f>
         <v>27.870174821385483</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="53">
         <v>32205.9</v>
       </c>
       <c r="B5">
@@ -13357,7 +13417,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="53">
         <v>31074.799999999999</v>
       </c>
       <c r="B6">
@@ -13373,7 +13433,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="53">
         <v>29990</v>
       </c>
       <c r="B7">
@@ -13389,7 +13449,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="53">
         <v>28905.3</v>
       </c>
       <c r="B8">
@@ -13405,7 +13465,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="53">
         <v>27866</v>
       </c>
       <c r="B9">
@@ -13421,7 +13481,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="53">
         <v>26870</v>
       </c>
       <c r="B10">
@@ -13437,7 +13497,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="53">
         <v>25915.3</v>
       </c>
       <c r="B11">
@@ -13453,7 +13513,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="53">
         <v>25000</v>
       </c>
       <c r="B12">
@@ -13469,7 +13529,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="53">
         <v>24109.9</v>
       </c>
       <c r="B13">
@@ -13485,7 +13545,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="53">
         <v>23256.5</v>
       </c>
       <c r="B14">
@@ -13501,7 +13561,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+      <c r="A15" s="53">
         <v>22438.1</v>
       </c>
       <c r="B15">
@@ -13517,7 +13577,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="53">
         <v>21653.1</v>
       </c>
       <c r="B16">
@@ -13533,7 +13593,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="53">
         <v>20900</v>
       </c>
       <c r="B17">
@@ -13549,7 +13609,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="53">
         <v>20174.099999999999</v>
       </c>
       <c r="B18">
@@ -13565,7 +13625,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="53">
         <v>19477.399999999998</v>
       </c>
       <c r="B19">
@@ -13581,7 +13641,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="53">
         <v>18808.7</v>
       </c>
       <c r="B20">
@@ -13597,7 +13657,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+      <c r="A21" s="53">
         <v>18166.599999999999</v>
       </c>
       <c r="B21">
@@ -13613,7 +13673,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="53">
         <v>17550</v>
       </c>
       <c r="B22">
@@ -13629,7 +13689,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
+      <c r="A23" s="53">
         <v>16945.900000000001</v>
       </c>
       <c r="B23">
@@ -13645,7 +13705,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="53">
         <v>16365.9</v>
       </c>
       <c r="B24">
@@ -13661,7 +13721,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
+      <c r="A25" s="53">
         <v>15808.9</v>
       </c>
       <c r="B25">
@@ -13677,7 +13737,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="53">
         <v>15273.9</v>
       </c>
       <c r="B26">
@@ -13693,7 +13753,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="54">
+      <c r="A27" s="53">
         <v>14760</v>
       </c>
       <c r="B27">
@@ -13709,7 +13769,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="54">
+      <c r="A28" s="53">
         <v>14281.3</v>
       </c>
       <c r="B28">
@@ -13725,7 +13785,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="54">
+      <c r="A29" s="53">
         <v>13820.6</v>
       </c>
       <c r="B29">
@@ -13741,7 +13801,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="54">
+      <c r="A30" s="53">
         <v>13377.4</v>
       </c>
       <c r="B30">
@@ -13757,7 +13817,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="54">
+      <c r="A31" s="53">
         <v>12950.699999999999</v>
       </c>
       <c r="B31">
@@ -13773,7 +13833,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="54">
+      <c r="A32" s="53">
         <v>12540</v>
       </c>
       <c r="B32">
@@ -13789,7 +13849,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="54">
+      <c r="A33" s="53">
         <v>12134.7</v>
       </c>
       <c r="B33">
@@ -13805,7 +13865,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="54">
+      <c r="A34" s="53">
         <v>11744.7</v>
       </c>
       <c r="B34">
@@ -13821,7 +13881,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="54">
+      <c r="A35" s="53">
         <v>11369.400000000001</v>
       </c>
       <c r="B35">
@@ -13837,7 +13897,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="54">
+      <c r="A36" s="53">
         <v>11008</v>
       </c>
       <c r="B36">
@@ -13853,7 +13913,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="54">
+      <c r="A37" s="53">
         <v>10660</v>
       </c>
       <c r="B37">
@@ -13869,7 +13929,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="54">
+      <c r="A38" s="53">
         <v>10324.299999999999</v>
       </c>
       <c r="B38">
@@ -13885,7 +13945,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="54">
+      <c r="A39" s="53">
         <v>10001</v>
       </c>
       <c r="B39">
@@ -13901,7 +13961,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="54">
+      <c r="A40" s="53">
         <v>9689.5</v>
       </c>
       <c r="B40">
@@ -13917,7 +13977,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="54">
+      <c r="A41" s="53">
         <v>9389.3000000000011</v>
       </c>
       <c r="B41">
@@ -13933,7 +13993,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="54">
+      <c r="A42" s="53">
         <v>9100</v>
       </c>
       <c r="B42">
@@ -13949,7 +14009,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="54">
+      <c r="A43" s="53">
         <v>8817.1</v>
       </c>
       <c r="B43">
@@ -13965,7 +14025,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="54">
+      <c r="A44" s="53">
         <v>8544.4</v>
       </c>
       <c r="B44">
@@ -13981,7 +14041,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="54">
+      <c r="A45" s="53">
         <v>8281.5999999999985</v>
       </c>
       <c r="B45">
@@ -13997,7 +14057,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="54">
+      <c r="A46" s="53">
         <v>8028.3</v>
       </c>
       <c r="B46">
@@ -14013,7 +14073,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="54">
+      <c r="A47" s="53">
         <v>7784</v>
       </c>
       <c r="B47">
@@ -14029,7 +14089,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="54">
+      <c r="A48" s="53">
         <v>7553.8</v>
       </c>
       <c r="B48">
@@ -14045,7 +14105,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="54">
+      <c r="A49" s="53">
         <v>7331.5999999999995</v>
       </c>
       <c r="B49">
@@ -14061,7 +14121,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="54">
+      <c r="A50" s="53">
         <v>7117.2000000000007</v>
       </c>
       <c r="B50">
@@ -14077,7 +14137,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="54">
+      <c r="A51" s="53">
         <v>6910</v>
       </c>
       <c r="B51">
@@ -14093,7 +14153,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="54">
+      <c r="A52" s="53">
         <v>6710</v>
       </c>
       <c r="B52">
@@ -14109,7 +14169,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="54">
+      <c r="A53" s="53">
         <v>6526.5</v>
       </c>
       <c r="B53">
@@ -14125,7 +14185,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="54">
+      <c r="A54" s="53">
         <v>6349</v>
       </c>
       <c r="B54">
@@ -14141,7 +14201,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="54">
+      <c r="A55" s="53">
         <v>6177.2</v>
       </c>
       <c r="B55">
@@ -14157,7 +14217,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="54">
+      <c r="A56" s="53">
         <v>6010.9000000000005</v>
       </c>
       <c r="B56">
@@ -14173,7 +14233,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="54">
+      <c r="A57" s="53">
         <v>5850</v>
       </c>
       <c r="B57">
@@ -14189,7 +14249,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="54">
+      <c r="A58" s="53">
         <v>5683.2</v>
       </c>
       <c r="B58">
@@ -14205,7 +14265,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="54">
+      <c r="A59" s="53">
         <v>5522.1</v>
       </c>
       <c r="B59">
@@ -14221,7 +14281,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="54">
+      <c r="A60" s="53">
         <v>5366.3</v>
       </c>
       <c r="B60">
@@ -14237,7 +14297,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="54">
+      <c r="A61" s="53">
         <v>5215.6000000000004</v>
       </c>
       <c r="B61">
@@ -14253,7 +14313,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="54">
+      <c r="A62" s="53">
         <v>5070</v>
       </c>
       <c r="B62">
@@ -14269,7 +14329,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="54">
+      <c r="A63" s="53">
         <v>4929.1000000000004</v>
       </c>
       <c r="B63">
@@ -14285,7 +14345,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="54">
+      <c r="A64" s="53">
         <v>4792.7999999999993</v>
       </c>
       <c r="B64">
@@ -14301,7 +14361,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="54">
+      <c r="A65" s="53">
         <v>4661</v>
       </c>
       <c r="B65">
@@ -14317,7 +14377,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="54">
+      <c r="A66" s="53">
         <v>4533.4000000000005</v>
       </c>
       <c r="B66">
@@ -14333,7 +14393,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="54">
+      <c r="A67" s="53">
         <v>4410</v>
       </c>
       <c r="B67">
@@ -14349,7 +14409,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="54">
+      <c r="A68" s="53">
         <v>4290.6000000000004</v>
       </c>
       <c r="B68">
@@ -14365,7 +14425,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="54">
+      <c r="A69" s="53">
         <v>4175.0999999999995</v>
       </c>
       <c r="B69">
@@ -14381,7 +14441,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="54">
+      <c r="A70" s="53">
         <v>4063.2000000000003</v>
       </c>
       <c r="B70">
@@ -14397,7 +14457,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="54">
+      <c r="A71" s="53">
         <v>3954.8999999999996</v>
       </c>
       <c r="B71">
@@ -14413,7 +14473,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="54">
+      <c r="A72" s="53">
         <v>3850</v>
       </c>
       <c r="B72">
@@ -14429,7 +14489,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="54">
+      <c r="A73" s="53">
         <v>3741</v>
       </c>
       <c r="B73">
@@ -14445,7 +14505,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="54">
+      <c r="A74" s="53">
         <v>3635.7</v>
       </c>
       <c r="B74">
@@ -14461,7 +14521,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="54">
+      <c r="A75" s="53">
         <v>3533.7999999999997</v>
       </c>
       <c r="B75">
@@ -14477,7 +14537,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="54">
+      <c r="A76" s="53">
         <v>3435.2999999999997</v>
       </c>
       <c r="B76">
@@ -14493,7 +14553,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="54">
+      <c r="A77" s="53">
         <v>3340</v>
       </c>
       <c r="B77">
@@ -14509,7 +14569,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="54">
+      <c r="A78" s="53">
         <v>3255</v>
       </c>
       <c r="B78">
@@ -14525,7 +14585,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="54">
+      <c r="A79" s="53">
         <v>3172.6</v>
       </c>
       <c r="B79">
@@ -14541,7 +14601,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="54">
+      <c r="A80" s="53">
         <v>3092.7</v>
       </c>
       <c r="B80">
@@ -14557,7 +14617,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="54">
+      <c r="A81" s="53">
         <v>3015.2000000000003</v>
       </c>
       <c r="B81">
@@ -14573,7 +14633,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="54">
+      <c r="A82" s="53">
         <v>2940</v>
       </c>
       <c r="B82">
@@ -14589,7 +14649,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="54">
+      <c r="A83" s="53">
         <v>2863.4</v>
       </c>
       <c r="B83">
@@ -14605,7 +14665,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="54">
+      <c r="A84" s="53">
         <v>2789.2999999999997</v>
       </c>
       <c r="B84">
@@ -14621,7 +14681,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="54">
+      <c r="A85" s="53">
         <v>2717.2999999999997</v>
       </c>
       <c r="B85">
@@ -14637,7 +14697,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="54">
+      <c r="A86" s="53">
         <v>2647.6000000000004</v>
       </c>
       <c r="B86">
@@ -14653,7 +14713,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="54">
+      <c r="A87" s="53">
         <v>2580</v>
       </c>
       <c r="B87">
@@ -14669,7 +14729,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="54">
+      <c r="A88" s="53">
         <v>2514.4</v>
       </c>
       <c r="B88">
@@ -14685,7 +14745,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="54">
+      <c r="A89" s="53">
         <v>2450.6999999999998</v>
       </c>
       <c r="B89">
@@ -14701,7 +14761,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="54">
+      <c r="A90" s="53">
         <v>2389</v>
       </c>
       <c r="B90">
@@ -14717,7 +14777,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="54">
+      <c r="A91" s="53">
         <v>2329.1</v>
       </c>
       <c r="B91">
@@ -14733,7 +14793,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="54">
+      <c r="A92" s="53">
         <v>2271</v>
       </c>
       <c r="B92">
@@ -14749,7 +14809,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="54">
+      <c r="A93" s="53">
         <v>2213.5</v>
       </c>
       <c r="B93">
@@ -14765,7 +14825,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="54">
+      <c r="A94" s="53">
         <v>2157.7000000000003</v>
       </c>
       <c r="B94">
@@ -14781,7 +14841,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="54">
+      <c r="A95" s="53">
         <v>2103.5</v>
       </c>
       <c r="B95">
@@ -14797,7 +14857,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="54">
+      <c r="A96" s="53">
         <v>2051</v>
       </c>
       <c r="B96">
@@ -14813,7 +14873,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="54">
+      <c r="A97" s="53">
         <v>2000</v>
       </c>
       <c r="B97">
@@ -14829,7 +14889,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="54">
+      <c r="A98" s="53">
         <v>1951.3</v>
       </c>
       <c r="B98">
@@ -14845,7 +14905,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="54">
+      <c r="A99" s="53">
         <v>1904</v>
       </c>
       <c r="B99">
@@ -14861,7 +14921,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="54">
+      <c r="A100" s="53">
         <v>1858</v>
       </c>
       <c r="B100">
@@ -14877,7 +14937,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="54">
+      <c r="A101" s="53">
         <v>1813.3999999999999</v>
       </c>
       <c r="B101">
@@ -14893,7 +14953,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="54">
+      <c r="A102" s="53">
         <v>1770</v>
       </c>
       <c r="B102">
@@ -14909,7 +14969,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="54">
+      <c r="A103" s="53">
         <v>1731.9</v>
       </c>
       <c r="B103">
@@ -14925,7 +14985,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="54">
+      <c r="A104" s="53">
         <v>1694.7</v>
       </c>
       <c r="B104">
@@ -14941,7 +15001,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="54">
+      <c r="A105" s="53">
         <v>1658.6000000000001</v>
       </c>
       <c r="B105">
@@ -14957,7 +15017,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="54">
+      <c r="A106" s="53">
         <v>1623.3</v>
       </c>
       <c r="B106">
@@ -14973,7 +15033,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="54">
+      <c r="A107" s="53">
         <v>1589</v>
       </c>
       <c r="B107">
@@ -14989,7 +15049,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="54">
+      <c r="A108" s="53">
         <v>1552</v>
       </c>
       <c r="B108">
@@ -15005,7 +15065,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="54">
+      <c r="A109" s="53">
         <v>1516</v>
       </c>
       <c r="B109">
@@ -15021,7 +15081,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="54">
+      <c r="A110" s="53">
         <v>1481.1000000000001</v>
       </c>
       <c r="B110">
@@ -15037,7 +15097,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="54">
+      <c r="A111" s="53">
         <v>1447.1000000000001</v>
       </c>
       <c r="B111">
@@ -15053,7 +15113,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="54">
+      <c r="A112" s="53">
         <v>1414</v>
       </c>
       <c r="B112">
@@ -15069,7 +15129,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="54">
+      <c r="A113" s="53">
         <v>1381.2</v>
       </c>
       <c r="B113">
@@ -15085,7 +15145,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="54">
+      <c r="A114" s="53">
         <v>1349.3999999999999</v>
       </c>
       <c r="B114">
@@ -15101,7 +15161,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="54">
+      <c r="A115" s="53">
         <v>1318.4</v>
       </c>
       <c r="B115">
@@ -15117,7 +15177,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="54">
+      <c r="A116" s="53">
         <v>1288.3</v>
       </c>
       <c r="B116">
@@ -15133,7 +15193,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="54">
+      <c r="A117" s="53">
         <v>1259</v>
       </c>
       <c r="B117">
@@ -15149,7 +15209,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="54">
+      <c r="A118" s="53">
         <v>1230.0999999999999</v>
       </c>
       <c r="B118">
@@ -15165,7 +15225,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="54">
+      <c r="A119" s="53">
         <v>1201.8999999999999</v>
       </c>
       <c r="B119">
@@ -15181,7 +15241,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="54">
+      <c r="A120" s="53">
         <v>1174.5</v>
       </c>
       <c r="B120">
@@ -15197,7 +15257,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="54">
+      <c r="A121" s="53">
         <v>1147.8999999999999</v>
       </c>
       <c r="B121">
@@ -15213,7 +15273,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="54">
+      <c r="A122" s="53">
         <v>1122</v>
       </c>
       <c r="B122">
@@ -15229,7 +15289,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="54">
+      <c r="A123" s="53">
         <v>1095.5999999999999</v>
       </c>
       <c r="B123">
@@ -15245,7 +15305,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="54">
+      <c r="A124" s="53">
         <v>1069.9000000000001</v>
       </c>
       <c r="B124">
@@ -15261,7 +15321,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="54">
+      <c r="A125" s="53">
         <v>1044.8999999999999</v>
       </c>
       <c r="B125">
@@ -15277,7 +15337,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="54">
+      <c r="A126" s="53">
         <v>1020.5999999999999</v>
       </c>
       <c r="B126">
@@ -15293,7 +15353,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="54">
+      <c r="A127" s="53">
         <v>997</v>
       </c>
       <c r="B127">
@@ -15309,7 +15369,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="54">
+      <c r="A128" s="53">
         <v>975.7</v>
       </c>
       <c r="B128">
@@ -15325,7 +15385,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="54">
+      <c r="A129" s="53">
         <v>955</v>
       </c>
       <c r="B129">
@@ -15341,7 +15401,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="54">
+      <c r="A130" s="53">
         <v>934.8</v>
       </c>
       <c r="B130">
@@ -15357,7 +15417,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="54">
+      <c r="A131" s="53">
         <v>915.1</v>
       </c>
       <c r="B131">
@@ -15373,7 +15433,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="54">
+      <c r="A132" s="53">
         <v>896</v>
       </c>
       <c r="B132">
@@ -15389,7 +15449,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="54">
+      <c r="A133" s="53">
         <v>875</v>
       </c>
       <c r="B133">
@@ -15405,7 +15465,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="54">
+      <c r="A134" s="53">
         <v>854.7</v>
       </c>
       <c r="B134">
@@ -15421,7 +15481,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="54">
+      <c r="A135" s="53">
         <v>834.9</v>
       </c>
       <c r="B135">
@@ -15437,7 +15497,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="54">
+      <c r="A136" s="53">
         <v>815.69999999999993</v>
       </c>
       <c r="B136">
@@ -15453,7 +15513,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="54">
+      <c r="A137" s="53">
         <v>797</v>
       </c>
       <c r="B137">
@@ -15469,7 +15529,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="54">
+      <c r="A138" s="53">
         <v>780.59999999999991</v>
       </c>
       <c r="B138">
@@ -15485,7 +15545,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="54">
+      <c r="A139" s="53">
         <v>764.59999999999991</v>
       </c>
       <c r="B139">
@@ -15501,7 +15561,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="54">
+      <c r="A140" s="53">
         <v>749</v>
       </c>
       <c r="B140">
@@ -15517,7 +15577,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="54">
+      <c r="A141" s="53">
         <v>733.8</v>
       </c>
       <c r="B141">
@@ -15533,7 +15593,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="54">
+      <c r="A142" s="53">
         <v>719</v>
       </c>
       <c r="B142">
@@ -15549,7 +15609,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="54">
+      <c r="A143" s="53">
         <v>702.9</v>
       </c>
       <c r="B143">
@@ -15565,7 +15625,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="54">
+      <c r="A144" s="53">
         <v>687.30000000000007</v>
       </c>
       <c r="B144">
@@ -15581,7 +15641,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="54">
+      <c r="A145" s="53">
         <v>672.1</v>
       </c>
       <c r="B145">
@@ -15597,7 +15657,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="54">
+      <c r="A146" s="53">
         <v>657.4</v>
       </c>
       <c r="B146">
@@ -15613,7 +15673,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="54">
+      <c r="A147" s="53">
         <v>643</v>
       </c>
       <c r="B147">
@@ -15629,7 +15689,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="54">
+      <c r="A148" s="53">
         <v>630.19999999999993</v>
       </c>
       <c r="B148">
@@ -15645,7 +15705,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="54">
+      <c r="A149" s="53">
         <v>617.70000000000005</v>
       </c>
       <c r="B149">
@@ -15661,7 +15721,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="54">
+      <c r="A150" s="53">
         <v>605.5</v>
       </c>
       <c r="B150">
@@ -15677,7 +15737,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="54">
+      <c r="A151" s="53">
         <v>593.6</v>
       </c>
       <c r="B151">
@@ -15693,7 +15753,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="54">
+      <c r="A152" s="53">
         <v>582</v>
       </c>
       <c r="B152">
@@ -15709,7 +15769,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="54">
+      <c r="A153" s="53">
         <v>571.69999999999993</v>
       </c>
       <c r="B153">
@@ -15725,7 +15785,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="54">
+      <c r="A154" s="53">
         <v>561.69999999999993</v>
       </c>
       <c r="B154">
@@ -15741,7 +15801,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="54">
+      <c r="A155" s="53">
         <v>551.9</v>
       </c>
       <c r="B155">
@@ -15757,7 +15817,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="54">
+      <c r="A156" s="53">
         <v>542.29999999999995</v>
       </c>
       <c r="B156">
@@ -15773,7 +15833,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="54">
+      <c r="A157" s="53">
         <v>533</v>
       </c>
       <c r="B157">
@@ -15789,7 +15849,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="54">
+      <c r="A158" s="53">
         <v>522.5</v>
       </c>
       <c r="B158">
@@ -15805,7 +15865,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="54">
+      <c r="A159" s="53">
         <v>512.20000000000005</v>
       </c>
       <c r="B159">
@@ -15821,7 +15881,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="54">
+      <c r="A160" s="53">
         <v>502.2</v>
       </c>
       <c r="B160">
@@ -15837,7 +15897,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="54">
+      <c r="A161" s="53">
         <v>492.5</v>
       </c>
       <c r="B161">
@@ -15853,7 +15913,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="54">
+      <c r="A162" s="53">
         <v>483</v>
       </c>
       <c r="B162">
@@ -15869,7 +15929,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="54">
+      <c r="A163" s="53">
         <v>473.3</v>
       </c>
       <c r="B163">
@@ -15885,7 +15945,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="54">
+      <c r="A164" s="53">
         <v>463.9</v>
       </c>
       <c r="B164">
@@ -15901,7 +15961,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="54">
+      <c r="A165" s="53">
         <v>454.7</v>
       </c>
       <c r="B165">
@@ -15917,7 +15977,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="54">
+      <c r="A166" s="53">
         <v>445.7</v>
       </c>
       <c r="B166">
@@ -15933,7 +15993,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="54">
+      <c r="A167" s="53">
         <v>437</v>
       </c>
       <c r="B167">
@@ -15949,7 +16009,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="54">
+      <c r="A168" s="53">
         <v>428.4</v>
       </c>
       <c r="B168">
@@ -15965,7 +16025,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="54">
+      <c r="A169" s="53">
         <v>420</v>
       </c>
       <c r="B169">
@@ -15981,7 +16041,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="54">
+      <c r="A170" s="53">
         <v>411.8</v>
       </c>
       <c r="B170">
@@ -15997,7 +16057,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="54">
+      <c r="A171" s="53">
         <v>403.8</v>
       </c>
       <c r="B171">
@@ -16013,7 +16073,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="54">
+      <c r="A172" s="53">
         <v>396</v>
       </c>
       <c r="B172">
@@ -16029,7 +16089,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="54">
+      <c r="A173" s="53">
         <v>388.40000000000003</v>
       </c>
       <c r="B173">
@@ -16045,7 +16105,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="54">
+      <c r="A174" s="53">
         <v>381</v>
       </c>
       <c r="B174">
@@ -16061,7 +16121,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="54">
+      <c r="A175" s="53">
         <v>373.90000000000003</v>
       </c>
       <c r="B175">
@@ -16077,7 +16137,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="54">
+      <c r="A176" s="53">
         <v>366.8</v>
       </c>
       <c r="B176">
@@ -16093,7 +16153,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="54">
+      <c r="A177" s="53">
         <v>360</v>
       </c>
       <c r="B177">
@@ -16109,7 +16169,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="54">
+      <c r="A178" s="53">
         <v>353.3</v>
       </c>
       <c r="B178">
@@ -16125,7 +16185,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="54">
+      <c r="A179" s="53">
         <v>346.7</v>
       </c>
       <c r="B179">
@@ -16141,7 +16201,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="54">
+      <c r="A180" s="53">
         <v>340.3</v>
       </c>
       <c r="B180">
@@ -16157,7 +16217,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="54">
+      <c r="A181" s="53">
         <v>334.1</v>
       </c>
       <c r="B181">
@@ -16173,7 +16233,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="54">
+      <c r="A182" s="53">
         <v>328</v>
       </c>
       <c r="B182">
@@ -16189,7 +16249,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="54">
+      <c r="A183" s="53">
         <v>322</v>
       </c>
       <c r="B183">
@@ -16205,7 +16265,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="54">
+      <c r="A184" s="53">
         <v>316.09999999999997</v>
       </c>
       <c r="B184">
@@ -16221,7 +16281,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="54">
+      <c r="A185" s="53">
         <v>310.40000000000003</v>
       </c>
       <c r="B185">
@@ -16237,7 +16297,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="54">
+      <c r="A186" s="53">
         <v>304.8</v>
       </c>
       <c r="B186">
@@ -16253,7 +16313,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="54">
+      <c r="A187" s="53">
         <v>299.3</v>
       </c>
       <c r="B187">
@@ -16269,7 +16329,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="54">
+      <c r="A188" s="53">
         <v>294</v>
       </c>
       <c r="B188">
@@ -16285,7 +16345,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="54">
+      <c r="A189" s="53">
         <v>288.8</v>
       </c>
       <c r="B189">
@@ -16301,7 +16361,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="54">
+      <c r="A190" s="53">
         <v>283.60000000000002</v>
       </c>
       <c r="B190">
@@ -16317,7 +16377,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="54">
+      <c r="A191" s="53">
         <v>278.60000000000002</v>
       </c>
       <c r="B191">
@@ -16333,7 +16393,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="54">
+      <c r="A192" s="53">
         <v>273.7</v>
       </c>
       <c r="B192">
@@ -16349,7 +16409,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="54">
+      <c r="A193" s="53">
         <v>268.89999999999998</v>
       </c>
       <c r="B193">
@@ -16365,7 +16425,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="54">
+      <c r="A194" s="53">
         <v>264.2</v>
       </c>
       <c r="B194">
@@ -16381,7 +16441,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="54">
+      <c r="A195" s="53">
         <v>259.60000000000002</v>
       </c>
       <c r="B195">
@@ -16397,7 +16457,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="54">
+      <c r="A196" s="53">
         <v>255.1</v>
       </c>
       <c r="B196">
@@ -16413,7 +16473,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="54">
+      <c r="A197" s="53">
         <v>250.7</v>
       </c>
       <c r="B197">
@@ -16429,7 +16489,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="54">
+      <c r="A198" s="53">
         <v>246.4</v>
       </c>
       <c r="B198">
@@ -16445,7 +16505,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="54">
+      <c r="A199" s="53">
         <v>242.2</v>
       </c>
       <c r="B199">
@@ -16461,7 +16521,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="54">
+      <c r="A200" s="53">
         <v>238</v>
       </c>
       <c r="B200">
@@ -16477,7 +16537,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="54">
+      <c r="A201" s="53">
         <v>234</v>
       </c>
       <c r="B201">
@@ -16493,7 +16553,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="54">
+      <c r="A202" s="53">
         <v>230</v>
       </c>
       <c r="B202">
@@ -16509,7 +16569,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="54">
+      <c r="A203" s="53">
         <v>226.20000000000002</v>
       </c>
       <c r="B203">
@@ -16525,7 +16585,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="54">
+      <c r="A204" s="53">
         <v>222.3</v>
       </c>
       <c r="B204">
@@ -16541,7 +16601,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="54">
+      <c r="A205" s="53">
         <v>218.6</v>
       </c>
       <c r="B205">
@@ -16557,7 +16617,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="54">
+      <c r="A206" s="53">
         <v>215</v>
       </c>
       <c r="B206">
@@ -16573,7 +16633,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="54">
+      <c r="A207" s="53">
         <v>211.4</v>
       </c>
       <c r="B207">
@@ -16589,7 +16649,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="54">
+      <c r="A208" s="53">
         <v>207.9</v>
       </c>
       <c r="B208">
@@ -16605,7 +16665,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="54">
+      <c r="A209" s="53">
         <v>204.5</v>
       </c>
       <c r="B209">
@@ -16621,7 +16681,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="54">
+      <c r="A210" s="53">
         <v>201.1</v>
       </c>
       <c r="B210">
@@ -16637,7 +16697,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="54">
+      <c r="A211" s="53">
         <v>197.8</v>
       </c>
       <c r="B211">
@@ -16653,7 +16713,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="54">
+      <c r="A212" s="53">
         <v>194.6</v>
       </c>
       <c r="B212">
@@ -16669,7 +16729,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="54">
+      <c r="A213" s="53">
         <v>191.39999999999998</v>
       </c>
       <c r="B213">
@@ -16685,7 +16745,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="54">
+      <c r="A214" s="53">
         <v>188.29999999999998</v>
       </c>
       <c r="B214">
@@ -16701,7 +16761,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="54">
+      <c r="A215" s="53">
         <v>185.29999999999998</v>
       </c>
       <c r="B215">
@@ -16717,7 +16777,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="54">
+      <c r="A216" s="53">
         <v>182.29999999999998</v>
       </c>
       <c r="B216">
@@ -16733,7 +16793,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="54">
+      <c r="A217" s="53">
         <v>179.4</v>
       </c>
       <c r="B217">
@@ -16749,7 +16809,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="54">
+      <c r="A218" s="53">
         <v>176.5</v>
       </c>
       <c r="B218">
@@ -16765,7 +16825,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="54">
+      <c r="A219" s="53">
         <v>173.7</v>
       </c>
       <c r="B219">
@@ -16781,7 +16841,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="54">
+      <c r="A220" s="53">
         <v>171</v>
       </c>
       <c r="B220">
@@ -16797,7 +16857,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="54">
+      <c r="A221" s="53">
         <v>168.3</v>
       </c>
       <c r="B221">
@@ -16813,7 +16873,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="54">
+      <c r="A222" s="53">
         <v>165.6</v>
       </c>
       <c r="B222">
@@ -16829,7 +16889,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="54">
+      <c r="A223" s="53">
         <v>163</v>
       </c>
       <c r="B223">
@@ -16845,7 +16905,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="54">
+      <c r="A224" s="53">
         <v>160.39999999999998</v>
       </c>
       <c r="B224">
@@ -16861,7 +16921,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="54">
+      <c r="A225" s="53">
         <v>157.9</v>
       </c>
       <c r="B225">
@@ -16877,7 +16937,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="54">
+      <c r="A226" s="53">
         <v>155.5</v>
       </c>
       <c r="B226">
@@ -16893,7 +16953,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="54">
+      <c r="A227" s="53">
         <v>153.10000000000002</v>
       </c>
       <c r="B227">
@@ -16909,7 +16969,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="54">
+      <c r="A228" s="53">
         <v>150.69999999999999</v>
       </c>
       <c r="B228">
@@ -16925,7 +16985,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="54">
+      <c r="A229" s="53">
         <v>148.4</v>
       </c>
       <c r="B229">
@@ -16941,7 +17001,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="54">
+      <c r="A230" s="53">
         <v>146.1</v>
       </c>
       <c r="B230">
@@ -16957,7 +17017,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="54">
+      <c r="A231" s="53">
         <v>143.9</v>
       </c>
       <c r="B231">
@@ -16973,7 +17033,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="54">
+      <c r="A232" s="53">
         <v>141.69999999999999</v>
       </c>
       <c r="B232">
@@ -16989,7 +17049,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="54">
+      <c r="A233" s="53">
         <v>139.6</v>
       </c>
       <c r="B233">
@@ -17005,7 +17065,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="54">
+      <c r="A234" s="53">
         <v>137.5</v>
       </c>
       <c r="B234">
@@ -17021,7 +17081,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="54">
+      <c r="A235" s="53">
         <v>135.4</v>
       </c>
       <c r="B235">
@@ -17037,7 +17097,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="54">
+      <c r="A236" s="53">
         <v>133.39999999999998</v>
       </c>
       <c r="B236">
@@ -17053,7 +17113,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="54">
+      <c r="A237" s="53">
         <v>131.39999999999998</v>
       </c>
       <c r="B237">
@@ -17069,7 +17129,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="54">
+      <c r="A238" s="53">
         <v>129.5</v>
       </c>
       <c r="B238">
@@ -17085,7 +17145,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="54">
+      <c r="A239" s="53">
         <v>127.5</v>
       </c>
       <c r="B239">
@@ -17101,7 +17161,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="54">
+      <c r="A240" s="53">
         <v>125.7</v>
       </c>
       <c r="B240">
@@ -17117,7 +17177,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="54">
+      <c r="A241" s="53">
         <v>123.8</v>
       </c>
       <c r="B241">
@@ -17133,7 +17193,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="54">
+      <c r="A242" s="53">
         <v>122</v>
       </c>
       <c r="B242">
@@ -17149,7 +17209,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="54">
+      <c r="A243" s="53">
         <v>120.2</v>
       </c>
       <c r="B243">
@@ -17165,7 +17225,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="54">
+      <c r="A244" s="53">
         <v>118.5</v>
       </c>
       <c r="B244">
@@ -17181,7 +17241,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="54">
+      <c r="A245" s="53">
         <v>116.8</v>
       </c>
       <c r="B245">
@@ -17197,7 +17257,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="54">
+      <c r="A246" s="53">
         <v>115.1</v>
       </c>
       <c r="B246">
@@ -17213,7 +17273,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="54">
+      <c r="A247" s="53">
         <v>113.4</v>
       </c>
       <c r="B247">
@@ -17229,7 +17289,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="54">
+      <c r="A248" s="53">
         <v>111.8</v>
       </c>
       <c r="B248">
@@ -17245,7 +17305,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="54">
+      <c r="A249" s="53">
         <v>110.2</v>
       </c>
       <c r="B249">
@@ -17261,7 +17321,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="54">
+      <c r="A250" s="53">
         <v>108.60000000000001</v>
       </c>
       <c r="B250">
@@ -17277,7 +17337,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="54">
+      <c r="A251" s="53">
         <v>107.1</v>
       </c>
       <c r="B251">
@@ -17293,7 +17353,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="54">
+      <c r="A252" s="53">
         <v>105.6</v>
       </c>
       <c r="B252">

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55071A79-073F-4331-AF0C-9BD20E3F4F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E716B2-BF5D-4635-B91A-9AB8866A2968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -9242,7 +9242,7 @@
   <dimension ref="B2:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9788,8 +9788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFCC8DD-5DD0-4266-935E-E84E0B0CCB9F}">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10443,8 +10443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26896A59-DB25-45D2-BE1C-6FD458C3B096}">
   <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/design/SensorUnit_2023-05-28.xlsx
+++ b/design/SensorUnit_2023-05-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\KnurDash\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E716B2-BF5D-4635-B91A-9AB8866A2968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73C0266-0853-45E6-9872-B4A3682BBB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C15B9210-5287-4BB4-843A-B886E7D7C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="175">
   <si>
     <t>Vin</t>
   </si>
@@ -643,6 +643,24 @@
   </si>
   <si>
     <t>5V to on</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>GPIO23</t>
+  </si>
+  <si>
+    <t>TransPump</t>
+  </si>
+  <si>
+    <t>GPIO22</t>
+  </si>
+  <si>
+    <t>GPIO4</t>
   </si>
 </sst>
 </file>
@@ -8622,7 +8640,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="20000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8666,7 +8696,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9786,10 +9816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFCC8DD-5DD0-4266-935E-E84E0B0CCB9F}">
-  <dimension ref="B1:Q34"/>
+  <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9838,6 +9868,12 @@
       <c r="B3" s="48" t="s">
         <v>22</v>
       </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
       <c r="F3" s="44" t="s">
         <v>30</v>
       </c>
@@ -9872,6 +9908,9 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
       <c r="F4" s="43" t="s">
         <v>31</v>
       </c>
@@ -9905,6 +9944,9 @@
       </c>
       <c r="C5" t="s">
         <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>32</v>
@@ -9938,6 +9980,9 @@
       <c r="D6" t="s">
         <v>142</v>
       </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
       <c r="F6" s="24" t="s">
         <v>33</v>
       </c>
@@ -9970,6 +10015,9 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
       <c r="F7" s="46" t="s">
         <v>35</v>
       </c>
@@ -10002,6 +10050,9 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
       <c r="F8" s="47" t="s">
         <v>34</v>
       </c>
@@ -10030,8 +10081,14 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
       <c r="C9" t="s">
         <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
       </c>
       <c r="F9" s="50" t="s">
         <v>36</v>
@@ -10061,8 +10118,14 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
       <c r="C10" t="s">
         <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>37</v>
@@ -10103,14 +10166,20 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>144</v>
+      <c r="G12" s="9">
+        <v>16</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
@@ -10408,6 +10477,9 @@
       <c r="D33" s="25" t="s">
         <v>71</v>
       </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
       <c r="G33" t="s">
         <v>120</v>
       </c>
@@ -10427,6 +10499,18 @@
       </c>
       <c r="H34" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <f>B41/C41</f>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10443,7 +10527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26896A59-DB25-45D2-BE1C-6FD458C3B096}">
   <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
